--- a/resources/project-resources/pokemon-maps/hoenn/all_coordinates.xlsx
+++ b/resources/project-resources/pokemon-maps/hoenn/all_coordinates.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kabir/Project.Environments/Website.Environment/kabirakabira.github.io/resources/project-resources/pokemon-maps/hoenn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD6D55B-E48E-C142-82B7-E95E67500432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD79A91-373A-E34E-9EF5-3A1DDAC4B6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22340" yWindow="2400" windowWidth="10000" windowHeight="17720" xr2:uid="{51E141A1-4224-E742-AC16-550646A95C01}"/>
+    <workbookView xWindow="29520" yWindow="3080" windowWidth="10000" windowHeight="16040" firstSheet="1" activeTab="3" xr2:uid="{51E141A1-4224-E742-AC16-550646A95C01}"/>
   </bookViews>
   <sheets>
     <sheet name="circleMarkers" sheetId="1" r:id="rId1"/>
     <sheet name="polygons" sheetId="2" r:id="rId2"/>
+    <sheet name="pokemon_specific" sheetId="3" r:id="rId3"/>
+    <sheet name="testing" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="213">
   <si>
     <t>Name</t>
   </si>
@@ -144,9 +146,6 @@
     <t>Magma/Aqua Hideout</t>
   </si>
   <si>
-    <t>Mossdeep Space Station</t>
-  </si>
-  <si>
     <t>Shoal Cave</t>
   </si>
   <si>
@@ -159,193 +158,526 @@
     <t>Victory Road</t>
   </si>
   <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Route 101</t>
+  </si>
+  <si>
+    <t>Route 102</t>
+  </si>
+  <si>
+    <t>Route 104 - 1</t>
+  </si>
+  <si>
+    <t>Route 104 - 2</t>
+  </si>
+  <si>
+    <t>Route 115</t>
+  </si>
+  <si>
+    <t>Route 116</t>
+  </si>
+  <si>
+    <t>Route 103 - 1</t>
+  </si>
+  <si>
+    <t>Route 103 - 2</t>
+  </si>
+  <si>
+    <t>Route 110</t>
+  </si>
+  <si>
+    <t>Route 109</t>
+  </si>
+  <si>
+    <t>Route 108</t>
+  </si>
+  <si>
+    <t>Route 107</t>
+  </si>
+  <si>
+    <t>Route 106 - 1</t>
+  </si>
+  <si>
+    <t>Route 106 - 2</t>
+  </si>
+  <si>
+    <t>Route 105</t>
+  </si>
+  <si>
+    <t>Route 117</t>
+  </si>
+  <si>
+    <t>Route 111</t>
+  </si>
+  <si>
+    <t>Route 112 - 1</t>
+  </si>
+  <si>
+    <t>Route 112 - 2</t>
+  </si>
+  <si>
+    <t>Jagged Pass</t>
+  </si>
+  <si>
+    <t>Mt. Chimney</t>
+  </si>
+  <si>
+    <t>Route 113</t>
+  </si>
+  <si>
+    <t>Route 114</t>
+  </si>
+  <si>
+    <t>Route 118</t>
+  </si>
+  <si>
+    <t>Route 123</t>
+  </si>
+  <si>
+    <t>Route 119</t>
+  </si>
+  <si>
+    <t>Route 120</t>
+  </si>
+  <si>
+    <t>Route 121</t>
+  </si>
+  <si>
+    <t>Route 122</t>
+  </si>
+  <si>
+    <t>Route 124</t>
+  </si>
+  <si>
+    <t>Route 125</t>
+  </si>
+  <si>
+    <t>Route 126</t>
+  </si>
+  <si>
+    <t>Route 127</t>
+  </si>
+  <si>
+    <t>Route 128</t>
+  </si>
+  <si>
+    <t>Route 129</t>
+  </si>
+  <si>
+    <t>Route 130</t>
+  </si>
+  <si>
+    <t>Route 131</t>
+  </si>
+  <si>
+    <t>Route 132</t>
+  </si>
+  <si>
+    <t>Route 133</t>
+  </si>
+  <si>
+    <t>Route 134</t>
+  </si>
+  <si>
+    <t>x_size</t>
+  </si>
+  <si>
+    <t>y_size</t>
+  </si>
+  <si>
+    <t>TL_X</t>
+  </si>
+  <si>
+    <t>TL_Y</t>
+  </si>
+  <si>
+    <t>BL_X</t>
+  </si>
+  <si>
+    <t>BL_Y</t>
+  </si>
+  <si>
+    <t>BR_X</t>
+  </si>
+  <si>
+    <t>BR_Y</t>
+  </si>
+  <si>
+    <t>TR_X</t>
+  </si>
+  <si>
+    <t>TR_Y</t>
+  </si>
+  <si>
+    <t>TL_Coord</t>
+  </si>
+  <si>
+    <t>BL_Coord</t>
+  </si>
+  <si>
+    <t>BR_Coord</t>
+  </si>
+  <si>
+    <t>TR_Coord</t>
+  </si>
+  <si>
+    <t>Full_Coord</t>
+  </si>
+  <si>
+    <t>GIMP COORDINATES (in 800x1200)</t>
+  </si>
+  <si>
+    <t>LEAFLET COORDINATES (in 800 x 1200)</t>
+  </si>
+  <si>
+    <t>PERCENT COORDINATES (dynamic)</t>
+  </si>
+  <si>
+    <t>Mt. Pyre</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>Safari Zone</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
+  </si>
+  <si>
+    <t>Treecko</t>
+  </si>
+  <si>
+    <t>Torchic</t>
+  </si>
+  <si>
+    <t>Mudkip</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Lat (800)</t>
+  </si>
+  <si>
+    <t>Lon (1200)</t>
+  </si>
+  <si>
+    <t>Littleroot</t>
+  </si>
+  <si>
+    <t>Rayquaza</t>
+  </si>
+  <si>
+    <t>Latios</t>
+  </si>
+  <si>
+    <t>Latias</t>
+  </si>
+  <si>
     <t>Southern Isles</t>
   </si>
   <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Route 101</t>
-  </si>
-  <si>
-    <t>Route 102</t>
-  </si>
-  <si>
-    <t>Route 104 - 1</t>
-  </si>
-  <si>
-    <t>Route 104 - 2</t>
-  </si>
-  <si>
-    <t>Route 115</t>
-  </si>
-  <si>
-    <t>Route 116</t>
-  </si>
-  <si>
-    <t>Route 103 - 1</t>
-  </si>
-  <si>
-    <t>Route 103 - 2</t>
-  </si>
-  <si>
-    <t>Route 110</t>
-  </si>
-  <si>
-    <t>Route 109</t>
-  </si>
-  <si>
-    <t>Route 108</t>
-  </si>
-  <si>
-    <t>Route 107</t>
-  </si>
-  <si>
-    <t>Route 106 - 1</t>
-  </si>
-  <si>
-    <t>Route 106 - 2</t>
-  </si>
-  <si>
-    <t>Route 105</t>
-  </si>
-  <si>
-    <t>Route 117</t>
-  </si>
-  <si>
-    <t>Route 111</t>
-  </si>
-  <si>
-    <t>Route 112 - 1</t>
-  </si>
-  <si>
-    <t>Route 112 - 2</t>
-  </si>
-  <si>
-    <t>Jagged Pass</t>
-  </si>
-  <si>
-    <t>Mt. Chimney</t>
-  </si>
-  <si>
-    <t>Route 113</t>
-  </si>
-  <si>
-    <t>Route 114</t>
-  </si>
-  <si>
-    <t>Route 118</t>
-  </si>
-  <si>
-    <t>Route 123</t>
-  </si>
-  <si>
-    <t>Route 119</t>
-  </si>
-  <si>
-    <t>Route 120</t>
-  </si>
-  <si>
-    <t>Route 121</t>
-  </si>
-  <si>
-    <t>Route 122</t>
-  </si>
-  <si>
-    <t>Route 124</t>
-  </si>
-  <si>
-    <t>Route 125</t>
-  </si>
-  <si>
-    <t>Route 126</t>
-  </si>
-  <si>
-    <t>Route 127</t>
-  </si>
-  <si>
-    <t>Route 128</t>
-  </si>
-  <si>
-    <t>Route 129</t>
-  </si>
-  <si>
-    <t>Route 130</t>
-  </si>
-  <si>
-    <t>Route 131</t>
-  </si>
-  <si>
-    <t>Route 132</t>
-  </si>
-  <si>
-    <t>Route 133</t>
-  </si>
-  <si>
-    <t>Route 134</t>
-  </si>
-  <si>
-    <t>x_size</t>
-  </si>
-  <si>
-    <t>y_size</t>
-  </si>
-  <si>
-    <t>TL_X</t>
-  </si>
-  <si>
-    <t>TL_Y</t>
-  </si>
-  <si>
-    <t>BL_X</t>
-  </si>
-  <si>
-    <t>BL_Y</t>
-  </si>
-  <si>
-    <t>BR_X</t>
-  </si>
-  <si>
-    <t>BR_Y</t>
-  </si>
-  <si>
-    <t>TR_X</t>
-  </si>
-  <si>
-    <t>TR_Y</t>
-  </si>
-  <si>
-    <t>TL_Coord</t>
-  </si>
-  <si>
-    <t>BL_Coord</t>
-  </si>
-  <si>
-    <t>BR_Coord</t>
-  </si>
-  <si>
-    <t>TR_Coord</t>
-  </si>
-  <si>
-    <t>Full_Coord</t>
-  </si>
-  <si>
-    <t>GIMP COORDINATES (in 800x1200)</t>
-  </si>
-  <si>
-    <t>LEAFLET COORDINATES (in 800 x 1200)</t>
-  </si>
-  <si>
-    <t>PERCENT COORDINATES (dynamic)</t>
-  </si>
-  <si>
-    <t>Mt. Pyre</t>
-  </si>
-  <si>
-    <t>large</t>
+    <t>Percent Lat</t>
+  </si>
+  <si>
+    <t>Percent Lon</t>
+  </si>
+  <si>
+    <t>image_x</t>
+  </si>
+  <si>
+    <t>image_y</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>newHeight</t>
+  </si>
+  <si>
+    <t>newWidth</t>
+  </si>
+  <si>
+    <t>Wingull_1</t>
+  </si>
+  <si>
+    <t>Wingull_2</t>
+  </si>
+  <si>
+    <t>Wingull_3</t>
+  </si>
+  <si>
+    <t>Wingull_4</t>
+  </si>
+  <si>
+    <t>Wingull_5</t>
+  </si>
+  <si>
+    <t>Wingull_6</t>
+  </si>
+  <si>
+    <t>West Petalburg</t>
+  </si>
+  <si>
+    <t>South Slateport</t>
+  </si>
+  <si>
+    <t>East Lilycove</t>
+  </si>
+  <si>
+    <t>Pacifidlog</t>
+  </si>
+  <si>
+    <t>West EverGrande</t>
+  </si>
+  <si>
+    <t>Northwest Rustboro</t>
+  </si>
+  <si>
+    <t>Duskull</t>
+  </si>
+  <si>
+    <t>Shuppet</t>
+  </si>
+  <si>
+    <t>Mt Pyre</t>
+  </si>
+  <si>
+    <t>Torkoal</t>
+  </si>
+  <si>
+    <t>Mt Chimney</t>
+  </si>
+  <si>
+    <t>Meditite</t>
+  </si>
+  <si>
+    <t>Carvanha_1</t>
+  </si>
+  <si>
+    <t>Carvanha_2</t>
+  </si>
+  <si>
+    <t>East Mauville</t>
+  </si>
+  <si>
+    <t>North Oldale</t>
+  </si>
+  <si>
+    <t>Sharpedo</t>
+  </si>
+  <si>
+    <t>Southwest EverGrande</t>
+  </si>
+  <si>
+    <t>Cacnea</t>
+  </si>
+  <si>
+    <t>Desert</t>
+  </si>
+  <si>
+    <t>Trapinch</t>
+  </si>
+  <si>
+    <t>Absol</t>
+  </si>
+  <si>
+    <t>Southeast Fortree</t>
+  </si>
+  <si>
+    <t>Oddish</t>
+  </si>
+  <si>
+    <t>East Fortree</t>
+  </si>
+  <si>
+    <t>Mightyena</t>
+  </si>
+  <si>
+    <t>South Fortree</t>
+  </si>
+  <si>
+    <t>Linoone</t>
+  </si>
+  <si>
+    <t>Tropius</t>
+  </si>
+  <si>
+    <t>West Fortree</t>
+  </si>
+  <si>
+    <t>Skarmory</t>
+  </si>
+  <si>
+    <t>East Fallarbor</t>
+  </si>
+  <si>
+    <t>Barboach</t>
+  </si>
+  <si>
+    <t>West Fallarbor</t>
+  </si>
+  <si>
+    <t>Lombre</t>
+  </si>
+  <si>
+    <t>Wurmple</t>
+  </si>
+  <si>
+    <t>Slakoth</t>
+  </si>
+  <si>
+    <t>Swellow</t>
+  </si>
+  <si>
+    <t>South Verdanturf</t>
+  </si>
+  <si>
+    <t>Bounds_Normal</t>
+  </si>
+  <si>
+    <t>Bounds_1_Normal</t>
+  </si>
+  <si>
+    <t>Bounds_2_Normal</t>
+  </si>
+  <si>
+    <t>Numel</t>
+  </si>
+  <si>
+    <t>East Lavaridge</t>
+  </si>
+  <si>
+    <t>Marill</t>
+  </si>
+  <si>
+    <t>North Mauville</t>
+  </si>
+  <si>
+    <t>Volbeat</t>
+  </si>
+  <si>
+    <t>Illumise</t>
+  </si>
+  <si>
+    <t>West Mauville</t>
+  </si>
+  <si>
+    <t>Geodude</t>
+  </si>
+  <si>
+    <t>Feebas</t>
+  </si>
+  <si>
+    <t>Kecleon</t>
+  </si>
+  <si>
+    <t>Electrike</t>
+  </si>
+  <si>
+    <t>Taillow</t>
+  </si>
+  <si>
+    <t>West Rustboro</t>
+  </si>
+  <si>
+    <t>Ralts</t>
+  </si>
+  <si>
+    <t>East Petalburg</t>
+  </si>
+  <si>
+    <t>Seedot</t>
+  </si>
+  <si>
+    <t>Zigzagoon</t>
+  </si>
+  <si>
+    <t>Poochyena</t>
+  </si>
+  <si>
+    <t>Nosepass</t>
+  </si>
+  <si>
+    <t>Dewford</t>
+  </si>
+  <si>
+    <t>Corsola</t>
+  </si>
+  <si>
+    <t>South EverGrande</t>
+  </si>
+  <si>
+    <t>Sealeo</t>
+  </si>
+  <si>
+    <t>North Mossdeep</t>
+  </si>
+  <si>
+    <t>Beldum</t>
+  </si>
+  <si>
+    <t>Mossdeep</t>
+  </si>
+  <si>
+    <t>Clamperl</t>
+  </si>
+  <si>
+    <t>Northwest Sootopolis</t>
+  </si>
+  <si>
+    <t>Relicanth</t>
+  </si>
+  <si>
+    <t>South Sootopolis</t>
+  </si>
+  <si>
+    <t>Chinchou</t>
+  </si>
+  <si>
+    <t>Sootopolis</t>
+  </si>
+  <si>
+    <t>Luvdisc</t>
+  </si>
+  <si>
+    <t>East Sootopolis</t>
+  </si>
+  <si>
+    <t>Pelipper</t>
+  </si>
+  <si>
+    <t>East Slateport</t>
+  </si>
+  <si>
+    <t>Tentacool_1</t>
+  </si>
+  <si>
+    <t>Tentacool_2</t>
+  </si>
+  <si>
+    <t>South Pacifidlog</t>
+  </si>
+  <si>
+    <t>North Pacifidlog</t>
+  </si>
+  <si>
+    <t>Tentacruel</t>
+  </si>
+  <si>
+    <t>Southwest EvergGrande</t>
+  </si>
+  <si>
+    <t>Hariyama</t>
+  </si>
+  <si>
+    <t>desired_area</t>
   </si>
 </sst>
 </file>
@@ -720,14 +1052,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D189407-8952-2840-82DF-A301FE257C5F}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="2" max="7" width="10.83203125" customWidth="1"/>
     <col min="8" max="8" width="57.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -755,7 +1088,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -781,7 +1114,7 @@
         <v>0.198610433</v>
       </c>
       <c r="H2" t="str">
-        <f t="shared" ref="H2:H33" si="0">_xlfn.CONCAT("[", F2, "* imageHeight", ", ", G2, "* imageWidth", "]")</f>
+        <f t="shared" ref="H2:H32" si="0">_xlfn.CONCAT("[", F2, "* imageHeight", ", ", G2, "* imageWidth", "]")</f>
         <v>[0.292020874* imageHeight, 0.198610433* imageWidth]</v>
       </c>
     </row>
@@ -1408,7 +1741,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -1420,7 +1753,7 @@
         <v>291.37326049804602</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F26">
         <f>C26/800</f>
@@ -1437,7 +1770,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -1449,7 +1782,7 @@
         <v>729.62326049804597</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F27">
         <f>C27/800</f>
@@ -1499,23 +1832,23 @@
         <v>26</v>
       </c>
       <c r="C29">
-        <v>619.125</v>
+        <v>678.97937620000005</v>
       </c>
       <c r="D29">
-        <v>1094.625</v>
+        <v>1061.038918</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
       </c>
       <c r="F29">
-        <v>0.77390625000000002</v>
+        <v>0.84872422000000003</v>
       </c>
       <c r="G29">
-        <v>0.91218750000000004</v>
+        <v>0.88419909900000004</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
-        <v>[0.77390625* imageHeight, 0.9121875* imageWidth]</v>
+        <v>[0.84872422* imageHeight, 0.884199099* imageWidth]</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1526,104 +1859,79 @@
         <v>26</v>
       </c>
       <c r="C30">
-        <v>678.97937620000005</v>
+        <v>324.25000180000001</v>
       </c>
       <c r="D30">
-        <v>1061.038918</v>
+        <v>898.24999930000001</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F30">
-        <v>0.84872422000000003</v>
+        <v>0.40531250200000002</v>
       </c>
       <c r="G30">
-        <v>0.88419909900000004</v>
+        <v>0.74854166600000005</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
-        <v>[0.84872422* imageHeight, 0.884199099* imageWidth]</v>
+        <v>[0.405312502* imageHeight, 0.748541666* imageWidth]</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
       </c>
       <c r="C31">
-        <v>324.25000180000001</v>
+        <v>444</v>
       </c>
       <c r="D31">
-        <v>898.24999930000001</v>
+        <v>1126.75</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="F31">
-        <v>0.40531250200000002</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="G31">
-        <v>0.74854166600000005</v>
+        <v>0.93895833299999998</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
-        <v>[0.405312502* imageHeight, 0.748541666* imageWidth]</v>
+        <v>[0.555* imageHeight, 0.938958333* imageWidth]</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
       </c>
       <c r="C32">
-        <v>444</v>
+        <v>649.49479442636095</v>
       </c>
       <c r="D32">
-        <v>1126.75</v>
+        <v>744.28645706176701</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F32">
-        <v>0.55500000000000005</v>
+        <f>C32/800</f>
+        <v>0.81186849303295117</v>
       </c>
       <c r="G32">
-        <v>0.93895833299999998</v>
+        <f>D32/1200</f>
+        <v>0.62023871421813914</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
-        <v>[0.555* imageHeight, 0.938958333* imageWidth]</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33">
-        <v>111.75</v>
-      </c>
-      <c r="D33">
-        <v>561.25</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33">
-        <v>0.13968749999999999</v>
-      </c>
-      <c r="G33">
-        <v>0.46770833299999998</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="0"/>
-        <v>[0.1396875* imageHeight, 0.467708333* imageWidth]</v>
+        <v>[0.811868493032951* imageHeight, 0.620238714218139* imageWidth]</v>
       </c>
     </row>
   </sheetData>
@@ -1637,40 +1945,40 @@
   <dimension ref="A1:AF41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6" hidden="1" customWidth="1"/>
-    <col min="4" max="5" width="4.6640625" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="5" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="5.33203125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="5" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="4.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="5" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="5.33203125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="5.1640625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="5" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="12.1640625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="8.1640625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="8.1640625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="12.1640625" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="8.1640625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="12.1640625" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="8.1640625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="47.6640625" hidden="1" customWidth="1"/>
-    <col min="29" max="30" width="49.6640625" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="47.6640625" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="6" customWidth="1"/>
+    <col min="4" max="5" width="4.6640625" customWidth="1"/>
+    <col min="6" max="7" width="5" customWidth="1"/>
+    <col min="8" max="9" width="5.33203125" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" customWidth="1"/>
+    <col min="11" max="11" width="5" customWidth="1"/>
+    <col min="12" max="13" width="4.6640625" customWidth="1"/>
+    <col min="14" max="15" width="5" customWidth="1"/>
+    <col min="16" max="17" width="5.33203125" customWidth="1"/>
+    <col min="18" max="18" width="5.1640625" customWidth="1"/>
+    <col min="19" max="19" width="5" customWidth="1"/>
+    <col min="20" max="20" width="12.1640625" customWidth="1"/>
+    <col min="21" max="21" width="8.1640625" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" customWidth="1"/>
+    <col min="23" max="23" width="8.1640625" customWidth="1"/>
+    <col min="24" max="24" width="12.1640625" customWidth="1"/>
+    <col min="25" max="25" width="8.1640625" customWidth="1"/>
+    <col min="26" max="26" width="12.1640625" customWidth="1"/>
+    <col min="27" max="27" width="8.1640625" customWidth="1"/>
+    <col min="28" max="28" width="47.6640625" customWidth="1"/>
+    <col min="29" max="30" width="49.6640625" customWidth="1"/>
+    <col min="31" max="31" width="47.6640625" customWidth="1"/>
     <col min="32" max="32" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1682,7 +1990,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -1692,7 +2000,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -1704,105 +2012,105 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
         <v>83</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>84</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>85</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>86</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>87</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>88</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>89</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>90</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R2" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" t="s">
+        <v>90</v>
+      </c>
+      <c r="T2" t="s">
+        <v>83</v>
+      </c>
+      <c r="U2" t="s">
+        <v>84</v>
+      </c>
+      <c r="V2" t="s">
+        <v>85</v>
+      </c>
+      <c r="W2" t="s">
+        <v>86</v>
+      </c>
+      <c r="X2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB2" t="s">
         <v>91</v>
       </c>
-      <c r="K2" t="s">
+      <c r="AC2" t="s">
         <v>92</v>
       </c>
-      <c r="L2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O2" t="s">
-        <v>88</v>
-      </c>
-      <c r="P2" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>90</v>
-      </c>
-      <c r="R2" t="s">
-        <v>91</v>
-      </c>
-      <c r="S2" t="s">
-        <v>92</v>
-      </c>
-      <c r="T2" t="s">
-        <v>85</v>
-      </c>
-      <c r="U2" t="s">
-        <v>86</v>
-      </c>
-      <c r="V2" t="s">
-        <v>87</v>
-      </c>
-      <c r="W2" t="s">
-        <v>88</v>
-      </c>
-      <c r="X2" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>93</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>94</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>95</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>18</v>
@@ -1927,7 +2235,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>63</v>
@@ -2052,7 +2360,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>94</v>
@@ -2177,7 +2485,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>51</v>
@@ -2302,7 +2610,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>51</v>
@@ -2427,7 +2735,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>89</v>
@@ -2552,7 +2860,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>25</v>
@@ -2677,7 +2985,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>81</v>
@@ -2802,7 +3110,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>65</v>
@@ -2927,7 +3235,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>76</v>
@@ -3052,7 +3360,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>68</v>
@@ -3177,7 +3485,7 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>91</v>
@@ -3302,7 +3610,7 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>143</v>
@@ -3427,7 +3735,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>22</v>
@@ -3552,7 +3860,7 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>54</v>
@@ -3677,7 +3985,7 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>99</v>
@@ -3802,7 +4110,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>67</v>
@@ -3927,7 +4235,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>26</v>
@@ -4052,7 +4360,7 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>43</v>
@@ -4177,7 +4485,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -4302,7 +4610,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>140</v>
@@ -4427,7 +4735,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>60</v>
@@ -4552,7 +4860,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>154</v>
@@ -4677,7 +4985,7 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>197</v>
@@ -4802,7 +5110,7 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>80</v>
@@ -4927,7 +5235,7 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>110</v>
@@ -5052,7 +5360,7 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>125</v>
@@ -5177,7 +5485,7 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>166</v>
@@ -5302,7 +5610,7 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>125</v>
@@ -5427,7 +5735,7 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>149</v>
@@ -5552,7 +5860,7 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>125</v>
@@ -5677,7 +5985,7 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>109</v>
@@ -5802,7 +6110,7 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>171</v>
@@ -5927,7 +6235,7 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>123</v>
@@ -6052,7 +6360,7 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>91</v>
@@ -6177,7 +6485,7 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>71</v>
@@ -6302,7 +6610,7 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>93</v>
@@ -6427,7 +6735,7 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>102</v>
@@ -6552,7 +6860,7 @@
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>131</v>
@@ -6687,4 +6995,6289 @@
     <ignoredError sqref="M3" formula="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BAD0FD-8014-834D-9294-051F4AFB1192}">
+  <dimension ref="A1:N59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="A1:N59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.5" hidden="1" customWidth="1"/>
+    <col min="6" max="9" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="11" max="13" width="10.83203125" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M1" t="s">
+        <v>168</v>
+      </c>
+      <c r="N1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2">
+        <v>44</v>
+      </c>
+      <c r="D2">
+        <v>63</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E8" si="0">C2/D2</f>
+        <v>0.69841269841269837</v>
+      </c>
+      <c r="F2">
+        <v>231.49480207482799</v>
+      </c>
+      <c r="G2">
+        <v>205.68055343627901</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H7" si="1">F2/800</f>
+        <v>0.28936850259353497</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I7" si="2">G2/1200</f>
+        <v>0.17140046119689917</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <f>J2*E2</f>
+        <v>13.968253968253968</v>
+      </c>
+      <c r="L2" t="str">
+        <f>_xlfn.CONCAT("[", H2, " * imageHeight", ", ", I2, "* imageWidth", "]")</f>
+        <v>[0.289368502593535 * imageHeight, 0.171400461196899* imageWidth]</v>
+      </c>
+      <c r="M2" t="str">
+        <f>_xlfn.CONCAT("[(", H2, " * imageHeight)", " + ",  J2, ", (", I2, "* imageWidth)", " + ", K2, "]" )</f>
+        <v>[(0.289368502593535 * imageHeight) + 20, (0.171400461196899* imageWidth) + 13.968253968254]</v>
+      </c>
+      <c r="N2" t="str">
+        <f>_xlfn.CONCAT("[", L2, ", ", M2, "]")</f>
+        <v>[[0.289368502593535 * imageHeight, 0.171400461196899* imageWidth], [(0.289368502593535 * imageHeight) + 20, (0.171400461196899* imageWidth) + 13.968253968254]]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>46</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>0.73913043478260865</v>
+      </c>
+      <c r="F3">
+        <v>199.744804497161</v>
+      </c>
+      <c r="G3">
+        <v>226.18055343627901</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>0.24968100562145124</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="2"/>
+        <v>0.18848379453023251</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K8" si="3">J3*E3</f>
+        <v>14.782608695652172</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L8" si="4">_xlfn.CONCAT("[", H3, " * imageHeight", ", ", I3, "* imageWidth", "]")</f>
+        <v>[0.249681005621451 * imageHeight, 0.188483794530233* imageWidth]</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M8" si="5">_xlfn.CONCAT("[(", H3, " * imageHeight)", " + ",  J3, ", (", I3, "* imageWidth)", " + ", K3, "]" )</f>
+        <v>[(0.249681005621451 * imageHeight) + 20, (0.188483794530233* imageWidth) + 14.7826086956522]</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N8" si="6">_xlfn.CONCAT("[", L3, ", ", M3, "]")</f>
+        <v>[[0.249681005621451 * imageHeight, 0.188483794530233* imageWidth], [(0.249681005621451 * imageHeight) + 20, (0.188483794530233* imageWidth) + 14.7826086956522]]</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <v>49</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.89795918367346939</v>
+      </c>
+      <c r="F4">
+        <v>227.744802360931</v>
+      </c>
+      <c r="G4">
+        <v>256.43055343627901</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0.28468100295116378</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>0.21369212786356584</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>17.959183673469386</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="4"/>
+        <v>[0.284681002951164 * imageHeight, 0.213692127863566* imageWidth]</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="5"/>
+        <v>[(0.284681002951164 * imageHeight) + 20, (0.213692127863566* imageWidth) + 17.9591836734694]</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="6"/>
+        <v>[[0.284681002951164 * imageHeight, 0.213692127863566* imageWidth], [(0.284681002951164 * imageHeight) + 20, (0.213692127863566* imageWidth) + 17.9591836734694]]</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>110</v>
+      </c>
+      <c r="D5">
+        <v>97</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.134020618556701</v>
+      </c>
+      <c r="F5">
+        <v>340</v>
+      </c>
+      <c r="G5">
+        <v>875</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="J5">
+        <v>40</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>45.360824742268036</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="4"/>
+        <v>[0.425 * imageHeight, 0.729166666666667* imageWidth]</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="5"/>
+        <v>[(0.425 * imageHeight) + 40, (0.729166666666667* imageWidth) + 45.360824742268]</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="6"/>
+        <v>[[0.425 * imageHeight, 0.729166666666667* imageWidth], [(0.425 * imageHeight) + 40, (0.729166666666667* imageWidth) + 45.360824742268]]</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6">
+        <v>95</v>
+      </c>
+      <c r="D6">
+        <v>84</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.1309523809523809</v>
+      </c>
+      <c r="F6">
+        <v>110.49479879418899</v>
+      </c>
+      <c r="G6">
+        <v>507.68055343627901</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0.13811849849273625</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0.42306712786356582</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>33.928571428571431</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="4"/>
+        <v>[0.138118498492736 * imageHeight, 0.423067127863566* imageWidth]</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="5"/>
+        <v>[(0.138118498492736 * imageHeight) + 30, (0.423067127863566* imageWidth) + 33.9285714285714]</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="6"/>
+        <v>[[0.138118498492736 * imageHeight, 0.423067127863566* imageWidth], [(0.138118498492736 * imageHeight) + 30, (0.423067127863566* imageWidth) + 33.9285714285714]]</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7">
+        <v>93</v>
+      </c>
+      <c r="D7">
+        <v>65</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.4307692307692308</v>
+      </c>
+      <c r="F7">
+        <v>90</v>
+      </c>
+      <c r="G7">
+        <v>570</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0.1125</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="J7">
+        <v>25</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>35.769230769230766</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="4"/>
+        <v>[0.1125 * imageHeight, 0.475* imageWidth]</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="5"/>
+        <v>[(0.1125 * imageHeight) + 25, (0.475* imageWidth) + 35.7692307692308]</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="6"/>
+        <v>[[0.1125 * imageHeight, 0.475* imageWidth], [(0.1125 * imageHeight) + 25, (0.475* imageWidth) + 35.7692307692308]]</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8">
+        <v>64</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.4222222222222223</v>
+      </c>
+      <c r="F8">
+        <v>267.49739830990598</v>
+      </c>
+      <c r="G8">
+        <v>85.618055343627901</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H33" si="7">F8/800</f>
+        <v>0.33437174788738244</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I33" si="8">G8/1200</f>
+        <v>7.1348379453023247E-2</v>
+      </c>
+      <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>28.444444444444446</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="4"/>
+        <v>[0.334371747887382 * imageHeight, 0.0713483794530232* imageWidth]</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="5"/>
+        <v>[(0.334371747887382 * imageHeight) + 20, (0.0713483794530232* imageWidth) + 28.4444444444444]</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="6"/>
+        <v>[[0.334371747887382 * imageHeight, 0.0713483794530232* imageWidth], [(0.334371747887382 * imageHeight) + 20, (0.0713483794530232* imageWidth) + 28.4444444444444]]</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9">
+        <v>64</v>
+      </c>
+      <c r="D9">
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E59" si="9">C9/D9</f>
+        <v>1.4222222222222223</v>
+      </c>
+      <c r="F9">
+        <v>219.122402143676</v>
+      </c>
+      <c r="G9">
+        <v>397.99305534362702</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="7"/>
+        <v>0.273903002679595</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="8"/>
+        <v>0.33166087945302253</v>
+      </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:K34" si="10">J9*E9</f>
+        <v>28.444444444444446</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" ref="L9:L34" si="11">_xlfn.CONCAT("[", H9, " * imageHeight", ", ", I9, "* imageWidth", "]")</f>
+        <v>[0.273903002679595 * imageHeight, 0.331660879453023* imageWidth]</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" ref="M9:M34" si="12">_xlfn.CONCAT("[(", H9, " * imageHeight)", " + ",  J9, ", (", I9, "* imageWidth)", " + ", K9, "]" )</f>
+        <v>[(0.273903002679595 * imageHeight) + 20, (0.331660879453023* imageWidth) + 28.4444444444444]</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" ref="N9:N34" si="13">_xlfn.CONCAT("[", L9, ", ", M9, "]")</f>
+        <v>[[0.273903002679595 * imageHeight, 0.331660879453023* imageWidth], [(0.273903002679595 * imageHeight) + 20, (0.331660879453023* imageWidth) + 28.4444444444444]]</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10">
+        <v>64</v>
+      </c>
+      <c r="D10">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="9"/>
+        <v>1.4222222222222223</v>
+      </c>
+      <c r="F10">
+        <v>572.99480882684202</v>
+      </c>
+      <c r="G10">
+        <v>868.98611068725495</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="7"/>
+        <v>0.71624351103355255</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="8"/>
+        <v>0.72415509223937913</v>
+      </c>
+      <c r="J10">
+        <v>20</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="10"/>
+        <v>28.444444444444446</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="11"/>
+        <v>[0.716243511033553 * imageHeight, 0.724155092239379* imageWidth]</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="12"/>
+        <v>[(0.716243511033553 * imageHeight) + 20, (0.724155092239379* imageWidth) + 28.4444444444444]</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="13"/>
+        <v>[[0.716243511033553 * imageHeight, 0.724155092239379* imageWidth], [(0.716243511033553 * imageHeight) + 20, (0.724155092239379* imageWidth) + 28.4444444444444]]</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11">
+        <v>64</v>
+      </c>
+      <c r="D11">
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="9"/>
+        <v>1.4222222222222223</v>
+      </c>
+      <c r="F11">
+        <v>322.24481142083602</v>
+      </c>
+      <c r="G11">
+        <v>753.98611068725495</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="7"/>
+        <v>0.40280601427604501</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="8"/>
+        <v>0.6283217589060458</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="10"/>
+        <v>28.444444444444446</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="11"/>
+        <v>[0.402806014276045 * imageHeight, 0.628321758906046* imageWidth]</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="12"/>
+        <v>[(0.402806014276045 * imageHeight) + 20, (0.628321758906046* imageWidth) + 28.4444444444444]</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="13"/>
+        <v>[[0.402806014276045 * imageHeight, 0.628321758906046* imageWidth], [(0.402806014276045 * imageHeight) + 20, (0.628321758906046* imageWidth) + 28.4444444444444]]</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12">
+        <v>64</v>
+      </c>
+      <c r="D12">
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="9"/>
+        <v>1.4222222222222223</v>
+      </c>
+      <c r="F12">
+        <v>380.99481794396797</v>
+      </c>
+      <c r="G12">
+        <v>1047.9861106872499</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="7"/>
+        <v>0.47624352242995999</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="8"/>
+        <v>0.87332175890604158</v>
+      </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="10"/>
+        <v>28.444444444444446</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="11"/>
+        <v>[0.47624352242996 * imageHeight, 0.873321758906042* imageWidth]</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="12"/>
+        <v>[(0.47624352242996 * imageHeight) + 20, (0.873321758906042* imageWidth) + 28.4444444444444]</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="13"/>
+        <v>[[0.47624352242996 * imageHeight, 0.873321758906042* imageWidth], [(0.47624352242996 * imageHeight) + 20, (0.873321758906042* imageWidth) + 28.4444444444444]]</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13">
+        <v>64</v>
+      </c>
+      <c r="D13">
+        <v>45</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="9"/>
+        <v>1.4222222222222223</v>
+      </c>
+      <c r="F13">
+        <v>561.49481441537296</v>
+      </c>
+      <c r="G13">
+        <v>81.486110687255803</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="7"/>
+        <v>0.70186851801921624</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="8"/>
+        <v>6.7905092239379836E-2</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="10"/>
+        <v>28.444444444444446</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="11"/>
+        <v>[0.701868518019216 * imageHeight, 0.0679050922393798* imageWidth]</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="12"/>
+        <v>[(0.701868518019216 * imageHeight) + 20, (0.0679050922393798* imageWidth) + 28.4444444444444]</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="13"/>
+        <v>[[0.701868518019216 * imageHeight, 0.0679050922393798* imageWidth], [(0.701868518019216 * imageHeight) + 20, (0.0679050922393798* imageWidth) + 28.4444444444444]]</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14">
+        <v>51</v>
+      </c>
+      <c r="D14">
+        <v>45</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="9"/>
+        <v>1.1333333333333333</v>
+      </c>
+      <c r="F14">
+        <v>535.744797802368</v>
+      </c>
+      <c r="G14">
+        <v>689.73611068725495</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="7"/>
+        <v>0.66968099725296004</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="8"/>
+        <v>0.57478009223937909</v>
+      </c>
+      <c r="J14">
+        <v>20</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="10"/>
+        <v>22.666666666666664</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="11"/>
+        <v>[0.66968099725296 * imageHeight, 0.574780092239379* imageWidth]</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="12"/>
+        <v>[(0.66968099725296 * imageHeight) + 20, (0.574780092239379* imageWidth) + 22.6666666666667]</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="13"/>
+        <v>[[0.66968099725296 * imageHeight, 0.574780092239379* imageWidth], [(0.66968099725296 * imageHeight) + 20, (0.574780092239379* imageWidth) + 22.6666666666667]]</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>58</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="9"/>
+        <v>0.67241379310344829</v>
+      </c>
+      <c r="F15">
+        <v>564.494795608917</v>
+      </c>
+      <c r="G15">
+        <v>744.98611068725495</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="7"/>
+        <v>0.70561849451114622</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="8"/>
+        <v>0.62082175890604574</v>
+      </c>
+      <c r="J15">
+        <v>20</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="10"/>
+        <v>13.448275862068966</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="11"/>
+        <v>[0.705618494511146 * imageHeight, 0.620821758906046* imageWidth]</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="12"/>
+        <v>[(0.705618494511146 * imageHeight) + 20, (0.620821758906046* imageWidth) + 13.448275862069]</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="13"/>
+        <v>[[0.705618494511146 * imageHeight, 0.620821758906046* imageWidth], [(0.705618494511146 * imageHeight) + 20, (0.620821758906046* imageWidth) + 13.448275862069]]</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16">
+        <v>64</v>
+      </c>
+      <c r="D16">
+        <v>65</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="9"/>
+        <v>0.98461538461538467</v>
+      </c>
+      <c r="F16">
+        <v>662.24479082147195</v>
+      </c>
+      <c r="G16">
+        <v>235.98611068725501</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="7"/>
+        <v>0.82780598852683995</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="8"/>
+        <v>0.19665509223937916</v>
+      </c>
+      <c r="J16">
+        <v>25</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="10"/>
+        <v>24.615384615384617</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="11"/>
+        <v>[0.82780598852684 * imageHeight, 0.196655092239379* imageWidth]</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="12"/>
+        <v>[(0.82780598852684 * imageHeight) + 25, (0.196655092239379* imageWidth) + 24.6153846153846]</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="13"/>
+        <v>[[0.82780598852684 * imageHeight, 0.196655092239379* imageWidth], [(0.82780598852684 * imageHeight) + 25, (0.196655092239379* imageWidth) + 24.6153846153846]]</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17">
+        <v>44</v>
+      </c>
+      <c r="D17">
+        <v>54</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="9"/>
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="F17">
+        <v>659.99479099313396</v>
+      </c>
+      <c r="G17">
+        <v>197.48611068725501</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>0.82499348874141742</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="8"/>
+        <v>0.16457175890604583</v>
+      </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="10"/>
+        <v>16.296296296296294</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="11"/>
+        <v>[0.824993488741417 * imageHeight, 0.164571758906046* imageWidth]</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="12"/>
+        <v>[(0.824993488741417 * imageHeight) + 20, (0.164571758906046* imageWidth) + 16.2962962962963]</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="13"/>
+        <v>[[0.824993488741417 * imageHeight, 0.164571758906046* imageWidth], [(0.824993488741417 * imageHeight) + 20, (0.164571758906046* imageWidth) + 16.2962962962963]]</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18">
+        <v>58</v>
+      </c>
+      <c r="D18">
+        <v>54</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="9"/>
+        <v>1.0740740740740742</v>
+      </c>
+      <c r="F18">
+        <v>380.12240332623202</v>
+      </c>
+      <c r="G18">
+        <v>271.36805534362702</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="7"/>
+        <v>0.47515300415779005</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="8"/>
+        <v>0.22614004611968919</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="10"/>
+        <v>10.740740740740742</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="11"/>
+        <v>[0.47515300415779 * imageHeight, 0.226140046119689* imageWidth]</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="12"/>
+        <v>[(0.47515300415779 * imageHeight) + 10, (0.226140046119689* imageWidth) + 10.7407407407407]</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="13"/>
+        <v>[[0.47515300415779 * imageHeight, 0.226140046119689* imageWidth], [(0.47515300415779 * imageHeight) + 10, (0.226140046119689* imageWidth) + 10.7407407407407]]</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19">
+        <v>58</v>
+      </c>
+      <c r="D19">
+        <v>54</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="9"/>
+        <v>1.0740740740740742</v>
+      </c>
+      <c r="F19">
+        <v>460.49480230371</v>
+      </c>
+      <c r="G19">
+        <v>437.98611068725501</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
+        <v>0.57561850287963745</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="8"/>
+        <v>0.36498842557271249</v>
+      </c>
+      <c r="J19">
+        <v>10</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="10"/>
+        <v>10.740740740740742</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="11"/>
+        <v>[0.575618502879637 * imageHeight, 0.364988425572712* imageWidth]</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="12"/>
+        <v>[(0.575618502879637 * imageHeight) + 10, (0.364988425572712* imageWidth) + 10.7407407407407]</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="13"/>
+        <v>[[0.575618502879637 * imageHeight, 0.364988425572712* imageWidth], [(0.575618502879637 * imageHeight) + 10, (0.364988425572712* imageWidth) + 10.7407407407407]]</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20">
+        <v>72</v>
+      </c>
+      <c r="D20">
+        <v>72</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>247.489602814514</v>
+      </c>
+      <c r="G20">
+        <v>1000.47222137451</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="7"/>
+        <v>0.30936200351814253</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="8"/>
+        <v>0.833726851145425</v>
+      </c>
+      <c r="J20">
+        <v>25</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="11"/>
+        <v>[0.309362003518143 * imageHeight, 0.833726851145425* imageWidth]</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="12"/>
+        <v>[(0.309362003518143 * imageHeight) + 25, (0.833726851145425* imageWidth) + 25]</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="13"/>
+        <v>[[0.309362003518143 * imageHeight, 0.833726851145425* imageWidth], [(0.309362003518143 * imageHeight) + 25, (0.833726851145425* imageWidth) + 25]]</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21">
+        <v>59</v>
+      </c>
+      <c r="D21">
+        <v>41</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="9"/>
+        <v>1.4390243902439024</v>
+      </c>
+      <c r="F21">
+        <v>666.93923969732305</v>
+      </c>
+      <c r="G21">
+        <v>399.48611068725501</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="7"/>
+        <v>0.83367404962165381</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="8"/>
+        <v>0.3329050922393792</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="10"/>
+        <v>14.390243902439025</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="11"/>
+        <v>[0.833674049621654 * imageHeight, 0.332905092239379* imageWidth]</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="12"/>
+        <v>[(0.833674049621654 * imageHeight) + 10, (0.332905092239379* imageWidth) + 14.390243902439]</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="13"/>
+        <v>[[0.833674049621654 * imageHeight, 0.332905092239379* imageWidth], [(0.833674049621654 * imageHeight) + 10, (0.332905092239379* imageWidth) + 14.390243902439]]</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22">
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <v>42</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="9"/>
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="F22">
+        <v>624.689242920742</v>
+      </c>
+      <c r="G22">
+        <v>414.48611068725501</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="7"/>
+        <v>0.78086155365092746</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="8"/>
+        <v>0.34540509223937915</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="10"/>
+        <v>9.5238095238095237</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="11"/>
+        <v>[0.780861553650927 * imageHeight, 0.345405092239379* imageWidth]</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="12"/>
+        <v>[(0.780861553650927 * imageHeight) + 10, (0.345405092239379* imageWidth) + 9.52380952380952]</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="13"/>
+        <v>[[0.780861553650927 * imageHeight, 0.345405092239379* imageWidth], [(0.780861553650927 * imageHeight) + 10, (0.345405092239379* imageWidth) + 9.52380952380952]]</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23">
+        <v>65</v>
+      </c>
+      <c r="D23">
+        <v>63</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="9"/>
+        <v>1.0317460317460319</v>
+      </c>
+      <c r="F23">
+        <v>656.43923769460696</v>
+      </c>
+      <c r="G23">
+        <v>555.98611068725495</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="7"/>
+        <v>0.82054904711825871</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="8"/>
+        <v>0.46332175890604577</v>
+      </c>
+      <c r="J23">
+        <v>20</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="10"/>
+        <v>20.634920634920636</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="11"/>
+        <v>[0.820549047118259 * imageHeight, 0.463321758906046* imageWidth]</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="12"/>
+        <v>[(0.820549047118259 * imageHeight) + 20, (0.463321758906046* imageWidth) + 20.6349206349206]</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="13"/>
+        <v>[[0.820549047118259 * imageHeight, 0.463321758906046* imageWidth], [(0.820549047118259 * imageHeight) + 20, (0.463321758906046* imageWidth) + 20.6349206349206]]</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24">
+        <v>38</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="9"/>
+        <v>0.76</v>
+      </c>
+      <c r="F24">
+        <v>662.87848137828905</v>
+      </c>
+      <c r="G24">
+        <v>639.97222137451104</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="7"/>
+        <v>0.8285981017228613</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="8"/>
+        <v>0.53331018447875922</v>
+      </c>
+      <c r="J24">
+        <v>15</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="10"/>
+        <v>11.4</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="11"/>
+        <v>[0.828598101722861 * imageHeight, 0.533310184478759* imageWidth]</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="12"/>
+        <v>[(0.828598101722861 * imageHeight) + 15, (0.533310184478759* imageWidth) + 11.4]</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="13"/>
+        <v>[[0.828598101722861 * imageHeight, 0.533310184478759* imageWidth], [(0.828598101722861 * imageHeight) + 15, (0.533310184478759* imageWidth) + 11.4]]</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25">
+        <v>73</v>
+      </c>
+      <c r="D25">
+        <v>64</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="9"/>
+        <v>1.140625</v>
+      </c>
+      <c r="F25">
+        <v>591.87848679515901</v>
+      </c>
+      <c r="G25">
+        <v>620.97222137451104</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="7"/>
+        <v>0.73984810849394878</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="8"/>
+        <v>0.51747685114542585</v>
+      </c>
+      <c r="J25">
+        <v>20</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="10"/>
+        <v>22.8125</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="11"/>
+        <v>[0.739848108493949 * imageHeight, 0.517476851145426* imageWidth]</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="12"/>
+        <v>[(0.739848108493949 * imageHeight) + 20, (0.517476851145426* imageWidth) + 22.8125]</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="13"/>
+        <v>[[0.739848108493949 * imageHeight, 0.517476851145426* imageWidth], [(0.739848108493949 * imageHeight) + 20, (0.517476851145426* imageWidth) + 22.8125]]</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26">
+        <v>81</v>
+      </c>
+      <c r="D26">
+        <v>41</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="9"/>
+        <v>1.975609756097561</v>
+      </c>
+      <c r="F26">
+        <v>534.18924561010397</v>
+      </c>
+      <c r="G26">
+        <v>517.23611068725495</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="7"/>
+        <v>0.66773655701262991</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="8"/>
+        <v>0.4310300922393791</v>
+      </c>
+      <c r="J26">
+        <v>12</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="10"/>
+        <v>23.707317073170731</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="11"/>
+        <v>[0.66773655701263 * imageHeight, 0.431030092239379* imageWidth]</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="12"/>
+        <v>[(0.66773655701263 * imageHeight) + 12, (0.431030092239379* imageWidth) + 23.7073170731707]</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="13"/>
+        <v>[[0.66773655701263 * imageHeight, 0.431030092239379* imageWidth], [(0.66773655701263 * imageHeight) + 12, (0.431030092239379* imageWidth) + 23.7073170731707]]</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27">
+        <v>94</v>
+      </c>
+      <c r="D27">
+        <v>80</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="9"/>
+        <v>1.175</v>
+      </c>
+      <c r="F27">
+        <v>718.43923723684395</v>
+      </c>
+      <c r="G27">
+        <v>457.48611068725501</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="7"/>
+        <v>0.89804904654605489</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="8"/>
+        <v>0.38123842557271248</v>
+      </c>
+      <c r="J27">
+        <v>25</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="10"/>
+        <v>29.375</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="11"/>
+        <v>[0.898049046546055 * imageHeight, 0.381238425572712* imageWidth]</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="12"/>
+        <v>[(0.898049046546055 * imageHeight) + 25, (0.381238425572712* imageWidth) + 29.375]</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="13"/>
+        <v>[[0.898049046546055 * imageHeight, 0.381238425572712* imageWidth], [(0.898049046546055 * imageHeight) + 25, (0.381238425572712* imageWidth) + 29.375]]</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28">
+        <v>70</v>
+      </c>
+      <c r="D28">
+        <v>70</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>737.18924049840996</v>
+      </c>
+      <c r="G28">
+        <v>316.73611068725501</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="7"/>
+        <v>0.92148655062301243</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="8"/>
+        <v>0.26394675890604585</v>
+      </c>
+      <c r="J28">
+        <v>30</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="11"/>
+        <v>[0.921486550623012 * imageHeight, 0.263946758906046* imageWidth]</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="12"/>
+        <v>[(0.921486550623012 * imageHeight) + 30, (0.263946758906046* imageWidth) + 30]</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="13"/>
+        <v>[[0.921486550623012 * imageHeight, 0.263946758906046* imageWidth], [(0.921486550623012 * imageHeight) + 30, (0.263946758906046* imageWidth) + 30]]</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29">
+        <v>48</v>
+      </c>
+      <c r="D29">
+        <v>35</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="9"/>
+        <v>1.3714285714285714</v>
+      </c>
+      <c r="F29">
+        <v>708.43924269186004</v>
+      </c>
+      <c r="G29">
+        <v>156.98611068725501</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="7"/>
+        <v>0.88554905336482503</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="8"/>
+        <v>0.13082175890604583</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="10"/>
+        <v>13.714285714285715</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="11"/>
+        <v>[0.885549053364825 * imageHeight, 0.130821758906046* imageWidth]</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="12"/>
+        <v>[(0.885549053364825 * imageHeight) + 10, (0.130821758906046* imageWidth) + 13.7142857142857]</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="13"/>
+        <v>[[0.885549053364825 * imageHeight, 0.130821758906046* imageWidth], [(0.885549053364825 * imageHeight) + 10, (0.130821758906046* imageWidth) + 13.7142857142857]]</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="D30">
+        <v>52</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="9"/>
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="F30">
+        <v>732.43924086080597</v>
+      </c>
+      <c r="G30">
+        <v>163.23611068725501</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="7"/>
+        <v>0.91554905107600748</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="8"/>
+        <v>0.13603009223937917</v>
+      </c>
+      <c r="J30">
+        <v>15</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="10"/>
+        <v>14.423076923076923</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="11"/>
+        <v>[0.915549051076007 * imageHeight, 0.136030092239379* imageWidth]</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="12"/>
+        <v>[(0.915549051076007 * imageHeight) + 15, (0.136030092239379* imageWidth) + 14.4230769230769]</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="13"/>
+        <v>[[0.915549051076007 * imageHeight, 0.136030092239379* imageWidth], [(0.915549051076007 * imageHeight) + 15, (0.136030092239379* imageWidth) + 14.4230769230769]]</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>38</v>
+      </c>
+      <c r="D31">
+        <v>46</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="9"/>
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="F31">
+        <v>325.21962210886898</v>
+      </c>
+      <c r="G31">
+        <v>103.11805534362701</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="7"/>
+        <v>0.40652452763608621</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="8"/>
+        <v>8.5931712786355835E-2</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="10"/>
+        <v>8.2608695652173907</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="11"/>
+        <v>[0.406524527636086 * imageHeight, 0.0859317127863558* imageWidth]</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="12"/>
+        <v>[(0.406524527636086 * imageHeight) + 10, (0.0859317127863558* imageWidth) + 8.26086956521739]</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="13"/>
+        <v>[[0.406524527636086 * imageHeight, 0.0859317127863558* imageWidth], [(0.406524527636086 * imageHeight) + 10, (0.0859317127863558* imageWidth) + 8.26086956521739]]</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>52</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="9"/>
+        <v>1.6774193548387097</v>
+      </c>
+      <c r="F32">
+        <v>348.594620325498</v>
+      </c>
+      <c r="G32">
+        <v>129.99305534362699</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="7"/>
+        <v>0.43574327540687252</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="8"/>
+        <v>0.10832754611968916</v>
+      </c>
+      <c r="J32">
+        <v>10</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="10"/>
+        <v>16.774193548387096</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="11"/>
+        <v>[0.435743275406873 * imageHeight, 0.108327546119689* imageWidth]</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="12"/>
+        <v>[(0.435743275406873 * imageHeight) + 10, (0.108327546119689* imageWidth) + 16.7741935483871]</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="13"/>
+        <v>[[0.435743275406873 * imageHeight, 0.108327546119689* imageWidth], [(0.435743275406873 * imageHeight) + 10, (0.108327546119689* imageWidth) + 16.7741935483871]]</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33">
+        <v>73</v>
+      </c>
+      <c r="D33">
+        <v>59</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="9"/>
+        <v>1.2372881355932204</v>
+      </c>
+      <c r="F33">
+        <v>423.87847496959802</v>
+      </c>
+      <c r="G33">
+        <v>210.47222137451101</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="7"/>
+        <v>0.52984809371199748</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="8"/>
+        <v>0.1753935178120925</v>
+      </c>
+      <c r="J33">
+        <v>15</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="10"/>
+        <v>18.559322033898304</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="11"/>
+        <v>[0.529848093711997 * imageHeight, 0.175393517812093* imageWidth]</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="12"/>
+        <v>[(0.529848093711997 * imageHeight) + 15, (0.175393517812093* imageWidth) + 18.5593220338983]</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="13"/>
+        <v>[[0.529848093711997 * imageHeight, 0.175393517812093* imageWidth], [(0.529848093711997 * imageHeight) + 15, (0.175393517812093* imageWidth) + 18.5593220338983]]</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34">
+        <v>48</v>
+      </c>
+      <c r="D34">
+        <v>48</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>658.41580271409498</v>
+      </c>
+      <c r="G34">
+        <v>341.99652481079102</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34:H59" si="14">F34/800</f>
+        <v>0.82301975339261868</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ref="I34:I59" si="15">G34/1200</f>
+        <v>0.28499710400899253</v>
+      </c>
+      <c r="J34">
+        <v>15</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="11"/>
+        <v>[0.823019753392619 * imageHeight, 0.284997104008993* imageWidth]</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="12"/>
+        <v>[(0.823019753392619 * imageHeight) + 15, (0.284997104008993* imageWidth) + 15]</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="13"/>
+        <v>[[0.823019753392619 * imageHeight, 0.284997104008993* imageWidth], [(0.823019753392619 * imageHeight) + 15, (0.284997104008993* imageWidth) + 15]]</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35">
+        <v>54</v>
+      </c>
+      <c r="D35">
+        <v>38</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="9"/>
+        <v>1.4210526315789473</v>
+      </c>
+      <c r="F35">
+        <v>547.41580601380804</v>
+      </c>
+      <c r="G35">
+        <v>352.49652481079102</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="14"/>
+        <v>0.68426975751726005</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="15"/>
+        <v>0.29374710400899251</v>
+      </c>
+      <c r="J35">
+        <v>15</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ref="K35:K59" si="16">J35*E35</f>
+        <v>21.315789473684209</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" ref="L35:L59" si="17">_xlfn.CONCAT("[", H35, " * imageHeight", ", ", I35, "* imageWidth", "]")</f>
+        <v>[0.68426975751726 * imageHeight, 0.293747104008993* imageWidth]</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" ref="M35:M59" si="18">_xlfn.CONCAT("[(", H35, " * imageHeight)", " + ",  J35, ", (", I35, "* imageWidth)", " + ", K35, "]" )</f>
+        <v>[(0.68426975751726 * imageHeight) + 15, (0.293747104008993* imageWidth) + 21.3157894736842]</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" ref="N35:N59" si="19">_xlfn.CONCAT("[", L35, ", ", M35, "]")</f>
+        <v>[[0.68426975751726 * imageHeight, 0.293747104008993* imageWidth], [(0.68426975751726 * imageHeight) + 15, (0.293747104008993* imageWidth) + 21.3157894736842]]</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36">
+        <v>64</v>
+      </c>
+      <c r="D36">
+        <v>55</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="9"/>
+        <v>1.1636363636363636</v>
+      </c>
+      <c r="F36">
+        <v>507</v>
+      </c>
+      <c r="G36">
+        <v>279.046875</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="14"/>
+        <v>0.63375000000000004</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="15"/>
+        <v>0.2325390625</v>
+      </c>
+      <c r="J36">
+        <v>15</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="16"/>
+        <v>17.454545454545453</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="17"/>
+        <v>[0.63375 * imageHeight, 0.2325390625* imageWidth]</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="18"/>
+        <v>[(0.63375 * imageHeight) + 15, (0.2325390625* imageWidth) + 17.4545454545455]</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="19"/>
+        <v>[[0.63375 * imageHeight, 0.2325390625* imageWidth], [(0.63375 * imageHeight) + 15, (0.2325390625* imageWidth) + 17.4545454545455]]</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37">
+        <v>54</v>
+      </c>
+      <c r="D37">
+        <v>52</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="9"/>
+        <v>1.0384615384615385</v>
+      </c>
+      <c r="F37">
+        <v>477.5</v>
+      </c>
+      <c r="G37">
+        <v>312.546875</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="14"/>
+        <v>0.59687500000000004</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="15"/>
+        <v>0.26045572916666665</v>
+      </c>
+      <c r="J37">
+        <v>15</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="16"/>
+        <v>15.576923076923078</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="17"/>
+        <v>[0.596875 * imageHeight, 0.260455729166667* imageWidth]</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="18"/>
+        <v>[(0.596875 * imageHeight) + 15, (0.260455729166667* imageWidth) + 15.5769230769231]</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="19"/>
+        <v>[[0.596875 * imageHeight, 0.260455729166667* imageWidth], [(0.596875 * imageHeight) + 15, (0.260455729166667* imageWidth) + 15.5769230769231]]</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38">
+        <v>61</v>
+      </c>
+      <c r="D38">
+        <v>45</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="9"/>
+        <v>1.3555555555555556</v>
+      </c>
+      <c r="F38">
+        <v>564.75</v>
+      </c>
+      <c r="G38">
+        <v>406.796875</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="14"/>
+        <v>0.7059375</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="15"/>
+        <v>0.33899739583333333</v>
+      </c>
+      <c r="J38">
+        <v>15</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="16"/>
+        <v>20.333333333333336</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="17"/>
+        <v>[0.7059375 * imageHeight, 0.338997395833333* imageWidth]</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="18"/>
+        <v>[(0.7059375 * imageHeight) + 15, (0.338997395833333* imageWidth) + 20.3333333333333]</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="19"/>
+        <v>[[0.7059375 * imageHeight, 0.338997395833333* imageWidth], [(0.7059375 * imageHeight) + 15, (0.338997395833333* imageWidth) + 20.3333333333333]]</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <v>52</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="9"/>
+        <v>0.73076923076923073</v>
+      </c>
+      <c r="F39">
+        <v>618.625</v>
+      </c>
+      <c r="G39">
+        <v>494.6484375</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="14"/>
+        <v>0.77328125000000003</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="15"/>
+        <v>0.41220703125000002</v>
+      </c>
+      <c r="J39">
+        <v>10</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="16"/>
+        <v>7.3076923076923075</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="17"/>
+        <v>[0.77328125 * imageHeight, 0.41220703125* imageWidth]</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="18"/>
+        <v>[(0.77328125 * imageHeight) + 10, (0.41220703125* imageWidth) + 7.30769230769231]</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="19"/>
+        <v>[[0.77328125 * imageHeight, 0.41220703125* imageWidth], [(0.77328125 * imageHeight) + 10, (0.41220703125* imageWidth) + 7.30769230769231]]</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40">
+        <v>65</v>
+      </c>
+      <c r="D40">
+        <v>55</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="9"/>
+        <v>1.1818181818181819</v>
+      </c>
+      <c r="F40">
+        <v>563</v>
+      </c>
+      <c r="G40">
+        <v>446.546875</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="14"/>
+        <v>0.70374999999999999</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="15"/>
+        <v>0.37212239583333334</v>
+      </c>
+      <c r="J40">
+        <v>15</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="16"/>
+        <v>17.727272727272727</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="17"/>
+        <v>[0.70375 * imageHeight, 0.372122395833333* imageWidth]</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="18"/>
+        <v>[(0.70375 * imageHeight) + 15, (0.372122395833333* imageWidth) + 17.7272727272727]</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="19"/>
+        <v>[[0.70375 * imageHeight, 0.372122395833333* imageWidth], [(0.70375 * imageHeight) + 15, (0.372122395833333* imageWidth) + 17.7272727272727]]</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41">
+        <v>50</v>
+      </c>
+      <c r="D41">
+        <v>36</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="9"/>
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="F41">
+        <v>465</v>
+      </c>
+      <c r="G41">
+        <v>511.046875</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="14"/>
+        <v>0.58125000000000004</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="15"/>
+        <v>0.42587239583333331</v>
+      </c>
+      <c r="J41">
+        <v>15</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="16"/>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="17"/>
+        <v>[0.58125 * imageHeight, 0.425872395833333* imageWidth]</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="18"/>
+        <v>[(0.58125 * imageHeight) + 15, (0.425872395833333* imageWidth) + 20.8333333333333]</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="19"/>
+        <v>[[0.58125 * imageHeight, 0.425872395833333* imageWidth], [(0.58125 * imageHeight) + 15, (0.425872395833333* imageWidth) + 20.8333333333333]]</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42">
+        <v>44</v>
+      </c>
+      <c r="D42">
+        <v>36</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="9"/>
+        <v>1.2222222222222223</v>
+      </c>
+      <c r="F42">
+        <v>478.5</v>
+      </c>
+      <c r="G42">
+        <v>132.09375</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="14"/>
+        <v>0.59812500000000002</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="15"/>
+        <v>0.110078125</v>
+      </c>
+      <c r="J42">
+        <v>10</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="16"/>
+        <v>12.222222222222223</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="17"/>
+        <v>[0.598125 * imageHeight, 0.110078125* imageWidth]</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="18"/>
+        <v>[(0.598125 * imageHeight) + 10, (0.110078125* imageWidth) + 12.2222222222222]</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="19"/>
+        <v>[[0.598125 * imageHeight, 0.110078125* imageWidth], [(0.598125 * imageHeight) + 10, (0.110078125* imageWidth) + 12.2222222222222]]</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>182</v>
+      </c>
+      <c r="B43" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43">
+        <v>23</v>
+      </c>
+      <c r="D43">
+        <v>39</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="9"/>
+        <v>0.58974358974358976</v>
+      </c>
+      <c r="F43">
+        <v>306.25</v>
+      </c>
+      <c r="G43">
+        <v>170.546875</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="14"/>
+        <v>0.3828125</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="15"/>
+        <v>0.14212239583333333</v>
+      </c>
+      <c r="J43">
+        <v>12</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="16"/>
+        <v>7.0769230769230766</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="17"/>
+        <v>[0.3828125 * imageHeight, 0.142122395833333* imageWidth]</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="18"/>
+        <v>[(0.3828125 * imageHeight) + 12, (0.142122395833333* imageWidth) + 7.07692307692308]</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="19"/>
+        <v>[[0.3828125 * imageHeight, 0.142122395833333* imageWidth], [(0.3828125 * imageHeight) + 12, (0.142122395833333* imageWidth) + 7.07692307692308]]</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>184</v>
+      </c>
+      <c r="B44" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44">
+        <v>35</v>
+      </c>
+      <c r="D44">
+        <v>38</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="9"/>
+        <v>0.92105263157894735</v>
+      </c>
+      <c r="F44">
+        <v>310</v>
+      </c>
+      <c r="G44">
+        <v>198.546875</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="14"/>
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="15"/>
+        <v>0.16545572916666668</v>
+      </c>
+      <c r="J44">
+        <v>12</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="16"/>
+        <v>11.052631578947368</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="17"/>
+        <v>[0.3875 * imageHeight, 0.165455729166667* imageWidth]</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="18"/>
+        <v>[(0.3875 * imageHeight) + 12, (0.165455729166667* imageWidth) + 11.0526315789474]</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="19"/>
+        <v>[[0.3875 * imageHeight, 0.165455729166667* imageWidth], [(0.3875 * imageHeight) + 12, (0.165455729166667* imageWidth) + 11.0526315789474]]</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B45" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45">
+        <v>58</v>
+      </c>
+      <c r="D45">
+        <v>42</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="9"/>
+        <v>1.3809523809523809</v>
+      </c>
+      <c r="F45">
+        <v>359.75</v>
+      </c>
+      <c r="G45">
+        <v>221.796875</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="14"/>
+        <v>0.44968750000000002</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="15"/>
+        <v>0.18483072916666668</v>
+      </c>
+      <c r="J45">
+        <v>12</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="16"/>
+        <v>16.571428571428569</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="17"/>
+        <v>[0.4496875 * imageHeight, 0.184830729166667* imageWidth]</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="18"/>
+        <v>[(0.4496875 * imageHeight) + 12, (0.184830729166667* imageWidth) + 16.5714285714286]</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="19"/>
+        <v>[[0.4496875 * imageHeight, 0.184830729166667* imageWidth], [(0.4496875 * imageHeight) + 12, (0.184830729166667* imageWidth) + 16.5714285714286]]</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>186</v>
+      </c>
+      <c r="B46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46">
+        <v>52</v>
+      </c>
+      <c r="D46">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="9"/>
+        <v>1.1818181818181819</v>
+      </c>
+      <c r="F46">
+        <v>345.75</v>
+      </c>
+      <c r="G46">
+        <v>246.796875</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="14"/>
+        <v>0.4321875</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="15"/>
+        <v>0.20566406249999999</v>
+      </c>
+      <c r="J46">
+        <v>12</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="16"/>
+        <v>14.181818181818183</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="17"/>
+        <v>[0.4321875 * imageHeight, 0.2056640625* imageWidth]</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="18"/>
+        <v>[(0.4321875 * imageHeight) + 12, (0.2056640625* imageWidth) + 14.1818181818182]</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="19"/>
+        <v>[[0.4321875 * imageHeight, 0.2056640625* imageWidth], [(0.4321875 * imageHeight) + 12, (0.2056640625* imageWidth) + 14.1818181818182]]</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>211</v>
+      </c>
+      <c r="B47" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47">
+        <v>88</v>
+      </c>
+      <c r="D47">
+        <v>79</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="9"/>
+        <v>1.1139240506329113</v>
+      </c>
+      <c r="F47">
+        <v>90</v>
+      </c>
+      <c r="G47">
+        <v>101.046875</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ref="H47" si="20">F47/800</f>
+        <v>0.1125</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ref="I47" si="21">G47/1200</f>
+        <v>8.4205729166666674E-2</v>
+      </c>
+      <c r="J47">
+        <v>25</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="16"/>
+        <v>27.848101265822784</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="17"/>
+        <v>[0.1125 * imageHeight, 0.0842057291666667* imageWidth]</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="18"/>
+        <v>[(0.1125 * imageHeight) + 25, (0.0842057291666667* imageWidth) + 27.8481012658228]</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="19"/>
+        <v>[[0.1125 * imageHeight, 0.0842057291666667* imageWidth], [(0.1125 * imageHeight) + 25, (0.0842057291666667* imageWidth) + 27.8481012658228]]</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>187</v>
+      </c>
+      <c r="B48" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48">
+        <v>42</v>
+      </c>
+      <c r="D48">
+        <v>46</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="9"/>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="F48">
+        <v>53</v>
+      </c>
+      <c r="G48">
+        <v>71.09375</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="14"/>
+        <v>6.6250000000000003E-2</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="15"/>
+        <v>5.9244791666666664E-2</v>
+      </c>
+      <c r="J48">
+        <v>15</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="16"/>
+        <v>13.695652173913043</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="17"/>
+        <v>[0.06625 * imageHeight, 0.0592447916666667* imageWidth]</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="18"/>
+        <v>[(0.06625 * imageHeight) + 15, (0.0592447916666667* imageWidth) + 13.695652173913]</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="19"/>
+        <v>[[0.06625 * imageHeight, 0.0592447916666667* imageWidth], [(0.06625 * imageHeight) + 15, (0.0592447916666667* imageWidth) + 13.695652173913]]</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>189</v>
+      </c>
+      <c r="B49" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49">
+        <v>52</v>
+      </c>
+      <c r="D49">
+        <v>44</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="9"/>
+        <v>1.1818181818181819</v>
+      </c>
+      <c r="F49">
+        <v>334.25</v>
+      </c>
+      <c r="G49">
+        <v>1094.046875</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="14"/>
+        <v>0.41781249999999998</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="15"/>
+        <v>0.9117057291666667</v>
+      </c>
+      <c r="J49">
+        <v>15</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="16"/>
+        <v>17.727272727272727</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="17"/>
+        <v>[0.4178125 * imageHeight, 0.911705729166667* imageWidth]</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="18"/>
+        <v>[(0.4178125 * imageHeight) + 15, (0.911705729166667* imageWidth) + 17.7272727272727]</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="19"/>
+        <v>[[0.4178125 * imageHeight, 0.911705729166667* imageWidth], [(0.4178125 * imageHeight) + 15, (0.911705729166667* imageWidth) + 17.7272727272727]]</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>191</v>
+      </c>
+      <c r="B50" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50">
+        <v>67</v>
+      </c>
+      <c r="D50">
+        <v>49</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="9"/>
+        <v>1.3673469387755102</v>
+      </c>
+      <c r="F50">
+        <v>635</v>
+      </c>
+      <c r="G50">
+        <v>952.796875</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="14"/>
+        <v>0.79374999999999996</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="15"/>
+        <v>0.79399739583333329</v>
+      </c>
+      <c r="J50">
+        <v>15</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="16"/>
+        <v>20.510204081632651</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="17"/>
+        <v>[0.79375 * imageHeight, 0.793997395833333* imageWidth]</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="18"/>
+        <v>[(0.79375 * imageHeight) + 15, (0.793997395833333* imageWidth) + 20.5102040816327]</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="19"/>
+        <v>[[0.79375 * imageHeight, 0.793997395833333* imageWidth], [(0.79375 * imageHeight) + 15, (0.793997395833333* imageWidth) + 20.5102040816327]]</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51">
+        <v>48</v>
+      </c>
+      <c r="D51">
+        <v>46</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="9"/>
+        <v>1.0434782608695652</v>
+      </c>
+      <c r="F51">
+        <v>580</v>
+      </c>
+      <c r="G51">
+        <v>1075.296875</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="14"/>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="15"/>
+        <v>0.8960807291666667</v>
+      </c>
+      <c r="J51">
+        <v>15</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="16"/>
+        <v>15.652173913043478</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="17"/>
+        <v>[0.725 * imageHeight, 0.896080729166667* imageWidth]</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="18"/>
+        <v>[(0.725 * imageHeight) + 15, (0.896080729166667* imageWidth) + 15.6521739130435]</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="19"/>
+        <v>[[0.725 * imageHeight, 0.896080729166667* imageWidth], [(0.725 * imageHeight) + 15, (0.896080729166667* imageWidth) + 15.6521739130435]]</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52">
+        <v>45</v>
+      </c>
+      <c r="D52">
+        <v>42</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="9"/>
+        <v>1.0714285714285714</v>
+      </c>
+      <c r="F52">
+        <v>473</v>
+      </c>
+      <c r="G52">
+        <v>940.09375</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="14"/>
+        <v>0.59125000000000005</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="15"/>
+        <v>0.78341145833333337</v>
+      </c>
+      <c r="J52">
+        <v>15</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="16"/>
+        <v>16.071428571428569</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="17"/>
+        <v>[0.59125 * imageHeight, 0.783411458333333* imageWidth]</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="18"/>
+        <v>[(0.59125 * imageHeight) + 15, (0.783411458333333* imageWidth) + 16.0714285714286]</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="19"/>
+        <v>[[0.59125 * imageHeight, 0.783411458333333* imageWidth], [(0.59125 * imageHeight) + 15, (0.783411458333333* imageWidth) + 16.0714285714286]]</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>197</v>
+      </c>
+      <c r="B53" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53">
+        <v>59</v>
+      </c>
+      <c r="D53">
+        <v>51</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="9"/>
+        <v>1.1568627450980393</v>
+      </c>
+      <c r="F53">
+        <v>399</v>
+      </c>
+      <c r="G53">
+        <v>903.59375</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="14"/>
+        <v>0.49875000000000003</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="15"/>
+        <v>0.75299479166666672</v>
+      </c>
+      <c r="J53">
+        <v>15</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="16"/>
+        <v>17.352941176470591</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="17"/>
+        <v>[0.49875 * imageHeight, 0.752994791666667* imageWidth]</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" si="18"/>
+        <v>[(0.49875 * imageHeight) + 15, (0.752994791666667* imageWidth) + 17.3529411764706]</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="19"/>
+        <v>[[0.49875 * imageHeight, 0.752994791666667* imageWidth], [(0.49875 * imageHeight) + 15, (0.752994791666667* imageWidth) + 17.3529411764706]]</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>199</v>
+      </c>
+      <c r="B54" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54">
+        <v>66</v>
+      </c>
+      <c r="D54">
+        <v>53</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="9"/>
+        <v>1.2452830188679245</v>
+      </c>
+      <c r="F54">
+        <v>459.5</v>
+      </c>
+      <c r="G54">
+        <v>863.09375</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="14"/>
+        <v>0.57437499999999997</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="15"/>
+        <v>0.71924479166666666</v>
+      </c>
+      <c r="J54">
+        <v>15</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="16"/>
+        <v>18.679245283018869</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="17"/>
+        <v>[0.574375 * imageHeight, 0.719244791666667* imageWidth]</v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" si="18"/>
+        <v>[(0.574375 * imageHeight) + 15, (0.719244791666667* imageWidth) + 18.6792452830189]</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="19"/>
+        <v>[[0.574375 * imageHeight, 0.719244791666667* imageWidth], [(0.574375 * imageHeight) + 15, (0.719244791666667* imageWidth) + 18.6792452830189]]</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55">
+        <v>30</v>
+      </c>
+      <c r="D55">
+        <v>37</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="9"/>
+        <v>0.81081081081081086</v>
+      </c>
+      <c r="F55">
+        <v>431.5</v>
+      </c>
+      <c r="G55">
+        <v>1000.59375</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="14"/>
+        <v>0.53937500000000005</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="15"/>
+        <v>0.83382812500000003</v>
+      </c>
+      <c r="J55">
+        <v>15</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="16"/>
+        <v>12.162162162162163</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="17"/>
+        <v>[0.539375 * imageHeight, 0.833828125* imageWidth]</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" si="18"/>
+        <v>[(0.539375 * imageHeight) + 15, (0.833828125* imageWidth) + 12.1621621621622]</v>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" si="19"/>
+        <v>[[0.539375 * imageHeight, 0.833828125* imageWidth], [(0.539375 * imageHeight) + 15, (0.833828125* imageWidth) + 12.1621621621622]]</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>203</v>
+      </c>
+      <c r="B56" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56">
+        <v>96</v>
+      </c>
+      <c r="D56">
+        <v>76</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="9"/>
+        <v>1.263157894736842</v>
+      </c>
+      <c r="F56">
+        <v>273</v>
+      </c>
+      <c r="G56">
+        <v>578.09375</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="14"/>
+        <v>0.34125</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="15"/>
+        <v>0.48174479166666667</v>
+      </c>
+      <c r="J56">
+        <v>15</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="16"/>
+        <v>18.94736842105263</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="17"/>
+        <v>[0.34125 * imageHeight, 0.481744791666667* imageWidth]</v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" si="18"/>
+        <v>[(0.34125 * imageHeight) + 15, (0.481744791666667* imageWidth) + 18.9473684210526]</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="19"/>
+        <v>[[0.34125 * imageHeight, 0.481744791666667* imageWidth], [(0.34125 * imageHeight) + 15, (0.481744791666667* imageWidth) + 18.9473684210526]]</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" t="s">
+        <v>207</v>
+      </c>
+      <c r="C57">
+        <v>60</v>
+      </c>
+      <c r="D57">
+        <v>71</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="9"/>
+        <v>0.84507042253521125</v>
+      </c>
+      <c r="F57">
+        <v>232</v>
+      </c>
+      <c r="G57">
+        <v>615.1875</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="14"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="15"/>
+        <v>0.51265625000000004</v>
+      </c>
+      <c r="J57">
+        <v>15</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="16"/>
+        <v>12.676056338028168</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="17"/>
+        <v>[0.29 * imageHeight, 0.51265625* imageWidth]</v>
+      </c>
+      <c r="M57" t="str">
+        <f t="shared" si="18"/>
+        <v>[(0.29 * imageHeight) + 15, (0.51265625* imageWidth) + 12.6760563380282]</v>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" si="19"/>
+        <v>[[0.29 * imageHeight, 0.51265625* imageWidth], [(0.29 * imageHeight) + 15, (0.51265625* imageWidth) + 12.6760563380282]]</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>206</v>
+      </c>
+      <c r="B58" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58">
+        <v>60</v>
+      </c>
+      <c r="D58">
+        <v>71</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="9"/>
+        <v>0.84507042253521125</v>
+      </c>
+      <c r="F58">
+        <v>394</v>
+      </c>
+      <c r="G58">
+        <v>766.1875</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="14"/>
+        <v>0.49249999999999999</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="15"/>
+        <v>0.63848958333333339</v>
+      </c>
+      <c r="J58">
+        <v>15</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="16"/>
+        <v>12.676056338028168</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="17"/>
+        <v>[0.4925 * imageHeight, 0.638489583333333* imageWidth]</v>
+      </c>
+      <c r="M58" t="str">
+        <f t="shared" si="18"/>
+        <v>[(0.4925 * imageHeight) + 15, (0.638489583333333* imageWidth) + 12.6760563380282]</v>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" si="19"/>
+        <v>[[0.4925 * imageHeight, 0.638489583333333* imageWidth], [(0.4925 * imageHeight) + 15, (0.638489583333333* imageWidth) + 12.6760563380282]]</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>209</v>
+      </c>
+      <c r="B59" t="s">
+        <v>210</v>
+      </c>
+      <c r="C59">
+        <v>84</v>
+      </c>
+      <c r="D59">
+        <v>84</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>171</v>
+      </c>
+      <c r="G59">
+        <v>913.1875</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="14"/>
+        <v>0.21375</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="15"/>
+        <v>0.76098958333333333</v>
+      </c>
+      <c r="J59">
+        <v>15</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="17"/>
+        <v>[0.21375 * imageHeight, 0.760989583333333* imageWidth]</v>
+      </c>
+      <c r="M59" t="str">
+        <f t="shared" si="18"/>
+        <v>[(0.21375 * imageHeight) + 15, (0.760989583333333* imageWidth) + 15]</v>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="19"/>
+        <v>[[0.21375 * imageHeight, 0.760989583333333* imageWidth], [(0.21375 * imageHeight) + 15, (0.760989583333333* imageWidth) + 15]]</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7208A8BD-5C24-554E-9F3D-BAA31A1471D1}">
+  <dimension ref="A1:O59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="5" width="10.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="14" width="10.6640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2">
+        <v>44</v>
+      </c>
+      <c r="D2">
+        <v>63</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E8" si="0">C2/D2</f>
+        <v>0.69841269841269837</v>
+      </c>
+      <c r="F2">
+        <v>350</v>
+      </c>
+      <c r="G2">
+        <f>ROUND(SQRT(F2/E2), 5)</f>
+        <v>22.38608</v>
+      </c>
+      <c r="H2">
+        <f>ROUND(G2*E2, 5)</f>
+        <v>15.63472</v>
+      </c>
+      <c r="I2">
+        <v>231.49480207482799</v>
+      </c>
+      <c r="J2">
+        <v>205.68055343627901</v>
+      </c>
+      <c r="K2">
+        <f>ROUND(I2/800, 5)</f>
+        <v>0.28937000000000002</v>
+      </c>
+      <c r="L2">
+        <f>ROUND(J2/1200, 5)</f>
+        <v>0.1714</v>
+      </c>
+      <c r="M2" t="str">
+        <f t="shared" ref="M2:M33" si="1">_xlfn.CONCAT("[", K2, " * imageHeight", ", ", L2, "* imageWidth", "]")</f>
+        <v>[0.28937 * imageHeight, 0.1714* imageWidth]</v>
+      </c>
+      <c r="N2" t="str">
+        <f t="shared" ref="N2:N33" si="2">_xlfn.CONCAT("[(", K2, " * imageHeight)", " + ",  G2, ", (", L2, "* imageWidth)", " + ", H2, "]" )</f>
+        <v>[(0.28937 * imageHeight) + 22.38608, (0.1714* imageWidth) + 15.63472]</v>
+      </c>
+      <c r="O2" t="str">
+        <f>_xlfn.CONCAT("[", M2, ", ", N2, "]")</f>
+        <v>[[0.28937 * imageHeight, 0.1714* imageWidth], [(0.28937 * imageHeight) + 22.38608, (0.1714* imageWidth) + 15.63472]]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>46</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>0.73913043478260865</v>
+      </c>
+      <c r="F3">
+        <v>350</v>
+      </c>
+      <c r="G3">
+        <f>ROUND(SQRT(F3/E3), 5)</f>
+        <v>21.760729999999999</v>
+      </c>
+      <c r="H3">
+        <f>G3*E3</f>
+        <v>16.084017826086953</v>
+      </c>
+      <c r="I3">
+        <v>199.744804497161</v>
+      </c>
+      <c r="J3">
+        <v>226.18055343627901</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K59" si="3">ROUND(I3/800, 5)</f>
+        <v>0.24968000000000001</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L59" si="4">ROUND(J3/1200, 5)</f>
+        <v>0.18848000000000001</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.24968 * imageHeight, 0.18848* imageWidth]</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.24968 * imageHeight) + 21.76073, (0.18848* imageWidth) + 16.084017826087]</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O59" si="5">_xlfn.CONCAT("[", M3, ", ", N3, "]")</f>
+        <v>[[0.24968 * imageHeight, 0.18848* imageWidth], [(0.24968 * imageHeight) + 21.76073, (0.18848* imageWidth) + 16.084017826087]]</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <v>49</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.89795918367346939</v>
+      </c>
+      <c r="F4">
+        <v>350</v>
+      </c>
+      <c r="G4">
+        <f>ROUND(SQRT(F4/E4), 5)</f>
+        <v>19.742660000000001</v>
+      </c>
+      <c r="H4">
+        <f>G4*E4</f>
+        <v>17.728102857142858</v>
+      </c>
+      <c r="I4">
+        <v>227.744802360931</v>
+      </c>
+      <c r="J4">
+        <v>256.43055343627901</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>0.28467999999999999</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="4"/>
+        <v>0.21368999999999999</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.28468 * imageHeight, 0.21369* imageWidth]</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.28468 * imageHeight) + 19.74266, (0.21369* imageWidth) + 17.7281028571429]</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.28468 * imageHeight, 0.21369* imageWidth], [(0.28468 * imageHeight) + 19.74266, (0.21369* imageWidth) + 17.7281028571429]]</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>110</v>
+      </c>
+      <c r="D5">
+        <v>97</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.134020618556701</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5">
+        <f>ROUND(SQRT(F5/E5), 5)</f>
+        <v>29.695419999999999</v>
+      </c>
+      <c r="H5">
+        <f>G5*E5</f>
+        <v>33.675218556701026</v>
+      </c>
+      <c r="I5">
+        <v>340</v>
+      </c>
+      <c r="J5">
+        <v>882</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.425 * imageHeight, 0.735* imageWidth]</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.425 * imageHeight) + 29.69542, (0.735* imageWidth) + 33.675218556701]</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.425 * imageHeight, 0.735* imageWidth], [(0.425 * imageHeight) + 29.69542, (0.735* imageWidth) + 33.675218556701]]</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6">
+        <v>95</v>
+      </c>
+      <c r="D6">
+        <v>84</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.1309523809523809</v>
+      </c>
+      <c r="F6">
+        <v>600</v>
+      </c>
+      <c r="G6">
+        <f>ROUND(SQRT(F6/E6), 5)</f>
+        <v>23.033159999999999</v>
+      </c>
+      <c r="H6">
+        <f>G6*E6</f>
+        <v>26.049407142857142</v>
+      </c>
+      <c r="I6">
+        <v>110.49479879418899</v>
+      </c>
+      <c r="J6">
+        <v>507.68055343627901</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>0.13811999999999999</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>0.42307</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.13812 * imageHeight, 0.42307* imageWidth]</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.13812 * imageHeight) + 23.03316, (0.42307* imageWidth) + 26.0494071428571]</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.13812 * imageHeight, 0.42307* imageWidth], [(0.13812 * imageHeight) + 23.03316, (0.42307* imageWidth) + 26.0494071428571]]</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7">
+        <v>93</v>
+      </c>
+      <c r="D7">
+        <v>65</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.4307692307692308</v>
+      </c>
+      <c r="F7">
+        <v>600</v>
+      </c>
+      <c r="G7">
+        <f>ROUND(SQRT(F7/E7), 5)</f>
+        <v>20.478159999999999</v>
+      </c>
+      <c r="H7">
+        <f>G7*E7</f>
+        <v>29.29952123076923</v>
+      </c>
+      <c r="I7">
+        <v>90</v>
+      </c>
+      <c r="J7">
+        <v>570</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>0.1125</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.1125 * imageHeight, 0.475* imageWidth]</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.1125 * imageHeight) + 20.47816, (0.475* imageWidth) + 29.2995212307692]</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.1125 * imageHeight, 0.475* imageWidth], [(0.1125 * imageHeight) + 20.47816, (0.475* imageWidth) + 29.2995212307692]]</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8">
+        <v>64</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.4222222222222223</v>
+      </c>
+      <c r="F8">
+        <v>350</v>
+      </c>
+      <c r="G8">
+        <f>ROUND(SQRT(F8/E8), 5)</f>
+        <v>15.687379999999999</v>
+      </c>
+      <c r="H8">
+        <f>G8*E8</f>
+        <v>22.310940444444444</v>
+      </c>
+      <c r="I8">
+        <v>267.49739830990598</v>
+      </c>
+      <c r="J8">
+        <v>85.618055343627901</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>0.33437</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>7.1349999999999997E-2</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.33437 * imageHeight, 0.07135* imageWidth]</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.33437 * imageHeight) + 15.68738, (0.07135* imageWidth) + 22.3109404444444]</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.33437 * imageHeight, 0.07135* imageWidth], [(0.33437 * imageHeight) + 15.68738, (0.07135* imageWidth) + 22.3109404444444]]</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9">
+        <v>64</v>
+      </c>
+      <c r="D9">
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E59" si="6">C9/D9</f>
+        <v>1.4222222222222223</v>
+      </c>
+      <c r="F9">
+        <v>350</v>
+      </c>
+      <c r="G9">
+        <f>ROUND(SQRT(F9/E9), 5)</f>
+        <v>15.687379999999999</v>
+      </c>
+      <c r="H9">
+        <f>G9*E9</f>
+        <v>22.310940444444444</v>
+      </c>
+      <c r="I9">
+        <v>219.122402143676</v>
+      </c>
+      <c r="J9">
+        <v>397.99305534362702</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>0.27389999999999998</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>0.33166000000000001</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.2739 * imageHeight, 0.33166* imageWidth]</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.2739 * imageHeight) + 15.68738, (0.33166* imageWidth) + 22.3109404444444]</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.2739 * imageHeight, 0.33166* imageWidth], [(0.2739 * imageHeight) + 15.68738, (0.33166* imageWidth) + 22.3109404444444]]</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10">
+        <v>64</v>
+      </c>
+      <c r="D10">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="6"/>
+        <v>1.4222222222222223</v>
+      </c>
+      <c r="F10">
+        <v>350</v>
+      </c>
+      <c r="G10">
+        <f>ROUND(SQRT(F10/E10), 5)</f>
+        <v>15.687379999999999</v>
+      </c>
+      <c r="H10">
+        <f>G10*E10</f>
+        <v>22.310940444444444</v>
+      </c>
+      <c r="I10">
+        <v>572.99480882684202</v>
+      </c>
+      <c r="J10">
+        <v>868.98611068725495</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>0.71623999999999999</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>0.72416000000000003</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.71624 * imageHeight, 0.72416* imageWidth]</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.71624 * imageHeight) + 15.68738, (0.72416* imageWidth) + 22.3109404444444]</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.71624 * imageHeight, 0.72416* imageWidth], [(0.71624 * imageHeight) + 15.68738, (0.72416* imageWidth) + 22.3109404444444]]</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11">
+        <v>64</v>
+      </c>
+      <c r="D11">
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="6"/>
+        <v>1.4222222222222223</v>
+      </c>
+      <c r="F11">
+        <v>350</v>
+      </c>
+      <c r="G11">
+        <f>ROUND(SQRT(F11/E11), 5)</f>
+        <v>15.687379999999999</v>
+      </c>
+      <c r="H11">
+        <f>G11*E11</f>
+        <v>22.310940444444444</v>
+      </c>
+      <c r="I11">
+        <v>322.24481142083602</v>
+      </c>
+      <c r="J11">
+        <v>753.98611068725495</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>0.40281</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>0.62831999999999999</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.40281 * imageHeight, 0.62832* imageWidth]</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.40281 * imageHeight) + 15.68738, (0.62832* imageWidth) + 22.3109404444444]</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.40281 * imageHeight, 0.62832* imageWidth], [(0.40281 * imageHeight) + 15.68738, (0.62832* imageWidth) + 22.3109404444444]]</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12">
+        <v>64</v>
+      </c>
+      <c r="D12">
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="6"/>
+        <v>1.4222222222222223</v>
+      </c>
+      <c r="F12">
+        <v>350</v>
+      </c>
+      <c r="G12">
+        <f>ROUND(SQRT(F12/E12), 5)</f>
+        <v>15.687379999999999</v>
+      </c>
+      <c r="H12">
+        <f>G12*E12</f>
+        <v>22.310940444444444</v>
+      </c>
+      <c r="I12">
+        <v>380.99481794396797</v>
+      </c>
+      <c r="J12">
+        <v>1047.9861106872499</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>0.47624</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>0.87331999999999999</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.47624 * imageHeight, 0.87332* imageWidth]</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.47624 * imageHeight) + 15.68738, (0.87332* imageWidth) + 22.3109404444444]</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.47624 * imageHeight, 0.87332* imageWidth], [(0.47624 * imageHeight) + 15.68738, (0.87332* imageWidth) + 22.3109404444444]]</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13">
+        <v>64</v>
+      </c>
+      <c r="D13">
+        <v>45</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="6"/>
+        <v>1.4222222222222223</v>
+      </c>
+      <c r="F13">
+        <v>350</v>
+      </c>
+      <c r="G13">
+        <f>ROUND(SQRT(F13/E13), 5)</f>
+        <v>15.687379999999999</v>
+      </c>
+      <c r="H13">
+        <f>G13*E13</f>
+        <v>22.310940444444444</v>
+      </c>
+      <c r="I13">
+        <v>561.49481441537296</v>
+      </c>
+      <c r="J13">
+        <v>81.486110687255803</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>0.70186999999999999</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>6.7909999999999998E-2</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.70187 * imageHeight, 0.06791* imageWidth]</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.70187 * imageHeight) + 15.68738, (0.06791* imageWidth) + 22.3109404444444]</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.70187 * imageHeight, 0.06791* imageWidth], [(0.70187 * imageHeight) + 15.68738, (0.06791* imageWidth) + 22.3109404444444]]</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14">
+        <v>51</v>
+      </c>
+      <c r="D14">
+        <v>45</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="6"/>
+        <v>1.1333333333333333</v>
+      </c>
+      <c r="F14">
+        <v>500</v>
+      </c>
+      <c r="G14">
+        <f>ROUND(SQRT(F14/E14), 5)</f>
+        <v>21.004200000000001</v>
+      </c>
+      <c r="H14">
+        <f>G14*E14</f>
+        <v>23.804760000000002</v>
+      </c>
+      <c r="I14">
+        <v>535.744797802368</v>
+      </c>
+      <c r="J14">
+        <v>689.73611068725495</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>0.66968000000000005</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>0.57477999999999996</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.66968 * imageHeight, 0.57478* imageWidth]</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.66968 * imageHeight) + 21.0042, (0.57478* imageWidth) + 23.80476]</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.66968 * imageHeight, 0.57478* imageWidth], [(0.66968 * imageHeight) + 21.0042, (0.57478* imageWidth) + 23.80476]]</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>58</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="6"/>
+        <v>0.67241379310344829</v>
+      </c>
+      <c r="F15">
+        <v>500</v>
+      </c>
+      <c r="G15">
+        <f>ROUND(SQRT(F15/E15), 5)</f>
+        <v>27.268840000000001</v>
+      </c>
+      <c r="H15">
+        <f>G15*E15</f>
+        <v>18.335944137931037</v>
+      </c>
+      <c r="I15">
+        <v>564.494795608917</v>
+      </c>
+      <c r="J15">
+        <v>744.98611068725495</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>0.70562000000000002</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>0.62082000000000004</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.70562 * imageHeight, 0.62082* imageWidth]</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.70562 * imageHeight) + 27.26884, (0.62082* imageWidth) + 18.335944137931]</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.70562 * imageHeight, 0.62082* imageWidth], [(0.70562 * imageHeight) + 27.26884, (0.62082* imageWidth) + 18.335944137931]]</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16">
+        <v>64</v>
+      </c>
+      <c r="D16">
+        <v>65</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="6"/>
+        <v>0.98461538461538467</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+      <c r="G16">
+        <f>ROUND(SQRT(F16/E16), 5)</f>
+        <v>31.868870000000001</v>
+      </c>
+      <c r="H16">
+        <f>G16*E16</f>
+        <v>31.378579692307696</v>
+      </c>
+      <c r="I16">
+        <v>662.24479082147195</v>
+      </c>
+      <c r="J16">
+        <v>235.98611068725501</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>0.82781000000000005</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>0.19666</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.82781 * imageHeight, 0.19666* imageWidth]</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.82781 * imageHeight) + 31.86887, (0.19666* imageWidth) + 31.3785796923077]</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.82781 * imageHeight, 0.19666* imageWidth], [(0.82781 * imageHeight) + 31.86887, (0.19666* imageWidth) + 31.3785796923077]]</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17">
+        <v>44</v>
+      </c>
+      <c r="D17">
+        <v>54</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="6"/>
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="F17">
+        <v>500</v>
+      </c>
+      <c r="G17">
+        <f>ROUND(SQRT(F17/E17), 5)</f>
+        <v>24.77168</v>
+      </c>
+      <c r="H17">
+        <f>G17*E17</f>
+        <v>20.184331851851852</v>
+      </c>
+      <c r="I17">
+        <v>659.99479099313396</v>
+      </c>
+      <c r="J17">
+        <v>197.48611068725501</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>0.82499</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>0.16456999999999999</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.82499 * imageHeight, 0.16457* imageWidth]</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.82499 * imageHeight) + 24.77168, (0.16457* imageWidth) + 20.1843318518519]</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.82499 * imageHeight, 0.16457* imageWidth], [(0.82499 * imageHeight) + 24.77168, (0.16457* imageWidth) + 20.1843318518519]]</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18">
+        <v>58</v>
+      </c>
+      <c r="D18">
+        <v>54</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="6"/>
+        <v>1.0740740740740742</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f>ROUND(SQRT(F18/E18), 5)</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>G18*E18</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>380.12240332623202</v>
+      </c>
+      <c r="J18">
+        <v>271.36805534362702</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>0.47515000000000002</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>0.22614000000000001</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.47515 * imageHeight, 0.22614* imageWidth]</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.47515 * imageHeight) + 0, (0.22614* imageWidth) + 0]</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.47515 * imageHeight, 0.22614* imageWidth], [(0.47515 * imageHeight) + 0, (0.22614* imageWidth) + 0]]</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19">
+        <v>58</v>
+      </c>
+      <c r="D19">
+        <v>54</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="6"/>
+        <v>1.0740740740740742</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>ROUND(SQRT(F19/E19), 5)</f>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f>G19*E19</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>460.49480230371</v>
+      </c>
+      <c r="J19">
+        <v>437.98611068725501</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>0.57562000000000002</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>0.36498999999999998</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.57562 * imageHeight, 0.36499* imageWidth]</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.57562 * imageHeight) + 0, (0.36499* imageWidth) + 0]</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.57562 * imageHeight, 0.36499* imageWidth], [(0.57562 * imageHeight) + 0, (0.36499* imageWidth) + 0]]</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20">
+        <v>72</v>
+      </c>
+      <c r="D20">
+        <v>72</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1000</v>
+      </c>
+      <c r="G20">
+        <f>ROUND(SQRT(F20/E20), 5)</f>
+        <v>31.622779999999999</v>
+      </c>
+      <c r="H20">
+        <f>G20*E20</f>
+        <v>31.622779999999999</v>
+      </c>
+      <c r="I20">
+        <v>247.489602814514</v>
+      </c>
+      <c r="J20">
+        <v>1000.47222137451</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>0.30936000000000002</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>0.83372999999999997</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.30936 * imageHeight, 0.83373* imageWidth]</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.30936 * imageHeight) + 31.62278, (0.83373* imageWidth) + 31.62278]</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.30936 * imageHeight, 0.83373* imageWidth], [(0.30936 * imageHeight) + 31.62278, (0.83373* imageWidth) + 31.62278]]</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21">
+        <v>59</v>
+      </c>
+      <c r="D21">
+        <v>41</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="6"/>
+        <v>1.4390243902439024</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>ROUND(SQRT(F21/E21), 5)</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f>G21*E21</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>666.93923969732305</v>
+      </c>
+      <c r="J21">
+        <v>399.48611068725501</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>0.83367000000000002</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>0.33290999999999998</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.83367 * imageHeight, 0.33291* imageWidth]</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.83367 * imageHeight) + 0, (0.33291* imageWidth) + 0]</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.83367 * imageHeight, 0.33291* imageWidth], [(0.83367 * imageHeight) + 0, (0.33291* imageWidth) + 0]]</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22">
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <v>42</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="6"/>
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f>ROUND(SQRT(F22/E22), 5)</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>G22*E22</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>624.689242920742</v>
+      </c>
+      <c r="J22">
+        <v>414.48611068725501</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>0.78086</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>0.34540999999999999</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.78086 * imageHeight, 0.34541* imageWidth]</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.78086 * imageHeight) + 0, (0.34541* imageWidth) + 0]</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.78086 * imageHeight, 0.34541* imageWidth], [(0.78086 * imageHeight) + 0, (0.34541* imageWidth) + 0]]</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23">
+        <v>65</v>
+      </c>
+      <c r="D23">
+        <v>63</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="6"/>
+        <v>1.0317460317460319</v>
+      </c>
+      <c r="F23">
+        <v>1000</v>
+      </c>
+      <c r="G23">
+        <f>ROUND(SQRT(F23/E23), 5)</f>
+        <v>31.132470000000001</v>
+      </c>
+      <c r="H23">
+        <f>G23*E23</f>
+        <v>32.120802380952384</v>
+      </c>
+      <c r="I23">
+        <v>656.43923769460696</v>
+      </c>
+      <c r="J23">
+        <v>555.98611068725495</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>0.82055</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>0.46332000000000001</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.82055 * imageHeight, 0.46332* imageWidth]</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.82055 * imageHeight) + 31.13247, (0.46332* imageWidth) + 32.1208023809524]</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.82055 * imageHeight, 0.46332* imageWidth], [(0.82055 * imageHeight) + 31.13247, (0.46332* imageWidth) + 32.1208023809524]]</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24">
+        <v>38</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="6"/>
+        <v>0.76</v>
+      </c>
+      <c r="F24">
+        <v>500</v>
+      </c>
+      <c r="G24">
+        <f>ROUND(SQRT(F24/E24), 5)</f>
+        <v>25.649460000000001</v>
+      </c>
+      <c r="H24">
+        <f>G24*E24</f>
+        <v>19.4935896</v>
+      </c>
+      <c r="I24">
+        <v>662.87848137828905</v>
+      </c>
+      <c r="J24">
+        <v>639.97222137451104</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>0.8286</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>0.53330999999999995</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.8286 * imageHeight, 0.53331* imageWidth]</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.8286 * imageHeight) + 25.64946, (0.53331* imageWidth) + 19.4935896]</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.8286 * imageHeight, 0.53331* imageWidth], [(0.8286 * imageHeight) + 25.64946, (0.53331* imageWidth) + 19.4935896]]</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25">
+        <v>73</v>
+      </c>
+      <c r="D25">
+        <v>64</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="6"/>
+        <v>1.140625</v>
+      </c>
+      <c r="F25">
+        <v>1000</v>
+      </c>
+      <c r="G25">
+        <f>ROUND(SQRT(F25/E25), 5)</f>
+        <v>29.60933</v>
+      </c>
+      <c r="H25">
+        <f>G25*E25</f>
+        <v>33.773142031250003</v>
+      </c>
+      <c r="I25">
+        <v>591.87848679515901</v>
+      </c>
+      <c r="J25">
+        <v>620.97222137451104</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>0.73985000000000001</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>0.51748000000000005</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.73985 * imageHeight, 0.51748* imageWidth]</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.73985 * imageHeight) + 29.60933, (0.51748* imageWidth) + 33.77314203125]</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.73985 * imageHeight, 0.51748* imageWidth], [(0.73985 * imageHeight) + 29.60933, (0.51748* imageWidth) + 33.77314203125]]</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26">
+        <v>81</v>
+      </c>
+      <c r="D26">
+        <v>41</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="6"/>
+        <v>1.975609756097561</v>
+      </c>
+      <c r="F26">
+        <v>1000</v>
+      </c>
+      <c r="G26">
+        <f>ROUND(SQRT(F26/E26), 5)</f>
+        <v>22.498290000000001</v>
+      </c>
+      <c r="H26">
+        <f>G26*E26</f>
+        <v>44.447841219512199</v>
+      </c>
+      <c r="I26">
+        <v>534.18924561010397</v>
+      </c>
+      <c r="J26">
+        <v>517.23611068725495</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>0.66774</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>0.43103000000000002</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.66774 * imageHeight, 0.43103* imageWidth]</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.66774 * imageHeight) + 22.49829, (0.43103* imageWidth) + 44.4478412195122]</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.66774 * imageHeight, 0.43103* imageWidth], [(0.66774 * imageHeight) + 22.49829, (0.43103* imageWidth) + 44.4478412195122]]</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27">
+        <v>94</v>
+      </c>
+      <c r="D27">
+        <v>80</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="6"/>
+        <v>1.175</v>
+      </c>
+      <c r="F27">
+        <v>1500</v>
+      </c>
+      <c r="G27">
+        <f>ROUND(SQRT(F27/E27), 5)</f>
+        <v>35.729480000000002</v>
+      </c>
+      <c r="H27">
+        <f>G27*E27</f>
+        <v>41.982139000000004</v>
+      </c>
+      <c r="I27">
+        <v>718.43923723684395</v>
+      </c>
+      <c r="J27">
+        <v>457.48611068725501</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>0.89805000000000001</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>0.38124000000000002</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.89805 * imageHeight, 0.38124* imageWidth]</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.89805 * imageHeight) + 35.72948, (0.38124* imageWidth) + 41.982139]</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.89805 * imageHeight, 0.38124* imageWidth], [(0.89805 * imageHeight) + 35.72948, (0.38124* imageWidth) + 41.982139]]</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28">
+        <v>70</v>
+      </c>
+      <c r="D28">
+        <v>70</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1500</v>
+      </c>
+      <c r="G28">
+        <f>ROUND(SQRT(F28/E28), 5)</f>
+        <v>38.72983</v>
+      </c>
+      <c r="H28">
+        <f>G28*E28</f>
+        <v>38.72983</v>
+      </c>
+      <c r="I28">
+        <v>737.18924049840996</v>
+      </c>
+      <c r="J28">
+        <v>316.73611068725501</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>0.92149000000000003</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>0.26395000000000002</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.92149 * imageHeight, 0.26395* imageWidth]</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.92149 * imageHeight) + 38.72983, (0.26395* imageWidth) + 38.72983]</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.92149 * imageHeight, 0.26395* imageWidth], [(0.92149 * imageHeight) + 38.72983, (0.26395* imageWidth) + 38.72983]]</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29">
+        <v>48</v>
+      </c>
+      <c r="D29">
+        <v>35</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="6"/>
+        <v>1.3714285714285714</v>
+      </c>
+      <c r="F29">
+        <v>500</v>
+      </c>
+      <c r="G29">
+        <f>ROUND(SQRT(F29/E29), 5)</f>
+        <v>19.094069999999999</v>
+      </c>
+      <c r="H29">
+        <f>G29*E29</f>
+        <v>26.18615314285714</v>
+      </c>
+      <c r="I29">
+        <v>708.43924269186004</v>
+      </c>
+      <c r="J29">
+        <v>156.98611068725501</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>0.88554999999999995</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>0.13081999999999999</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.88555 * imageHeight, 0.13082* imageWidth]</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.88555 * imageHeight) + 19.09407, (0.13082* imageWidth) + 26.1861531428571]</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.88555 * imageHeight, 0.13082* imageWidth], [(0.88555 * imageHeight) + 19.09407, (0.13082* imageWidth) + 26.1861531428571]]</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="D30">
+        <v>52</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="6"/>
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="F30">
+        <v>1000</v>
+      </c>
+      <c r="G30">
+        <f>ROUND(SQRT(F30/E30), 5)</f>
+        <v>32.249029999999998</v>
+      </c>
+      <c r="H30">
+        <f>G30*E30</f>
+        <v>31.008682692307691</v>
+      </c>
+      <c r="I30">
+        <v>732.43924086080597</v>
+      </c>
+      <c r="J30">
+        <v>163.23611068725501</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>0.91554999999999997</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="4"/>
+        <v>0.13603000000000001</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.91555 * imageHeight, 0.13603* imageWidth]</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.91555 * imageHeight) + 32.24903, (0.13603* imageWidth) + 31.0086826923077]</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.91555 * imageHeight, 0.13603* imageWidth], [(0.91555 * imageHeight) + 32.24903, (0.13603* imageWidth) + 31.0086826923077]]</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>38</v>
+      </c>
+      <c r="D31">
+        <v>46</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="6"/>
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="F31">
+        <v>500</v>
+      </c>
+      <c r="G31">
+        <f>ROUND(SQRT(F31/E31), 5)</f>
+        <v>24.6021</v>
+      </c>
+      <c r="H31">
+        <f>G31*E31</f>
+        <v>20.323473913043479</v>
+      </c>
+      <c r="I31">
+        <v>325.21962210886898</v>
+      </c>
+      <c r="J31">
+        <v>103.11805534362701</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>0.40651999999999999</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>8.5930000000000006E-2</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.40652 * imageHeight, 0.08593* imageWidth]</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.40652 * imageHeight) + 24.6021, (0.08593* imageWidth) + 20.3234739130435]</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.40652 * imageHeight, 0.08593* imageWidth], [(0.40652 * imageHeight) + 24.6021, (0.08593* imageWidth) + 20.3234739130435]]</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>52</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="6"/>
+        <v>1.6774193548387097</v>
+      </c>
+      <c r="F32">
+        <v>500</v>
+      </c>
+      <c r="G32">
+        <f>ROUND(SQRT(F32/E32), 5)</f>
+        <v>17.264900000000001</v>
+      </c>
+      <c r="H32">
+        <f>G32*E32</f>
+        <v>28.960477419354842</v>
+      </c>
+      <c r="I32">
+        <v>348.594620325498</v>
+      </c>
+      <c r="J32">
+        <v>129.99305534362699</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>0.43574000000000002</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="4"/>
+        <v>0.10833</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.43574 * imageHeight, 0.10833* imageWidth]</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.43574 * imageHeight) + 17.2649, (0.10833* imageWidth) + 28.9604774193548]</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.43574 * imageHeight, 0.10833* imageWidth], [(0.43574 * imageHeight) + 17.2649, (0.10833* imageWidth) + 28.9604774193548]]</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33">
+        <v>73</v>
+      </c>
+      <c r="D33">
+        <v>59</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="6"/>
+        <v>1.2372881355932204</v>
+      </c>
+      <c r="F33">
+        <v>1000</v>
+      </c>
+      <c r="G33">
+        <f>ROUND(SQRT(F33/E33), 5)</f>
+        <v>28.429200000000002</v>
+      </c>
+      <c r="H33">
+        <f>G33*E33</f>
+        <v>35.17511186440678</v>
+      </c>
+      <c r="I33">
+        <v>423.87847496959802</v>
+      </c>
+      <c r="J33">
+        <v>210.47222137451101</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>0.52985000000000004</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="4"/>
+        <v>0.17538999999999999</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="1"/>
+        <v>[0.52985 * imageHeight, 0.17539* imageWidth]</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="2"/>
+        <v>[(0.52985 * imageHeight) + 28.4292, (0.17539* imageWidth) + 35.1751118644068]</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.52985 * imageHeight, 0.17539* imageWidth], [(0.52985 * imageHeight) + 28.4292, (0.17539* imageWidth) + 35.1751118644068]]</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34">
+        <v>48</v>
+      </c>
+      <c r="D34">
+        <v>48</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>500</v>
+      </c>
+      <c r="G34">
+        <f>ROUND(SQRT(F34/E34), 5)</f>
+        <v>22.360679999999999</v>
+      </c>
+      <c r="H34">
+        <f>G34*E34</f>
+        <v>22.360679999999999</v>
+      </c>
+      <c r="I34">
+        <v>658.41580271409498</v>
+      </c>
+      <c r="J34">
+        <v>341.99652481079102</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>0.82301999999999997</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="4"/>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" ref="M34:M59" si="7">_xlfn.CONCAT("[", K34, " * imageHeight", ", ", L34, "* imageWidth", "]")</f>
+        <v>[0.82302 * imageHeight, 0.285* imageWidth]</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" ref="N34:N59" si="8">_xlfn.CONCAT("[(", K34, " * imageHeight)", " + ",  G34, ", (", L34, "* imageWidth)", " + ", H34, "]" )</f>
+        <v>[(0.82302 * imageHeight) + 22.36068, (0.285* imageWidth) + 22.36068]</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.82302 * imageHeight, 0.285* imageWidth], [(0.82302 * imageHeight) + 22.36068, (0.285* imageWidth) + 22.36068]]</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35">
+        <v>54</v>
+      </c>
+      <c r="D35">
+        <v>38</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="6"/>
+        <v>1.4210526315789473</v>
+      </c>
+      <c r="F35">
+        <v>500</v>
+      </c>
+      <c r="G35">
+        <f>ROUND(SQRT(F35/E35), 5)</f>
+        <v>18.757709999999999</v>
+      </c>
+      <c r="H35">
+        <f>G35*E35</f>
+        <v>26.655693157894735</v>
+      </c>
+      <c r="I35">
+        <v>547.41580601380804</v>
+      </c>
+      <c r="J35">
+        <v>352.49652481079102</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>0.68427000000000004</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="4"/>
+        <v>0.29375000000000001</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.68427 * imageHeight, 0.29375* imageWidth]</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.68427 * imageHeight) + 18.75771, (0.29375* imageWidth) + 26.6556931578947]</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.68427 * imageHeight, 0.29375* imageWidth], [(0.68427 * imageHeight) + 18.75771, (0.29375* imageWidth) + 26.6556931578947]]</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36">
+        <v>64</v>
+      </c>
+      <c r="D36">
+        <v>55</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="6"/>
+        <v>1.1636363636363636</v>
+      </c>
+      <c r="F36">
+        <v>500</v>
+      </c>
+      <c r="G36">
+        <f>ROUND(SQRT(F36/E36), 5)</f>
+        <v>20.728899999999999</v>
+      </c>
+      <c r="H36">
+        <f>G36*E36</f>
+        <v>24.120901818181817</v>
+      </c>
+      <c r="I36">
+        <v>507</v>
+      </c>
+      <c r="J36">
+        <v>279.046875</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>0.63375000000000004</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="4"/>
+        <v>0.23254</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.63375 * imageHeight, 0.23254* imageWidth]</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.63375 * imageHeight) + 20.7289, (0.23254* imageWidth) + 24.1209018181818]</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.63375 * imageHeight, 0.23254* imageWidth], [(0.63375 * imageHeight) + 20.7289, (0.23254* imageWidth) + 24.1209018181818]]</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37">
+        <v>54</v>
+      </c>
+      <c r="D37">
+        <v>52</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="6"/>
+        <v>1.0384615384615385</v>
+      </c>
+      <c r="F37">
+        <v>500</v>
+      </c>
+      <c r="G37">
+        <f>ROUND(SQRT(F37/E37), 5)</f>
+        <v>21.942689999999999</v>
+      </c>
+      <c r="H37">
+        <f>G37*E37</f>
+        <v>22.786639615384615</v>
+      </c>
+      <c r="I37">
+        <v>477.5</v>
+      </c>
+      <c r="J37">
+        <v>312.546875</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>0.59687999999999997</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="4"/>
+        <v>0.26046000000000002</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.59688 * imageHeight, 0.26046* imageWidth]</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.59688 * imageHeight) + 21.94269, (0.26046* imageWidth) + 22.7866396153846]</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.59688 * imageHeight, 0.26046* imageWidth], [(0.59688 * imageHeight) + 21.94269, (0.26046* imageWidth) + 22.7866396153846]]</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38">
+        <v>61</v>
+      </c>
+      <c r="D38">
+        <v>45</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="6"/>
+        <v>1.3555555555555556</v>
+      </c>
+      <c r="F38">
+        <v>500</v>
+      </c>
+      <c r="G38">
+        <f>ROUND(SQRT(F38/E38), 5)</f>
+        <v>19.20553</v>
+      </c>
+      <c r="H38">
+        <f>G38*E38</f>
+        <v>26.03416288888889</v>
+      </c>
+      <c r="I38">
+        <v>564.75</v>
+      </c>
+      <c r="J38">
+        <v>406.796875</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>0.70594000000000001</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="4"/>
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.70594 * imageHeight, 0.339* imageWidth]</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.70594 * imageHeight) + 19.20553, (0.339* imageWidth) + 26.0341628888889]</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.70594 * imageHeight, 0.339* imageWidth], [(0.70594 * imageHeight) + 19.20553, (0.339* imageWidth) + 26.0341628888889]]</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <v>52</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="6"/>
+        <v>0.73076923076923073</v>
+      </c>
+      <c r="F39">
+        <v>500</v>
+      </c>
+      <c r="G39">
+        <f>ROUND(SQRT(F39/E39), 5)</f>
+        <v>26.157419999999998</v>
+      </c>
+      <c r="H39">
+        <f>G39*E39</f>
+        <v>19.115037692307691</v>
+      </c>
+      <c r="I39">
+        <v>618.625</v>
+      </c>
+      <c r="J39">
+        <v>494.6484375</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>0.77327999999999997</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="4"/>
+        <v>0.41221000000000002</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.77328 * imageHeight, 0.41221* imageWidth]</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.77328 * imageHeight) + 26.15742, (0.41221* imageWidth) + 19.1150376923077]</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.77328 * imageHeight, 0.41221* imageWidth], [(0.77328 * imageHeight) + 26.15742, (0.41221* imageWidth) + 19.1150376923077]]</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40">
+        <v>65</v>
+      </c>
+      <c r="D40">
+        <v>55</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="6"/>
+        <v>1.1818181818181819</v>
+      </c>
+      <c r="F40">
+        <v>1000</v>
+      </c>
+      <c r="G40">
+        <f>ROUND(SQRT(F40/E40), 5)</f>
+        <v>29.088719999999999</v>
+      </c>
+      <c r="H40">
+        <f>G40*E40</f>
+        <v>34.37757818181818</v>
+      </c>
+      <c r="I40">
+        <v>563</v>
+      </c>
+      <c r="J40">
+        <v>446.546875</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>0.70374999999999999</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="4"/>
+        <v>0.37212000000000001</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.70375 * imageHeight, 0.37212* imageWidth]</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.70375 * imageHeight) + 29.08872, (0.37212* imageWidth) + 34.3775781818182]</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.70375 * imageHeight, 0.37212* imageWidth], [(0.70375 * imageHeight) + 29.08872, (0.37212* imageWidth) + 34.3775781818182]]</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41">
+        <v>50</v>
+      </c>
+      <c r="D41">
+        <v>36</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="6"/>
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="F41">
+        <v>500</v>
+      </c>
+      <c r="G41">
+        <f>ROUND(SQRT(F41/E41), 5)</f>
+        <v>18.973669999999998</v>
+      </c>
+      <c r="H41">
+        <f>G41*E41</f>
+        <v>26.35231944444444</v>
+      </c>
+      <c r="I41">
+        <v>465</v>
+      </c>
+      <c r="J41">
+        <v>511.046875</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>0.58125000000000004</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="4"/>
+        <v>0.42587000000000003</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.58125 * imageHeight, 0.42587* imageWidth]</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.58125 * imageHeight) + 18.97367, (0.42587* imageWidth) + 26.3523194444444]</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.58125 * imageHeight, 0.42587* imageWidth], [(0.58125 * imageHeight) + 18.97367, (0.42587* imageWidth) + 26.3523194444444]]</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42">
+        <v>44</v>
+      </c>
+      <c r="D42">
+        <v>36</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="6"/>
+        <v>1.2222222222222223</v>
+      </c>
+      <c r="F42">
+        <v>500</v>
+      </c>
+      <c r="G42">
+        <f>ROUND(SQRT(F42/E42), 5)</f>
+        <v>20.225999999999999</v>
+      </c>
+      <c r="H42">
+        <f>G42*E42</f>
+        <v>24.720666666666666</v>
+      </c>
+      <c r="I42">
+        <v>478.5</v>
+      </c>
+      <c r="J42">
+        <v>132.09375</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>0.59813000000000005</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="4"/>
+        <v>0.11008</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.59813 * imageHeight, 0.11008* imageWidth]</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.59813 * imageHeight) + 20.226, (0.11008* imageWidth) + 24.7206666666667]</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.59813 * imageHeight, 0.11008* imageWidth], [(0.59813 * imageHeight) + 20.226, (0.11008* imageWidth) + 24.7206666666667]]</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>182</v>
+      </c>
+      <c r="B43" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43">
+        <v>23</v>
+      </c>
+      <c r="D43">
+        <v>39</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="6"/>
+        <v>0.58974358974358976</v>
+      </c>
+      <c r="F43">
+        <v>500</v>
+      </c>
+      <c r="G43">
+        <f>ROUND(SQRT(F43/E43), 5)</f>
+        <v>29.117450000000002</v>
+      </c>
+      <c r="H43">
+        <f>G43*E43</f>
+        <v>17.17182948717949</v>
+      </c>
+      <c r="I43">
+        <v>306.25</v>
+      </c>
+      <c r="J43">
+        <v>170.546875</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>0.38280999999999998</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="4"/>
+        <v>0.14212</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.38281 * imageHeight, 0.14212* imageWidth]</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.38281 * imageHeight) + 29.11745, (0.14212* imageWidth) + 17.1718294871795]</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.38281 * imageHeight, 0.14212* imageWidth], [(0.38281 * imageHeight) + 29.11745, (0.14212* imageWidth) + 17.1718294871795]]</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>184</v>
+      </c>
+      <c r="B44" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44">
+        <v>35</v>
+      </c>
+      <c r="D44">
+        <v>38</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="6"/>
+        <v>0.92105263157894735</v>
+      </c>
+      <c r="F44">
+        <v>500</v>
+      </c>
+      <c r="G44">
+        <f>ROUND(SQRT(F44/E44), 5)</f>
+        <v>23.299289999999999</v>
+      </c>
+      <c r="H44">
+        <f>G44*E44</f>
+        <v>21.459872368421053</v>
+      </c>
+      <c r="I44">
+        <v>310</v>
+      </c>
+      <c r="J44">
+        <v>198.546875</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="4"/>
+        <v>0.16546</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.3875 * imageHeight, 0.16546* imageWidth]</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.3875 * imageHeight) + 23.29929, (0.16546* imageWidth) + 21.4598723684211]</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.3875 * imageHeight, 0.16546* imageWidth], [(0.3875 * imageHeight) + 23.29929, (0.16546* imageWidth) + 21.4598723684211]]</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B45" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45">
+        <v>58</v>
+      </c>
+      <c r="D45">
+        <v>42</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="6"/>
+        <v>1.3809523809523809</v>
+      </c>
+      <c r="F45">
+        <v>500</v>
+      </c>
+      <c r="G45">
+        <f>ROUND(SQRT(F45/E45), 5)</f>
+        <v>19.028110000000002</v>
+      </c>
+      <c r="H45">
+        <f>G45*E45</f>
+        <v>26.276913809523812</v>
+      </c>
+      <c r="I45">
+        <v>359.75</v>
+      </c>
+      <c r="J45">
+        <v>221.796875</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>0.44968999999999998</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="4"/>
+        <v>0.18482999999999999</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.44969 * imageHeight, 0.18483* imageWidth]</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.44969 * imageHeight) + 19.02811, (0.18483* imageWidth) + 26.2769138095238]</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.44969 * imageHeight, 0.18483* imageWidth], [(0.44969 * imageHeight) + 19.02811, (0.18483* imageWidth) + 26.2769138095238]]</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>186</v>
+      </c>
+      <c r="B46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46">
+        <v>52</v>
+      </c>
+      <c r="D46">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="6"/>
+        <v>1.1818181818181819</v>
+      </c>
+      <c r="F46">
+        <v>500</v>
+      </c>
+      <c r="G46">
+        <f>ROUND(SQRT(F46/E46), 5)</f>
+        <v>20.568829999999998</v>
+      </c>
+      <c r="H46">
+        <f>G46*E46</f>
+        <v>24.308617272727272</v>
+      </c>
+      <c r="I46">
+        <v>345.75</v>
+      </c>
+      <c r="J46">
+        <v>246.796875</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>0.43219000000000002</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="4"/>
+        <v>0.20566000000000001</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.43219 * imageHeight, 0.20566* imageWidth]</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.43219 * imageHeight) + 20.56883, (0.20566* imageWidth) + 24.3086172727273]</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.43219 * imageHeight, 0.20566* imageWidth], [(0.43219 * imageHeight) + 20.56883, (0.20566* imageWidth) + 24.3086172727273]]</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>211</v>
+      </c>
+      <c r="B47" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47">
+        <v>88</v>
+      </c>
+      <c r="D47">
+        <v>79</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="6"/>
+        <v>1.1139240506329113</v>
+      </c>
+      <c r="F47">
+        <v>1500</v>
+      </c>
+      <c r="G47">
+        <f>ROUND(SQRT(F47/E47), 5)</f>
+        <v>36.695920000000001</v>
+      </c>
+      <c r="H47">
+        <f>G47*E47</f>
+        <v>40.876467848101264</v>
+      </c>
+      <c r="I47">
+        <v>90</v>
+      </c>
+      <c r="J47">
+        <v>101.046875</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>0.1125</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="4"/>
+        <v>8.4209999999999993E-2</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.1125 * imageHeight, 0.08421* imageWidth]</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.1125 * imageHeight) + 36.69592, (0.08421* imageWidth) + 40.8764678481013]</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.1125 * imageHeight, 0.08421* imageWidth], [(0.1125 * imageHeight) + 36.69592, (0.08421* imageWidth) + 40.8764678481013]]</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>187</v>
+      </c>
+      <c r="B48" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48">
+        <v>42</v>
+      </c>
+      <c r="D48">
+        <v>46</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="6"/>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="F48">
+        <v>1000</v>
+      </c>
+      <c r="G48">
+        <f>ROUND(SQRT(F48/E48), 5)</f>
+        <v>33.094380000000001</v>
+      </c>
+      <c r="H48">
+        <f>G48*E48</f>
+        <v>30.216607826086957</v>
+      </c>
+      <c r="I48">
+        <v>53</v>
+      </c>
+      <c r="J48">
+        <v>71.09375</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>6.6250000000000003E-2</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="4"/>
+        <v>5.9240000000000001E-2</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.06625 * imageHeight, 0.05924* imageWidth]</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.06625 * imageHeight) + 33.09438, (0.05924* imageWidth) + 30.216607826087]</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.06625 * imageHeight, 0.05924* imageWidth], [(0.06625 * imageHeight) + 33.09438, (0.05924* imageWidth) + 30.216607826087]]</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>189</v>
+      </c>
+      <c r="B49" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49">
+        <v>52</v>
+      </c>
+      <c r="D49">
+        <v>44</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="6"/>
+        <v>1.1818181818181819</v>
+      </c>
+      <c r="F49">
+        <v>500</v>
+      </c>
+      <c r="G49">
+        <f>ROUND(SQRT(F49/E49), 5)</f>
+        <v>20.568829999999998</v>
+      </c>
+      <c r="H49">
+        <f>G49*E49</f>
+        <v>24.308617272727272</v>
+      </c>
+      <c r="I49">
+        <v>334.25</v>
+      </c>
+      <c r="J49">
+        <v>1094.046875</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>0.41781000000000001</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="4"/>
+        <v>0.91171000000000002</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.41781 * imageHeight, 0.91171* imageWidth]</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.41781 * imageHeight) + 20.56883, (0.91171* imageWidth) + 24.3086172727273]</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.41781 * imageHeight, 0.91171* imageWidth], [(0.41781 * imageHeight) + 20.56883, (0.91171* imageWidth) + 24.3086172727273]]</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>191</v>
+      </c>
+      <c r="B50" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50">
+        <v>67</v>
+      </c>
+      <c r="D50">
+        <v>49</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="6"/>
+        <v>1.3673469387755102</v>
+      </c>
+      <c r="F50">
+        <v>1000</v>
+      </c>
+      <c r="G50">
+        <f>ROUND(SQRT(F50/E50), 5)</f>
+        <v>27.04336</v>
+      </c>
+      <c r="H50">
+        <f>G50*E50</f>
+        <v>36.97765551020408</v>
+      </c>
+      <c r="I50">
+        <v>635</v>
+      </c>
+      <c r="J50">
+        <v>952.796875</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>0.79374999999999996</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="4"/>
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.79375 * imageHeight, 0.794* imageWidth]</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.79375 * imageHeight) + 27.04336, (0.794* imageWidth) + 36.9776555102041]</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.79375 * imageHeight, 0.794* imageWidth], [(0.79375 * imageHeight) + 27.04336, (0.794* imageWidth) + 36.9776555102041]]</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51">
+        <v>48</v>
+      </c>
+      <c r="D51">
+        <v>46</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="6"/>
+        <v>1.0434782608695652</v>
+      </c>
+      <c r="F51">
+        <v>500</v>
+      </c>
+      <c r="G51">
+        <f>ROUND(SQRT(F51/E51), 5)</f>
+        <v>21.889880000000002</v>
+      </c>
+      <c r="H51">
+        <f>G51*E51</f>
+        <v>22.841613913043478</v>
+      </c>
+      <c r="I51">
+        <v>580</v>
+      </c>
+      <c r="J51">
+        <v>1075.296875</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="4"/>
+        <v>0.89607999999999999</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.725 * imageHeight, 0.89608* imageWidth]</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.725 * imageHeight) + 21.88988, (0.89608* imageWidth) + 22.8416139130435]</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.725 * imageHeight, 0.89608* imageWidth], [(0.725 * imageHeight) + 21.88988, (0.89608* imageWidth) + 22.8416139130435]]</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52">
+        <v>45</v>
+      </c>
+      <c r="D52">
+        <v>42</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="6"/>
+        <v>1.0714285714285714</v>
+      </c>
+      <c r="F52">
+        <v>500</v>
+      </c>
+      <c r="G52">
+        <f>ROUND(SQRT(F52/E52), 5)</f>
+        <v>21.60247</v>
+      </c>
+      <c r="H52">
+        <f>G52*E52</f>
+        <v>23.14550357142857</v>
+      </c>
+      <c r="I52">
+        <v>473</v>
+      </c>
+      <c r="J52">
+        <v>940.09375</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="3"/>
+        <v>0.59125000000000005</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="4"/>
+        <v>0.78341000000000005</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.59125 * imageHeight, 0.78341* imageWidth]</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.59125 * imageHeight) + 21.60247, (0.78341* imageWidth) + 23.1455035714286]</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.59125 * imageHeight, 0.78341* imageWidth], [(0.59125 * imageHeight) + 21.60247, (0.78341* imageWidth) + 23.1455035714286]]</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>197</v>
+      </c>
+      <c r="B53" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53">
+        <v>59</v>
+      </c>
+      <c r="D53">
+        <v>51</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="6"/>
+        <v>1.1568627450980393</v>
+      </c>
+      <c r="F53">
+        <v>1000</v>
+      </c>
+      <c r="G53">
+        <f>ROUND(SQRT(F53/E53), 5)</f>
+        <v>29.4008</v>
+      </c>
+      <c r="H53">
+        <f>G53*E53</f>
+        <v>34.012690196078438</v>
+      </c>
+      <c r="I53">
+        <v>399</v>
+      </c>
+      <c r="J53">
+        <v>903.59375</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="3"/>
+        <v>0.49875000000000003</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="4"/>
+        <v>0.75299000000000005</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.49875 * imageHeight, 0.75299* imageWidth]</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.49875 * imageHeight) + 29.4008, (0.75299* imageWidth) + 34.0126901960784]</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.49875 * imageHeight, 0.75299* imageWidth], [(0.49875 * imageHeight) + 29.4008, (0.75299* imageWidth) + 34.0126901960784]]</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>199</v>
+      </c>
+      <c r="B54" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54">
+        <v>66</v>
+      </c>
+      <c r="D54">
+        <v>53</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="6"/>
+        <v>1.2452830188679245</v>
+      </c>
+      <c r="F54">
+        <v>500</v>
+      </c>
+      <c r="G54">
+        <f>ROUND(SQRT(F54/E54), 5)</f>
+        <v>20.037839999999999</v>
+      </c>
+      <c r="H54">
+        <f>G54*E54</f>
+        <v>24.952781886792451</v>
+      </c>
+      <c r="I54">
+        <v>459.5</v>
+      </c>
+      <c r="J54">
+        <v>863.09375</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="3"/>
+        <v>0.57438</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="4"/>
+        <v>0.71923999999999999</v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.57438 * imageHeight, 0.71924* imageWidth]</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.57438 * imageHeight) + 20.03784, (0.71924* imageWidth) + 24.9527818867925]</v>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.57438 * imageHeight, 0.71924* imageWidth], [(0.57438 * imageHeight) + 20.03784, (0.71924* imageWidth) + 24.9527818867925]]</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55">
+        <v>30</v>
+      </c>
+      <c r="D55">
+        <v>37</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="6"/>
+        <v>0.81081081081081086</v>
+      </c>
+      <c r="F55">
+        <v>500</v>
+      </c>
+      <c r="G55">
+        <f>ROUND(SQRT(F55/E55), 5)</f>
+        <v>24.83277</v>
+      </c>
+      <c r="H55">
+        <f>G55*E55</f>
+        <v>20.134678378378378</v>
+      </c>
+      <c r="I55">
+        <v>431.5</v>
+      </c>
+      <c r="J55">
+        <v>1000.59375</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="3"/>
+        <v>0.53937999999999997</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="4"/>
+        <v>0.83382999999999996</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.53938 * imageHeight, 0.83383* imageWidth]</v>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.53938 * imageHeight) + 24.83277, (0.83383* imageWidth) + 20.1346783783784]</v>
+      </c>
+      <c r="O55" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.53938 * imageHeight, 0.83383* imageWidth], [(0.53938 * imageHeight) + 24.83277, (0.83383* imageWidth) + 20.1346783783784]]</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>203</v>
+      </c>
+      <c r="B56" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56">
+        <v>96</v>
+      </c>
+      <c r="D56">
+        <v>76</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="6"/>
+        <v>1.263157894736842</v>
+      </c>
+      <c r="F56">
+        <v>1000</v>
+      </c>
+      <c r="G56">
+        <f>ROUND(SQRT(F56/E56), 5)</f>
+        <v>28.136569999999999</v>
+      </c>
+      <c r="H56">
+        <f>G56*E56</f>
+        <v>35.540930526315783</v>
+      </c>
+      <c r="I56">
+        <v>273</v>
+      </c>
+      <c r="J56">
+        <v>578.09375</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="3"/>
+        <v>0.34125</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="4"/>
+        <v>0.48174</v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.34125 * imageHeight, 0.48174* imageWidth]</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.34125 * imageHeight) + 28.13657, (0.48174* imageWidth) + 35.5409305263158]</v>
+      </c>
+      <c r="O56" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.34125 * imageHeight, 0.48174* imageWidth], [(0.34125 * imageHeight) + 28.13657, (0.48174* imageWidth) + 35.5409305263158]]</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" t="s">
+        <v>207</v>
+      </c>
+      <c r="C57">
+        <v>60</v>
+      </c>
+      <c r="D57">
+        <v>71</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="6"/>
+        <v>0.84507042253521125</v>
+      </c>
+      <c r="F57">
+        <v>500</v>
+      </c>
+      <c r="G57">
+        <f>ROUND(SQRT(F57/E57), 5)</f>
+        <v>24.324200000000001</v>
+      </c>
+      <c r="H57">
+        <f>G57*E57</f>
+        <v>20.555661971830986</v>
+      </c>
+      <c r="I57">
+        <v>232</v>
+      </c>
+      <c r="J57">
+        <v>615.1875</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="3"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="4"/>
+        <v>0.51266</v>
+      </c>
+      <c r="M57" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.29 * imageHeight, 0.51266* imageWidth]</v>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.29 * imageHeight) + 24.3242, (0.51266* imageWidth) + 20.555661971831]</v>
+      </c>
+      <c r="O57" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.29 * imageHeight, 0.51266* imageWidth], [(0.29 * imageHeight) + 24.3242, (0.51266* imageWidth) + 20.555661971831]]</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>206</v>
+      </c>
+      <c r="B58" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58">
+        <v>60</v>
+      </c>
+      <c r="D58">
+        <v>71</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="6"/>
+        <v>0.84507042253521125</v>
+      </c>
+      <c r="F58">
+        <v>500</v>
+      </c>
+      <c r="G58">
+        <f>ROUND(SQRT(F58/E58), 5)</f>
+        <v>24.324200000000001</v>
+      </c>
+      <c r="H58">
+        <f>G58*E58</f>
+        <v>20.555661971830986</v>
+      </c>
+      <c r="I58">
+        <v>394</v>
+      </c>
+      <c r="J58">
+        <v>766.1875</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="3"/>
+        <v>0.49249999999999999</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="4"/>
+        <v>0.63849</v>
+      </c>
+      <c r="M58" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.4925 * imageHeight, 0.63849* imageWidth]</v>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.4925 * imageHeight) + 24.3242, (0.63849* imageWidth) + 20.555661971831]</v>
+      </c>
+      <c r="O58" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.4925 * imageHeight, 0.63849* imageWidth], [(0.4925 * imageHeight) + 24.3242, (0.63849* imageWidth) + 20.555661971831]]</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>209</v>
+      </c>
+      <c r="B59" t="s">
+        <v>210</v>
+      </c>
+      <c r="C59">
+        <v>84</v>
+      </c>
+      <c r="D59">
+        <v>84</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1500</v>
+      </c>
+      <c r="G59">
+        <f>ROUND(SQRT(F59/E59), 5)</f>
+        <v>38.72983</v>
+      </c>
+      <c r="H59">
+        <f>G59*E59</f>
+        <v>38.72983</v>
+      </c>
+      <c r="I59">
+        <v>171</v>
+      </c>
+      <c r="J59">
+        <v>913.1875</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="3"/>
+        <v>0.21375</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="4"/>
+        <v>0.76099000000000006</v>
+      </c>
+      <c r="M59" t="str">
+        <f t="shared" si="7"/>
+        <v>[0.21375 * imageHeight, 0.76099* imageWidth]</v>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.21375 * imageHeight) + 38.72983, (0.76099* imageWidth) + 38.72983]</v>
+      </c>
+      <c r="O59" t="str">
+        <f t="shared" si="5"/>
+        <v>[[0.21375 * imageHeight, 0.76099* imageWidth], [(0.21375 * imageHeight) + 38.72983, (0.76099* imageWidth) + 38.72983]]</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/resources/project-resources/pokemon-maps/hoenn/all_coordinates.xlsx
+++ b/resources/project-resources/pokemon-maps/hoenn/all_coordinates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kabir/Project.Environments/Website.Environment/kabirakabira.github.io/resources/project-resources/pokemon-maps/hoenn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD79A91-373A-E34E-9EF5-3A1DDAC4B6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D5765B-813D-8B4C-BD3A-6BE2D149C6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29520" yWindow="3080" windowWidth="10000" windowHeight="16040" firstSheet="1" activeTab="3" xr2:uid="{51E141A1-4224-E742-AC16-550646A95C01}"/>
+    <workbookView xWindow="28400" yWindow="580" windowWidth="10000" windowHeight="18500" firstSheet="1" activeTab="3" xr2:uid="{51E141A1-4224-E742-AC16-550646A95C01}"/>
   </bookViews>
   <sheets>
     <sheet name="circleMarkers" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="215">
   <si>
     <t>Name</t>
   </si>
@@ -678,6 +678,12 @@
   </si>
   <si>
     <t>desired_area</t>
+  </si>
+  <si>
+    <t>Percent_newHeight</t>
+  </si>
+  <si>
+    <t>Percent_newWidth</t>
   </si>
 </sst>
 </file>
@@ -10024,22 +10030,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7208A8BD-5C24-554E-9F3D-BAA31A1471D1}">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="5" width="10.6640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="14" width="10.6640625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="16" width="10.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -10077,16 +10081,22 @@
         <v>115</v>
       </c>
       <c r="M1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O1" t="s">
         <v>167</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>168</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -10107,7 +10117,7 @@
         <v>350</v>
       </c>
       <c r="G2">
-        <f>ROUND(SQRT(F2/E2), 5)</f>
+        <f t="shared" ref="G2:G33" si="1">ROUND(SQRT(F2/E2), 5)</f>
         <v>22.38608</v>
       </c>
       <c r="H2">
@@ -10118,7 +10128,7 @@
         <v>231.49480207482799</v>
       </c>
       <c r="J2">
-        <v>205.68055343627901</v>
+        <v>208</v>
       </c>
       <c r="K2">
         <f>ROUND(I2/800, 5)</f>
@@ -10126,22 +10136,30 @@
       </c>
       <c r="L2">
         <f>ROUND(J2/1200, 5)</f>
-        <v>0.1714</v>
-      </c>
-      <c r="M2" t="str">
-        <f t="shared" ref="M2:M33" si="1">_xlfn.CONCAT("[", K2, " * imageHeight", ", ", L2, "* imageWidth", "]")</f>
-        <v>[0.28937 * imageHeight, 0.1714* imageWidth]</v>
-      </c>
-      <c r="N2" t="str">
-        <f t="shared" ref="N2:N33" si="2">_xlfn.CONCAT("[(", K2, " * imageHeight)", " + ",  G2, ", (", L2, "* imageWidth)", " + ", H2, "]" )</f>
-        <v>[(0.28937 * imageHeight) + 22.38608, (0.1714* imageWidth) + 15.63472]</v>
+        <v>0.17333000000000001</v>
+      </c>
+      <c r="M2">
+        <f>G2/800</f>
+        <v>2.79826E-2</v>
+      </c>
+      <c r="N2">
+        <f>H2/1200</f>
+        <v>1.3028933333333333E-2</v>
       </c>
       <c r="O2" t="str">
-        <f>_xlfn.CONCAT("[", M2, ", ", N2, "]")</f>
-        <v>[[0.28937 * imageHeight, 0.1714* imageWidth], [(0.28937 * imageHeight) + 22.38608, (0.1714* imageWidth) + 15.63472]]</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ref="O2:O33" si="2">_xlfn.CONCAT("[", K2, " * imageHeight", ", ", L2, "* imageWidth", "]")</f>
+        <v>[0.28937 * imageHeight, 0.17333* imageWidth]</v>
+      </c>
+      <c r="P2" t="str">
+        <f>_xlfn.CONCAT("[(", K2, " * imageHeight)", " +  (",  M2, "* imageHeight)", ", ",  "(", L2, "* imageWidth)", " + (", N2, "* imageWidth)", "]")</f>
+        <v>[(0.28937 * imageHeight) +  (0.0279826* imageHeight), (0.17333* imageWidth) + (0.0130289333333333* imageWidth)]</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>_xlfn.CONCAT("[", O2, ", ", P2, "]")</f>
+        <v>[[0.28937 * imageHeight, 0.17333* imageWidth], [(0.28937 * imageHeight) +  (0.0279826* imageHeight), (0.17333* imageWidth) + (0.0130289333333333* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -10162,12 +10180,12 @@
         <v>350</v>
       </c>
       <c r="G3">
-        <f>ROUND(SQRT(F3/E3), 5)</f>
+        <f t="shared" si="1"/>
         <v>21.760729999999999</v>
       </c>
       <c r="H3">
-        <f>G3*E3</f>
-        <v>16.084017826086953</v>
+        <f t="shared" ref="H3:H59" si="3">ROUND(G3*E3, 5)</f>
+        <v>16.084019999999999</v>
       </c>
       <c r="I3">
         <v>199.744804497161</v>
@@ -10176,27 +10194,35 @@
         <v>226.18055343627901</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K59" si="3">ROUND(I3/800, 5)</f>
+        <f t="shared" ref="K3:K59" si="4">ROUND(I3/800, 5)</f>
         <v>0.24968000000000001</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L59" si="4">ROUND(J3/1200, 5)</f>
+        <f t="shared" ref="L3:L59" si="5">ROUND(J3/1200, 5)</f>
         <v>0.18848000000000001</v>
       </c>
-      <c r="M3" t="str">
-        <f t="shared" si="1"/>
+      <c r="M3">
+        <f t="shared" ref="M3:M59" si="6">G3/800</f>
+        <v>2.7200912499999997E-2</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N59" si="7">H3/1200</f>
+        <v>1.340335E-2</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" si="2"/>
         <v>[0.24968 * imageHeight, 0.18848* imageWidth]</v>
       </c>
-      <c r="N3" t="str">
-        <f t="shared" si="2"/>
-        <v>[(0.24968 * imageHeight) + 21.76073, (0.18848* imageWidth) + 16.084017826087]</v>
-      </c>
-      <c r="O3" t="str">
-        <f t="shared" ref="O3:O59" si="5">_xlfn.CONCAT("[", M3, ", ", N3, "]")</f>
-        <v>[[0.24968 * imageHeight, 0.18848* imageWidth], [(0.24968 * imageHeight) + 21.76073, (0.18848* imageWidth) + 16.084017826087]]</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P59" si="8">_xlfn.CONCAT("[(", K3, " * imageHeight)", " +  (",  M3, "* imageHeight)", ", ",  "(", L3, "* imageWidth)", " + (", N3, "* imageWidth)", "]")</f>
+        <v>[(0.24968 * imageHeight) +  (0.0272009125* imageHeight), (0.18848* imageWidth) + (0.01340335* imageWidth)]</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q59" si="9">_xlfn.CONCAT("[", O3, ", ", P3, "]")</f>
+        <v>[[0.24968 * imageHeight, 0.18848* imageWidth], [(0.24968 * imageHeight) +  (0.0272009125* imageHeight), (0.18848* imageWidth) + (0.01340335* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -10217,12 +10243,12 @@
         <v>350</v>
       </c>
       <c r="G4">
-        <f>ROUND(SQRT(F4/E4), 5)</f>
+        <f t="shared" si="1"/>
         <v>19.742660000000001</v>
       </c>
       <c r="H4">
-        <f>G4*E4</f>
-        <v>17.728102857142858</v>
+        <f t="shared" si="3"/>
+        <v>17.728100000000001</v>
       </c>
       <c r="I4">
         <v>227.744802360931</v>
@@ -10231,27 +10257,35 @@
         <v>256.43055343627901</v>
       </c>
       <c r="K4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.28467999999999999</v>
       </c>
       <c r="L4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21368999999999999</v>
       </c>
-      <c r="M4" t="str">
-        <f t="shared" si="1"/>
+      <c r="M4">
+        <f t="shared" si="6"/>
+        <v>2.4678325000000001E-2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="7"/>
+        <v>1.4773416666666667E-2</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="2"/>
         <v>[0.28468 * imageHeight, 0.21369* imageWidth]</v>
       </c>
-      <c r="N4" t="str">
-        <f t="shared" si="2"/>
-        <v>[(0.28468 * imageHeight) + 19.74266, (0.21369* imageWidth) + 17.7281028571429]</v>
-      </c>
-      <c r="O4" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.28468 * imageHeight, 0.21369* imageWidth], [(0.28468 * imageHeight) + 19.74266, (0.21369* imageWidth) + 17.7281028571429]]</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.28468 * imageHeight) +  (0.024678325* imageHeight), (0.21369* imageWidth) + (0.0147734166666667* imageWidth)]</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.28468 * imageHeight, 0.21369* imageWidth], [(0.28468 * imageHeight) +  (0.024678325* imageHeight), (0.21369* imageWidth) + (0.0147734166666667* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -10272,12 +10306,12 @@
         <v>1000</v>
       </c>
       <c r="G5">
-        <f>ROUND(SQRT(F5/E5), 5)</f>
+        <f t="shared" si="1"/>
         <v>29.695419999999999</v>
       </c>
       <c r="H5">
-        <f>G5*E5</f>
-        <v>33.675218556701026</v>
+        <f t="shared" si="3"/>
+        <v>33.675220000000003</v>
       </c>
       <c r="I5">
         <v>340</v>
@@ -10286,27 +10320,35 @@
         <v>882</v>
       </c>
       <c r="K5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.42499999999999999</v>
       </c>
       <c r="L5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.73499999999999999</v>
       </c>
-      <c r="M5" t="str">
-        <f t="shared" si="1"/>
+      <c r="M5">
+        <f t="shared" si="6"/>
+        <v>3.7119275E-2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="7"/>
+        <v>2.8062683333333335E-2</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="2"/>
         <v>[0.425 * imageHeight, 0.735* imageWidth]</v>
       </c>
-      <c r="N5" t="str">
-        <f t="shared" si="2"/>
-        <v>[(0.425 * imageHeight) + 29.69542, (0.735* imageWidth) + 33.675218556701]</v>
-      </c>
-      <c r="O5" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.425 * imageHeight, 0.735* imageWidth], [(0.425 * imageHeight) + 29.69542, (0.735* imageWidth) + 33.675218556701]]</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.425 * imageHeight) +  (0.037119275* imageHeight), (0.735* imageWidth) + (0.0280626833333333* imageWidth)]</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.425 * imageHeight, 0.735* imageWidth], [(0.425 * imageHeight) +  (0.037119275* imageHeight), (0.735* imageWidth) + (0.0280626833333333* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -10327,12 +10369,12 @@
         <v>600</v>
       </c>
       <c r="G6">
-        <f>ROUND(SQRT(F6/E6), 5)</f>
+        <f t="shared" si="1"/>
         <v>23.033159999999999</v>
       </c>
       <c r="H6">
-        <f>G6*E6</f>
-        <v>26.049407142857142</v>
+        <f t="shared" si="3"/>
+        <v>26.049410000000002</v>
       </c>
       <c r="I6">
         <v>110.49479879418899</v>
@@ -10341,27 +10383,35 @@
         <v>507.68055343627901</v>
       </c>
       <c r="K6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13811999999999999</v>
       </c>
       <c r="L6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.42307</v>
       </c>
-      <c r="M6" t="str">
-        <f t="shared" si="1"/>
+      <c r="M6">
+        <f t="shared" si="6"/>
+        <v>2.879145E-2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="7"/>
+        <v>2.1707841666666668E-2</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="2"/>
         <v>[0.13812 * imageHeight, 0.42307* imageWidth]</v>
       </c>
-      <c r="N6" t="str">
-        <f t="shared" si="2"/>
-        <v>[(0.13812 * imageHeight) + 23.03316, (0.42307* imageWidth) + 26.0494071428571]</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.13812 * imageHeight, 0.42307* imageWidth], [(0.13812 * imageHeight) + 23.03316, (0.42307* imageWidth) + 26.0494071428571]]</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.13812 * imageHeight) +  (0.02879145* imageHeight), (0.42307* imageWidth) + (0.0217078416666667* imageWidth)]</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.13812 * imageHeight, 0.42307* imageWidth], [(0.13812 * imageHeight) +  (0.02879145* imageHeight), (0.42307* imageWidth) + (0.0217078416666667* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -10382,12 +10432,12 @@
         <v>600</v>
       </c>
       <c r="G7">
-        <f>ROUND(SQRT(F7/E7), 5)</f>
+        <f t="shared" si="1"/>
         <v>20.478159999999999</v>
       </c>
       <c r="H7">
-        <f>G7*E7</f>
-        <v>29.29952123076923</v>
+        <f t="shared" si="3"/>
+        <v>29.299520000000001</v>
       </c>
       <c r="I7">
         <v>90</v>
@@ -10396,27 +10446,35 @@
         <v>570</v>
       </c>
       <c r="K7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1125</v>
       </c>
       <c r="L7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.47499999999999998</v>
       </c>
-      <c r="M7" t="str">
-        <f t="shared" si="1"/>
+      <c r="M7">
+        <f t="shared" si="6"/>
+        <v>2.5597699999999998E-2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="7"/>
+        <v>2.4416266666666669E-2</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="2"/>
         <v>[0.1125 * imageHeight, 0.475* imageWidth]</v>
       </c>
-      <c r="N7" t="str">
-        <f t="shared" si="2"/>
-        <v>[(0.1125 * imageHeight) + 20.47816, (0.475* imageWidth) + 29.2995212307692]</v>
-      </c>
-      <c r="O7" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.1125 * imageHeight, 0.475* imageWidth], [(0.1125 * imageHeight) + 20.47816, (0.475* imageWidth) + 29.2995212307692]]</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.1125 * imageHeight) +  (0.0255977* imageHeight), (0.475* imageWidth) + (0.0244162666666667* imageWidth)]</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.1125 * imageHeight, 0.475* imageWidth], [(0.1125 * imageHeight) +  (0.0255977* imageHeight), (0.475* imageWidth) + (0.0244162666666667* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -10437,12 +10495,12 @@
         <v>350</v>
       </c>
       <c r="G8">
-        <f>ROUND(SQRT(F8/E8), 5)</f>
+        <f t="shared" si="1"/>
         <v>15.687379999999999</v>
       </c>
       <c r="H8">
-        <f>G8*E8</f>
-        <v>22.310940444444444</v>
+        <f t="shared" si="3"/>
+        <v>22.310939999999999</v>
       </c>
       <c r="I8">
         <v>267.49739830990598</v>
@@ -10451,27 +10509,35 @@
         <v>85.618055343627901</v>
       </c>
       <c r="K8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.33437</v>
       </c>
       <c r="L8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.1349999999999997E-2</v>
       </c>
-      <c r="M8" t="str">
-        <f t="shared" si="1"/>
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>1.9609224999999997E-2</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="7"/>
+        <v>1.859245E-2</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="2"/>
         <v>[0.33437 * imageHeight, 0.07135* imageWidth]</v>
       </c>
-      <c r="N8" t="str">
-        <f t="shared" si="2"/>
-        <v>[(0.33437 * imageHeight) + 15.68738, (0.07135* imageWidth) + 22.3109404444444]</v>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.33437 * imageHeight, 0.07135* imageWidth], [(0.33437 * imageHeight) + 15.68738, (0.07135* imageWidth) + 22.3109404444444]]</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.33437 * imageHeight) +  (0.019609225* imageHeight), (0.07135* imageWidth) + (0.01859245* imageWidth)]</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.33437 * imageHeight, 0.07135* imageWidth], [(0.33437 * imageHeight) +  (0.019609225* imageHeight), (0.07135* imageWidth) + (0.01859245* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -10485,19 +10551,19 @@
         <v>45</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:E59" si="6">C9/D9</f>
+        <f t="shared" ref="E9:E59" si="10">C9/D9</f>
         <v>1.4222222222222223</v>
       </c>
       <c r="F9">
         <v>350</v>
       </c>
       <c r="G9">
-        <f>ROUND(SQRT(F9/E9), 5)</f>
+        <f t="shared" si="1"/>
         <v>15.687379999999999</v>
       </c>
       <c r="H9">
-        <f>G9*E9</f>
-        <v>22.310940444444444</v>
+        <f t="shared" si="3"/>
+        <v>22.310939999999999</v>
       </c>
       <c r="I9">
         <v>219.122402143676</v>
@@ -10506,27 +10572,35 @@
         <v>397.99305534362702</v>
       </c>
       <c r="K9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.27389999999999998</v>
       </c>
       <c r="L9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.33166000000000001</v>
       </c>
-      <c r="M9" t="str">
-        <f t="shared" si="1"/>
+      <c r="M9">
+        <f t="shared" si="6"/>
+        <v>1.9609224999999997E-2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="7"/>
+        <v>1.859245E-2</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="2"/>
         <v>[0.2739 * imageHeight, 0.33166* imageWidth]</v>
       </c>
-      <c r="N9" t="str">
-        <f t="shared" si="2"/>
-        <v>[(0.2739 * imageHeight) + 15.68738, (0.33166* imageWidth) + 22.3109404444444]</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.2739 * imageHeight, 0.33166* imageWidth], [(0.2739 * imageHeight) + 15.68738, (0.33166* imageWidth) + 22.3109404444444]]</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.2739 * imageHeight) +  (0.019609225* imageHeight), (0.33166* imageWidth) + (0.01859245* imageWidth)]</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.2739 * imageHeight, 0.33166* imageWidth], [(0.2739 * imageHeight) +  (0.019609225* imageHeight), (0.33166* imageWidth) + (0.01859245* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -10540,19 +10614,19 @@
         <v>45</v>
       </c>
       <c r="E10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.4222222222222223</v>
       </c>
       <c r="F10">
         <v>350</v>
       </c>
       <c r="G10">
-        <f>ROUND(SQRT(F10/E10), 5)</f>
+        <f t="shared" si="1"/>
         <v>15.687379999999999</v>
       </c>
       <c r="H10">
-        <f>G10*E10</f>
-        <v>22.310940444444444</v>
+        <f t="shared" si="3"/>
+        <v>22.310939999999999</v>
       </c>
       <c r="I10">
         <v>572.99480882684202</v>
@@ -10561,27 +10635,35 @@
         <v>868.98611068725495</v>
       </c>
       <c r="K10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.71623999999999999</v>
       </c>
       <c r="L10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.72416000000000003</v>
       </c>
-      <c r="M10" t="str">
-        <f t="shared" si="1"/>
+      <c r="M10">
+        <f t="shared" si="6"/>
+        <v>1.9609224999999997E-2</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="7"/>
+        <v>1.859245E-2</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="2"/>
         <v>[0.71624 * imageHeight, 0.72416* imageWidth]</v>
       </c>
-      <c r="N10" t="str">
-        <f t="shared" si="2"/>
-        <v>[(0.71624 * imageHeight) + 15.68738, (0.72416* imageWidth) + 22.3109404444444]</v>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.71624 * imageHeight, 0.72416* imageWidth], [(0.71624 * imageHeight) + 15.68738, (0.72416* imageWidth) + 22.3109404444444]]</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.71624 * imageHeight) +  (0.019609225* imageHeight), (0.72416* imageWidth) + (0.01859245* imageWidth)]</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.71624 * imageHeight, 0.72416* imageWidth], [(0.71624 * imageHeight) +  (0.019609225* imageHeight), (0.72416* imageWidth) + (0.01859245* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -10595,19 +10677,19 @@
         <v>45</v>
       </c>
       <c r="E11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.4222222222222223</v>
       </c>
       <c r="F11">
         <v>350</v>
       </c>
       <c r="G11">
-        <f>ROUND(SQRT(F11/E11), 5)</f>
+        <f t="shared" si="1"/>
         <v>15.687379999999999</v>
       </c>
       <c r="H11">
-        <f>G11*E11</f>
-        <v>22.310940444444444</v>
+        <f t="shared" si="3"/>
+        <v>22.310939999999999</v>
       </c>
       <c r="I11">
         <v>322.24481142083602</v>
@@ -10616,27 +10698,35 @@
         <v>753.98611068725495</v>
       </c>
       <c r="K11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.40281</v>
       </c>
       <c r="L11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.62831999999999999</v>
       </c>
-      <c r="M11" t="str">
-        <f t="shared" si="1"/>
+      <c r="M11">
+        <f t="shared" si="6"/>
+        <v>1.9609224999999997E-2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="7"/>
+        <v>1.859245E-2</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="2"/>
         <v>[0.40281 * imageHeight, 0.62832* imageWidth]</v>
       </c>
-      <c r="N11" t="str">
-        <f t="shared" si="2"/>
-        <v>[(0.40281 * imageHeight) + 15.68738, (0.62832* imageWidth) + 22.3109404444444]</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.40281 * imageHeight, 0.62832* imageWidth], [(0.40281 * imageHeight) + 15.68738, (0.62832* imageWidth) + 22.3109404444444]]</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.40281 * imageHeight) +  (0.019609225* imageHeight), (0.62832* imageWidth) + (0.01859245* imageWidth)]</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.40281 * imageHeight, 0.62832* imageWidth], [(0.40281 * imageHeight) +  (0.019609225* imageHeight), (0.62832* imageWidth) + (0.01859245* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -10650,19 +10740,19 @@
         <v>45</v>
       </c>
       <c r="E12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.4222222222222223</v>
       </c>
       <c r="F12">
         <v>350</v>
       </c>
       <c r="G12">
-        <f>ROUND(SQRT(F12/E12), 5)</f>
+        <f t="shared" si="1"/>
         <v>15.687379999999999</v>
       </c>
       <c r="H12">
-        <f>G12*E12</f>
-        <v>22.310940444444444</v>
+        <f t="shared" si="3"/>
+        <v>22.310939999999999</v>
       </c>
       <c r="I12">
         <v>380.99481794396797</v>
@@ -10671,27 +10761,35 @@
         <v>1047.9861106872499</v>
       </c>
       <c r="K12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.47624</v>
       </c>
       <c r="L12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.87331999999999999</v>
       </c>
-      <c r="M12" t="str">
-        <f t="shared" si="1"/>
+      <c r="M12">
+        <f t="shared" si="6"/>
+        <v>1.9609224999999997E-2</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="7"/>
+        <v>1.859245E-2</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="2"/>
         <v>[0.47624 * imageHeight, 0.87332* imageWidth]</v>
       </c>
-      <c r="N12" t="str">
-        <f t="shared" si="2"/>
-        <v>[(0.47624 * imageHeight) + 15.68738, (0.87332* imageWidth) + 22.3109404444444]</v>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.47624 * imageHeight, 0.87332* imageWidth], [(0.47624 * imageHeight) + 15.68738, (0.87332* imageWidth) + 22.3109404444444]]</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.47624 * imageHeight) +  (0.019609225* imageHeight), (0.87332* imageWidth) + (0.01859245* imageWidth)]</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.47624 * imageHeight, 0.87332* imageWidth], [(0.47624 * imageHeight) +  (0.019609225* imageHeight), (0.87332* imageWidth) + (0.01859245* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -10705,19 +10803,19 @@
         <v>45</v>
       </c>
       <c r="E13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.4222222222222223</v>
       </c>
       <c r="F13">
         <v>350</v>
       </c>
       <c r="G13">
-        <f>ROUND(SQRT(F13/E13), 5)</f>
+        <f t="shared" si="1"/>
         <v>15.687379999999999</v>
       </c>
       <c r="H13">
-        <f>G13*E13</f>
-        <v>22.310940444444444</v>
+        <f t="shared" si="3"/>
+        <v>22.310939999999999</v>
       </c>
       <c r="I13">
         <v>561.49481441537296</v>
@@ -10726,27 +10824,35 @@
         <v>81.486110687255803</v>
       </c>
       <c r="K13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.70186999999999999</v>
       </c>
       <c r="L13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.7909999999999998E-2</v>
       </c>
-      <c r="M13" t="str">
-        <f t="shared" si="1"/>
+      <c r="M13">
+        <f t="shared" si="6"/>
+        <v>1.9609224999999997E-2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="7"/>
+        <v>1.859245E-2</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="2"/>
         <v>[0.70187 * imageHeight, 0.06791* imageWidth]</v>
       </c>
-      <c r="N13" t="str">
-        <f t="shared" si="2"/>
-        <v>[(0.70187 * imageHeight) + 15.68738, (0.06791* imageWidth) + 22.3109404444444]</v>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.70187 * imageHeight, 0.06791* imageWidth], [(0.70187 * imageHeight) + 15.68738, (0.06791* imageWidth) + 22.3109404444444]]</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.70187 * imageHeight) +  (0.019609225* imageHeight), (0.06791* imageWidth) + (0.01859245* imageWidth)]</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.70187 * imageHeight, 0.06791* imageWidth], [(0.70187 * imageHeight) +  (0.019609225* imageHeight), (0.06791* imageWidth) + (0.01859245* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -10760,19 +10866,19 @@
         <v>45</v>
       </c>
       <c r="E14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.1333333333333333</v>
       </c>
       <c r="F14">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="G14">
-        <f>ROUND(SQRT(F14/E14), 5)</f>
-        <v>21.004200000000001</v>
+        <f t="shared" si="1"/>
+        <v>17.57338</v>
       </c>
       <c r="H14">
-        <f>G14*E14</f>
-        <v>23.804760000000002</v>
+        <f t="shared" si="3"/>
+        <v>19.916499999999999</v>
       </c>
       <c r="I14">
         <v>535.744797802368</v>
@@ -10781,27 +10887,35 @@
         <v>689.73611068725495</v>
       </c>
       <c r="K14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.66968000000000005</v>
       </c>
       <c r="L14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.57477999999999996</v>
       </c>
-      <c r="M14" t="str">
-        <f t="shared" si="1"/>
+      <c r="M14">
+        <f t="shared" si="6"/>
+        <v>2.1966724999999999E-2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="7"/>
+        <v>1.6597083333333332E-2</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="2"/>
         <v>[0.66968 * imageHeight, 0.57478* imageWidth]</v>
       </c>
-      <c r="N14" t="str">
-        <f t="shared" si="2"/>
-        <v>[(0.66968 * imageHeight) + 21.0042, (0.57478* imageWidth) + 23.80476]</v>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.66968 * imageHeight, 0.57478* imageWidth], [(0.66968 * imageHeight) + 21.0042, (0.57478* imageWidth) + 23.80476]]</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.66968 * imageHeight) +  (0.021966725* imageHeight), (0.57478* imageWidth) + (0.0165970833333333* imageWidth)]</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.66968 * imageHeight, 0.57478* imageWidth], [(0.66968 * imageHeight) +  (0.021966725* imageHeight), (0.57478* imageWidth) + (0.0165970833333333* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>134</v>
       </c>
@@ -10815,19 +10929,19 @@
         <v>58</v>
       </c>
       <c r="E15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.67241379310344829</v>
       </c>
       <c r="F15">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="G15">
-        <f>ROUND(SQRT(F15/E15), 5)</f>
-        <v>27.268840000000001</v>
+        <f t="shared" si="1"/>
+        <v>22.81475</v>
       </c>
       <c r="H15">
-        <f>G15*E15</f>
-        <v>18.335944137931037</v>
+        <f t="shared" si="3"/>
+        <v>15.340949999999999</v>
       </c>
       <c r="I15">
         <v>564.494795608917</v>
@@ -10836,27 +10950,35 @@
         <v>744.98611068725495</v>
       </c>
       <c r="K15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.70562000000000002</v>
       </c>
       <c r="L15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.62082000000000004</v>
       </c>
-      <c r="M15" t="str">
-        <f t="shared" si="1"/>
+      <c r="M15">
+        <f t="shared" si="6"/>
+        <v>2.85184375E-2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="7"/>
+        <v>1.2784125E-2</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="2"/>
         <v>[0.70562 * imageHeight, 0.62082* imageWidth]</v>
       </c>
-      <c r="N15" t="str">
-        <f t="shared" si="2"/>
-        <v>[(0.70562 * imageHeight) + 27.26884, (0.62082* imageWidth) + 18.335944137931]</v>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.70562 * imageHeight, 0.62082* imageWidth], [(0.70562 * imageHeight) + 27.26884, (0.62082* imageWidth) + 18.335944137931]]</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.70562 * imageHeight) +  (0.0285184375* imageHeight), (0.62082* imageWidth) + (0.012784125* imageWidth)]</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.70562 * imageHeight, 0.62082* imageWidth], [(0.70562 * imageHeight) +  (0.0285184375* imageHeight), (0.62082* imageWidth) + (0.012784125* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -10870,48 +10992,56 @@
         <v>65</v>
       </c>
       <c r="E16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.98461538461538467</v>
       </c>
       <c r="F16">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G16">
-        <f>ROUND(SQRT(F16/E16), 5)</f>
-        <v>31.868870000000001</v>
+        <f t="shared" si="1"/>
+        <v>22.534700000000001</v>
       </c>
       <c r="H16">
-        <f>G16*E16</f>
-        <v>31.378579692307696</v>
+        <f t="shared" si="3"/>
+        <v>22.188009999999998</v>
       </c>
       <c r="I16">
         <v>662.24479082147195</v>
       </c>
       <c r="J16">
-        <v>235.98611068725501</v>
+        <v>250</v>
       </c>
       <c r="K16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.82781000000000005</v>
       </c>
       <c r="L16">
-        <f t="shared" si="4"/>
-        <v>0.19666</v>
-      </c>
-      <c r="M16" t="str">
-        <f t="shared" si="1"/>
-        <v>[0.82781 * imageHeight, 0.19666* imageWidth]</v>
-      </c>
-      <c r="N16" t="str">
+        <f t="shared" si="5"/>
+        <v>0.20832999999999999</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="6"/>
+        <v>2.8168375000000002E-2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="7"/>
+        <v>1.8490008333333332E-2</v>
+      </c>
+      <c r="O16" t="str">
         <f t="shared" si="2"/>
-        <v>[(0.82781 * imageHeight) + 31.86887, (0.19666* imageWidth) + 31.3785796923077]</v>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.82781 * imageHeight, 0.19666* imageWidth], [(0.82781 * imageHeight) + 31.86887, (0.19666* imageWidth) + 31.3785796923077]]</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+        <v>[0.82781 * imageHeight, 0.20833* imageWidth]</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.82781 * imageHeight) +  (0.028168375* imageHeight), (0.20833* imageWidth) + (0.0184900083333333* imageWidth)]</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.82781 * imageHeight, 0.20833* imageWidth], [(0.82781 * imageHeight) +  (0.028168375* imageHeight), (0.20833* imageWidth) + (0.0184900083333333* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>138</v>
       </c>
@@ -10925,48 +11055,56 @@
         <v>54</v>
       </c>
       <c r="E17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.81481481481481477</v>
       </c>
       <c r="F17">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="G17">
-        <f>ROUND(SQRT(F17/E17), 5)</f>
-        <v>24.77168</v>
+        <f t="shared" si="1"/>
+        <v>20.725480000000001</v>
       </c>
       <c r="H17">
-        <f>G17*E17</f>
-        <v>20.184331851851852</v>
+        <f t="shared" si="3"/>
+        <v>16.887429999999998</v>
       </c>
       <c r="I17">
         <v>659.99479099313396</v>
       </c>
       <c r="J17">
-        <v>197.48611068725501</v>
+        <v>195</v>
       </c>
       <c r="K17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.82499</v>
       </c>
       <c r="L17">
-        <f t="shared" si="4"/>
-        <v>0.16456999999999999</v>
-      </c>
-      <c r="M17" t="str">
-        <f t="shared" si="1"/>
-        <v>[0.82499 * imageHeight, 0.16457* imageWidth]</v>
-      </c>
-      <c r="N17" t="str">
+        <f t="shared" si="5"/>
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="6"/>
+        <v>2.5906850000000002E-2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="7"/>
+        <v>1.4072858333333332E-2</v>
+      </c>
+      <c r="O17" t="str">
         <f t="shared" si="2"/>
-        <v>[(0.82499 * imageHeight) + 24.77168, (0.16457* imageWidth) + 20.1843318518519]</v>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.82499 * imageHeight, 0.16457* imageWidth], [(0.82499 * imageHeight) + 24.77168, (0.16457* imageWidth) + 20.1843318518519]]</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+        <v>[0.82499 * imageHeight, 0.1625* imageWidth]</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.82499 * imageHeight) +  (0.02590685* imageHeight), (0.1625* imageWidth) + (0.0140728583333333* imageWidth)]</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.82499 * imageHeight, 0.1625* imageWidth], [(0.82499 * imageHeight) +  (0.02590685* imageHeight), (0.1625* imageWidth) + (0.0140728583333333* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>139</v>
       </c>
@@ -10980,48 +11118,56 @@
         <v>54</v>
       </c>
       <c r="E18">
+        <f t="shared" si="10"/>
+        <v>1.0740740740740742</v>
+      </c>
+      <c r="F18">
+        <v>200</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>13.645759999999999</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>14.656560000000001</v>
+      </c>
+      <c r="I18">
+        <v>360</v>
+      </c>
+      <c r="J18">
+        <v>268</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>0.45</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="5"/>
+        <v>0.22333</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="6"/>
-        <v>1.0740740740740742</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <f>ROUND(SQRT(F18/E18), 5)</f>
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <f>G18*E18</f>
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>380.12240332623202</v>
-      </c>
-      <c r="J18">
-        <v>271.36805534362702</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="3"/>
-        <v>0.47515000000000002</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="4"/>
-        <v>0.22614000000000001</v>
-      </c>
-      <c r="M18" t="str">
-        <f t="shared" si="1"/>
-        <v>[0.47515 * imageHeight, 0.22614* imageWidth]</v>
-      </c>
-      <c r="N18" t="str">
+        <v>1.7057199999999998E-2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="7"/>
+        <v>1.22138E-2</v>
+      </c>
+      <c r="O18" t="str">
         <f t="shared" si="2"/>
-        <v>[(0.47515 * imageHeight) + 0, (0.22614* imageWidth) + 0]</v>
-      </c>
-      <c r="O18" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.47515 * imageHeight, 0.22614* imageWidth], [(0.47515 * imageHeight) + 0, (0.22614* imageWidth) + 0]]</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+        <v>[0.45 * imageHeight, 0.22333* imageWidth]</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.45 * imageHeight) +  (0.0170572* imageHeight), (0.22333* imageWidth) + (0.0122138* imageWidth)]</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.45 * imageHeight, 0.22333* imageWidth], [(0.45 * imageHeight) +  (0.0170572* imageHeight), (0.22333* imageWidth) + (0.0122138* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>140</v>
       </c>
@@ -11035,48 +11181,56 @@
         <v>54</v>
       </c>
       <c r="E19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.0740740740740742</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G19">
-        <f>ROUND(SQRT(F19/E19), 5)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>13.645759999999999</v>
       </c>
       <c r="H19">
-        <f>G19*E19</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>14.656560000000001</v>
       </c>
       <c r="I19">
-        <v>460.49480230371</v>
+        <v>462</v>
       </c>
       <c r="J19">
         <v>437.98611068725501</v>
       </c>
       <c r="K19">
-        <f t="shared" si="3"/>
-        <v>0.57562000000000002</v>
+        <f t="shared" si="4"/>
+        <v>0.57750000000000001</v>
       </c>
       <c r="L19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.36498999999999998</v>
       </c>
-      <c r="M19" t="str">
-        <f t="shared" si="1"/>
-        <v>[0.57562 * imageHeight, 0.36499* imageWidth]</v>
-      </c>
-      <c r="N19" t="str">
+      <c r="M19">
+        <f t="shared" si="6"/>
+        <v>1.7057199999999998E-2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="7"/>
+        <v>1.22138E-2</v>
+      </c>
+      <c r="O19" t="str">
         <f t="shared" si="2"/>
-        <v>[(0.57562 * imageHeight) + 0, (0.36499* imageWidth) + 0]</v>
-      </c>
-      <c r="O19" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.57562 * imageHeight, 0.36499* imageWidth], [(0.57562 * imageHeight) + 0, (0.36499* imageWidth) + 0]]</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+        <v>[0.5775 * imageHeight, 0.36499* imageWidth]</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.5775 * imageHeight) +  (0.0170572* imageHeight), (0.36499* imageWidth) + (0.0122138* imageWidth)]</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.5775 * imageHeight, 0.36499* imageWidth], [(0.5775 * imageHeight) +  (0.0170572* imageHeight), (0.36499* imageWidth) + (0.0122138* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>143</v>
       </c>
@@ -11090,19 +11244,19 @@
         <v>72</v>
       </c>
       <c r="E20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="G20">
-        <f>ROUND(SQRT(F20/E20), 5)</f>
-        <v>31.622779999999999</v>
+        <f t="shared" si="1"/>
+        <v>24.494900000000001</v>
       </c>
       <c r="H20">
-        <f>G20*E20</f>
-        <v>31.622779999999999</v>
+        <f t="shared" si="3"/>
+        <v>24.494900000000001</v>
       </c>
       <c r="I20">
         <v>247.489602814514</v>
@@ -11111,27 +11265,35 @@
         <v>1000.47222137451</v>
       </c>
       <c r="K20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.30936000000000002</v>
       </c>
       <c r="L20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.83372999999999997</v>
       </c>
-      <c r="M20" t="str">
-        <f t="shared" si="1"/>
+      <c r="M20">
+        <f t="shared" si="6"/>
+        <v>3.0618625E-2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="7"/>
+        <v>2.0412416666666669E-2</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="2"/>
         <v>[0.30936 * imageHeight, 0.83373* imageWidth]</v>
       </c>
-      <c r="N20" t="str">
-        <f t="shared" si="2"/>
-        <v>[(0.30936 * imageHeight) + 31.62278, (0.83373* imageWidth) + 31.62278]</v>
-      </c>
-      <c r="O20" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.30936 * imageHeight, 0.83373* imageWidth], [(0.30936 * imageHeight) + 31.62278, (0.83373* imageWidth) + 31.62278]]</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.30936 * imageHeight) +  (0.030618625* imageHeight), (0.83373* imageWidth) + (0.0204124166666667* imageWidth)]</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.30936 * imageHeight, 0.83373* imageWidth], [(0.30936 * imageHeight) +  (0.030618625* imageHeight), (0.83373* imageWidth) + (0.0204124166666667* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>145</v>
       </c>
@@ -11145,19 +11307,19 @@
         <v>41</v>
       </c>
       <c r="E21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.4390243902439024</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G21">
-        <f>ROUND(SQRT(F21/E21), 5)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>11.789110000000001</v>
       </c>
       <c r="H21">
-        <f>G21*E21</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>16.96482</v>
       </c>
       <c r="I21">
         <v>666.93923969732305</v>
@@ -11166,27 +11328,35 @@
         <v>399.48611068725501</v>
       </c>
       <c r="K21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.83367000000000002</v>
       </c>
       <c r="L21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.33290999999999998</v>
       </c>
-      <c r="M21" t="str">
-        <f t="shared" si="1"/>
+      <c r="M21">
+        <f t="shared" si="6"/>
+        <v>1.4736387500000002E-2</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="7"/>
+        <v>1.413735E-2</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="2"/>
         <v>[0.83367 * imageHeight, 0.33291* imageWidth]</v>
       </c>
-      <c r="N21" t="str">
-        <f t="shared" si="2"/>
-        <v>[(0.83367 * imageHeight) + 0, (0.33291* imageWidth) + 0]</v>
-      </c>
-      <c r="O21" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.83367 * imageHeight, 0.33291* imageWidth], [(0.83367 * imageHeight) + 0, (0.33291* imageWidth) + 0]]</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.83367 * imageHeight) +  (0.0147363875* imageHeight), (0.33291* imageWidth) + (0.01413735* imageWidth)]</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.83367 * imageHeight, 0.33291* imageWidth], [(0.83367 * imageHeight) +  (0.0147363875* imageHeight), (0.33291* imageWidth) + (0.01413735* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>147</v>
       </c>
@@ -11200,19 +11370,19 @@
         <v>42</v>
       </c>
       <c r="E22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.95238095238095233</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G22">
-        <f>ROUND(SQRT(F22/E22), 5)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>14.491379999999999</v>
       </c>
       <c r="H22">
-        <f>G22*E22</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>13.801310000000001</v>
       </c>
       <c r="I22">
         <v>624.689242920742</v>
@@ -11221,27 +11391,35 @@
         <v>414.48611068725501</v>
       </c>
       <c r="K22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.78086</v>
       </c>
       <c r="L22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.34540999999999999</v>
       </c>
-      <c r="M22" t="str">
-        <f t="shared" si="1"/>
+      <c r="M22">
+        <f t="shared" si="6"/>
+        <v>1.8114224999999998E-2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="7"/>
+        <v>1.1501091666666668E-2</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="2"/>
         <v>[0.78086 * imageHeight, 0.34541* imageWidth]</v>
       </c>
-      <c r="N22" t="str">
-        <f t="shared" si="2"/>
-        <v>[(0.78086 * imageHeight) + 0, (0.34541* imageWidth) + 0]</v>
-      </c>
-      <c r="O22" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.78086 * imageHeight, 0.34541* imageWidth], [(0.78086 * imageHeight) + 0, (0.34541* imageWidth) + 0]]</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.78086 * imageHeight) +  (0.018114225* imageHeight), (0.34541* imageWidth) + (0.0115010916666667* imageWidth)]</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.78086 * imageHeight, 0.34541* imageWidth], [(0.78086 * imageHeight) +  (0.018114225* imageHeight), (0.34541* imageWidth) + (0.0115010916666667* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>148</v>
       </c>
@@ -11255,19 +11433,19 @@
         <v>63</v>
       </c>
       <c r="E23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.0317460317460319</v>
       </c>
       <c r="F23">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="G23">
-        <f>ROUND(SQRT(F23/E23), 5)</f>
-        <v>31.132470000000001</v>
+        <f t="shared" si="1"/>
+        <v>20.8843</v>
       </c>
       <c r="H23">
-        <f>G23*E23</f>
-        <v>32.120802380952384</v>
+        <f t="shared" si="3"/>
+        <v>21.54729</v>
       </c>
       <c r="I23">
         <v>656.43923769460696</v>
@@ -11276,27 +11454,35 @@
         <v>555.98611068725495</v>
       </c>
       <c r="K23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.82055</v>
       </c>
       <c r="L23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.46332000000000001</v>
       </c>
-      <c r="M23" t="str">
-        <f t="shared" si="1"/>
+      <c r="M23">
+        <f t="shared" si="6"/>
+        <v>2.6105375E-2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="7"/>
+        <v>1.7956075000000002E-2</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="2"/>
         <v>[0.82055 * imageHeight, 0.46332* imageWidth]</v>
       </c>
-      <c r="N23" t="str">
-        <f t="shared" si="2"/>
-        <v>[(0.82055 * imageHeight) + 31.13247, (0.46332* imageWidth) + 32.1208023809524]</v>
-      </c>
-      <c r="O23" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.82055 * imageHeight, 0.46332* imageWidth], [(0.82055 * imageHeight) + 31.13247, (0.46332* imageWidth) + 32.1208023809524]]</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.82055 * imageHeight) +  (0.026105375* imageHeight), (0.46332* imageWidth) + (0.017956075* imageWidth)]</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.82055 * imageHeight, 0.46332* imageWidth], [(0.82055 * imageHeight) +  (0.026105375* imageHeight), (0.46332* imageWidth) + (0.017956075* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>150</v>
       </c>
@@ -11310,19 +11496,19 @@
         <v>50</v>
       </c>
       <c r="E24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.76</v>
       </c>
       <c r="F24">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G24">
-        <f>ROUND(SQRT(F24/E24), 5)</f>
-        <v>25.649460000000001</v>
+        <f t="shared" si="1"/>
+        <v>16.22214</v>
       </c>
       <c r="H24">
-        <f>G24*E24</f>
-        <v>19.4935896</v>
+        <f t="shared" si="3"/>
+        <v>12.32883</v>
       </c>
       <c r="I24">
         <v>662.87848137828905</v>
@@ -11331,27 +11517,35 @@
         <v>639.97222137451104</v>
       </c>
       <c r="K24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8286</v>
       </c>
       <c r="L24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.53330999999999995</v>
       </c>
-      <c r="M24" t="str">
-        <f t="shared" si="1"/>
+      <c r="M24">
+        <f t="shared" si="6"/>
+        <v>2.0277674999999998E-2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="7"/>
+        <v>1.0274024999999999E-2</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="2"/>
         <v>[0.8286 * imageHeight, 0.53331* imageWidth]</v>
       </c>
-      <c r="N24" t="str">
-        <f t="shared" si="2"/>
-        <v>[(0.8286 * imageHeight) + 25.64946, (0.53331* imageWidth) + 19.4935896]</v>
-      </c>
-      <c r="O24" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.8286 * imageHeight, 0.53331* imageWidth], [(0.8286 * imageHeight) + 25.64946, (0.53331* imageWidth) + 19.4935896]]</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.8286 * imageHeight) +  (0.020277675* imageHeight), (0.53331* imageWidth) + (0.010274025* imageWidth)]</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.8286 * imageHeight, 0.53331* imageWidth], [(0.8286 * imageHeight) +  (0.020277675* imageHeight), (0.53331* imageWidth) + (0.010274025* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>152</v>
       </c>
@@ -11365,19 +11559,19 @@
         <v>64</v>
       </c>
       <c r="E25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.140625</v>
       </c>
       <c r="F25">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="G25">
-        <f>ROUND(SQRT(F25/E25), 5)</f>
-        <v>29.60933</v>
+        <f t="shared" si="1"/>
+        <v>19.862539999999999</v>
       </c>
       <c r="H25">
-        <f>G25*E25</f>
-        <v>33.773142031250003</v>
+        <f t="shared" si="3"/>
+        <v>22.655709999999999</v>
       </c>
       <c r="I25">
         <v>591.87848679515901</v>
@@ -11386,27 +11580,35 @@
         <v>620.97222137451104</v>
       </c>
       <c r="K25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.73985000000000001</v>
       </c>
       <c r="L25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.51748000000000005</v>
       </c>
-      <c r="M25" t="str">
-        <f t="shared" si="1"/>
+      <c r="M25">
+        <f t="shared" si="6"/>
+        <v>2.4828174999999997E-2</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="7"/>
+        <v>1.8879758333333333E-2</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="2"/>
         <v>[0.73985 * imageHeight, 0.51748* imageWidth]</v>
       </c>
-      <c r="N25" t="str">
-        <f t="shared" si="2"/>
-        <v>[(0.73985 * imageHeight) + 29.60933, (0.51748* imageWidth) + 33.77314203125]</v>
-      </c>
-      <c r="O25" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.73985 * imageHeight, 0.51748* imageWidth], [(0.73985 * imageHeight) + 29.60933, (0.51748* imageWidth) + 33.77314203125]]</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.73985 * imageHeight) +  (0.024828175* imageHeight), (0.51748* imageWidth) + (0.0188797583333333* imageWidth)]</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.73985 * imageHeight, 0.51748* imageWidth], [(0.73985 * imageHeight) +  (0.024828175* imageHeight), (0.51748* imageWidth) + (0.0188797583333333* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>154</v>
       </c>
@@ -11420,19 +11622,19 @@
         <v>41</v>
       </c>
       <c r="E26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.975609756097561</v>
       </c>
       <c r="F26">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G26">
-        <f>ROUND(SQRT(F26/E26), 5)</f>
-        <v>22.498290000000001</v>
+        <f t="shared" si="1"/>
+        <v>14.22916</v>
       </c>
       <c r="H26">
-        <f>G26*E26</f>
-        <v>44.447841219512199</v>
+        <f t="shared" si="3"/>
+        <v>28.111270000000001</v>
       </c>
       <c r="I26">
         <v>534.18924561010397</v>
@@ -11441,27 +11643,35 @@
         <v>517.23611068725495</v>
       </c>
       <c r="K26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.66774</v>
       </c>
       <c r="L26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.43103000000000002</v>
       </c>
-      <c r="M26" t="str">
-        <f t="shared" si="1"/>
+      <c r="M26">
+        <f t="shared" si="6"/>
+        <v>1.7786449999999999E-2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="7"/>
+        <v>2.3426058333333333E-2</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="2"/>
         <v>[0.66774 * imageHeight, 0.43103* imageWidth]</v>
       </c>
-      <c r="N26" t="str">
-        <f t="shared" si="2"/>
-        <v>[(0.66774 * imageHeight) + 22.49829, (0.43103* imageWidth) + 44.4478412195122]</v>
-      </c>
-      <c r="O26" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.66774 * imageHeight, 0.43103* imageWidth], [(0.66774 * imageHeight) + 22.49829, (0.43103* imageWidth) + 44.4478412195122]]</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P26" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.66774 * imageHeight) +  (0.01778645* imageHeight), (0.43103* imageWidth) + (0.0234260583333333* imageWidth)]</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.66774 * imageHeight, 0.43103* imageWidth], [(0.66774 * imageHeight) +  (0.01778645* imageHeight), (0.43103* imageWidth) + (0.0234260583333333* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>155</v>
       </c>
@@ -11475,19 +11685,19 @@
         <v>80</v>
       </c>
       <c r="E27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.175</v>
       </c>
       <c r="F27">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="G27">
-        <f>ROUND(SQRT(F27/E27), 5)</f>
-        <v>35.729480000000002</v>
+        <f t="shared" si="1"/>
+        <v>26.093119999999999</v>
       </c>
       <c r="H27">
-        <f>G27*E27</f>
-        <v>41.982139000000004</v>
+        <f t="shared" si="3"/>
+        <v>30.659420000000001</v>
       </c>
       <c r="I27">
         <v>718.43923723684395</v>
@@ -11496,27 +11706,35 @@
         <v>457.48611068725501</v>
       </c>
       <c r="K27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.89805000000000001</v>
       </c>
       <c r="L27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.38124000000000002</v>
       </c>
-      <c r="M27" t="str">
-        <f t="shared" si="1"/>
+      <c r="M27">
+        <f t="shared" si="6"/>
+        <v>3.2616399999999997E-2</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="7"/>
+        <v>2.5549516666666668E-2</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="2"/>
         <v>[0.89805 * imageHeight, 0.38124* imageWidth]</v>
       </c>
-      <c r="N27" t="str">
-        <f t="shared" si="2"/>
-        <v>[(0.89805 * imageHeight) + 35.72948, (0.38124* imageWidth) + 41.982139]</v>
-      </c>
-      <c r="O27" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.89805 * imageHeight, 0.38124* imageWidth], [(0.89805 * imageHeight) + 35.72948, (0.38124* imageWidth) + 41.982139]]</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.89805 * imageHeight) +  (0.0326164* imageHeight), (0.38124* imageWidth) + (0.0255495166666667* imageWidth)]</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.89805 * imageHeight, 0.38124* imageWidth], [(0.89805 * imageHeight) +  (0.0326164* imageHeight), (0.38124* imageWidth) + (0.0255495166666667* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>157</v>
       </c>
@@ -11530,19 +11748,19 @@
         <v>70</v>
       </c>
       <c r="E28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F28">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="G28">
-        <f>ROUND(SQRT(F28/E28), 5)</f>
-        <v>38.72983</v>
+        <f t="shared" si="1"/>
+        <v>28.284269999999999</v>
       </c>
       <c r="H28">
-        <f>G28*E28</f>
-        <v>38.72983</v>
+        <f t="shared" si="3"/>
+        <v>28.284269999999999</v>
       </c>
       <c r="I28">
         <v>737.18924049840996</v>
@@ -11551,27 +11769,35 @@
         <v>316.73611068725501</v>
       </c>
       <c r="K28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.92149000000000003</v>
       </c>
       <c r="L28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.26395000000000002</v>
       </c>
-      <c r="M28" t="str">
-        <f t="shared" si="1"/>
+      <c r="M28">
+        <f t="shared" si="6"/>
+        <v>3.53553375E-2</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="7"/>
+        <v>2.3570225E-2</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="2"/>
         <v>[0.92149 * imageHeight, 0.26395* imageWidth]</v>
       </c>
-      <c r="N28" t="str">
-        <f t="shared" si="2"/>
-        <v>[(0.92149 * imageHeight) + 38.72983, (0.26395* imageWidth) + 38.72983]</v>
-      </c>
-      <c r="O28" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.92149 * imageHeight, 0.26395* imageWidth], [(0.92149 * imageHeight) + 38.72983, (0.26395* imageWidth) + 38.72983]]</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P28" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.92149 * imageHeight) +  (0.0353553375* imageHeight), (0.26395* imageWidth) + (0.023570225* imageWidth)]</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.92149 * imageHeight, 0.26395* imageWidth], [(0.92149 * imageHeight) +  (0.0353553375* imageHeight), (0.26395* imageWidth) + (0.023570225* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>159</v>
       </c>
@@ -11585,19 +11811,19 @@
         <v>35</v>
       </c>
       <c r="E29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="F29">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G29">
-        <f>ROUND(SQRT(F29/E29), 5)</f>
-        <v>19.094069999999999</v>
+        <f t="shared" si="1"/>
+        <v>12.07615</v>
       </c>
       <c r="H29">
-        <f>G29*E29</f>
-        <v>26.18615314285714</v>
+        <f t="shared" si="3"/>
+        <v>16.561579999999999</v>
       </c>
       <c r="I29">
         <v>708.43924269186004</v>
@@ -11606,27 +11832,35 @@
         <v>156.98611068725501</v>
       </c>
       <c r="K29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.88554999999999995</v>
       </c>
       <c r="L29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.13081999999999999</v>
       </c>
-      <c r="M29" t="str">
-        <f t="shared" si="1"/>
+      <c r="M29">
+        <f t="shared" si="6"/>
+        <v>1.5095187500000001E-2</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="7"/>
+        <v>1.3801316666666666E-2</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="2"/>
         <v>[0.88555 * imageHeight, 0.13082* imageWidth]</v>
       </c>
-      <c r="N29" t="str">
-        <f t="shared" si="2"/>
-        <v>[(0.88555 * imageHeight) + 19.09407, (0.13082* imageWidth) + 26.1861531428571]</v>
-      </c>
-      <c r="O29" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.88555 * imageHeight, 0.13082* imageWidth], [(0.88555 * imageHeight) + 19.09407, (0.13082* imageWidth) + 26.1861531428571]]</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P29" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.88555 * imageHeight) +  (0.0150951875* imageHeight), (0.13082* imageWidth) + (0.0138013166666667* imageWidth)]</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.88555 * imageHeight, 0.13082* imageWidth], [(0.88555 * imageHeight) +  (0.0150951875* imageHeight), (0.13082* imageWidth) + (0.0138013166666667* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>161</v>
       </c>
@@ -11640,19 +11874,19 @@
         <v>52</v>
       </c>
       <c r="E30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.96153846153846156</v>
       </c>
       <c r="F30">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G30">
-        <f>ROUND(SQRT(F30/E30), 5)</f>
-        <v>32.249029999999998</v>
+        <f t="shared" si="1"/>
+        <v>20.396080000000001</v>
       </c>
       <c r="H30">
-        <f>G30*E30</f>
-        <v>31.008682692307691</v>
+        <f t="shared" si="3"/>
+        <v>19.611619999999998</v>
       </c>
       <c r="I30">
         <v>732.43924086080597</v>
@@ -11661,27 +11895,35 @@
         <v>163.23611068725501</v>
       </c>
       <c r="K30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.91554999999999997</v>
       </c>
       <c r="L30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.13603000000000001</v>
       </c>
-      <c r="M30" t="str">
-        <f t="shared" si="1"/>
+      <c r="M30">
+        <f t="shared" si="6"/>
+        <v>2.5495100000000003E-2</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="7"/>
+        <v>1.6343016666666665E-2</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="2"/>
         <v>[0.91555 * imageHeight, 0.13603* imageWidth]</v>
       </c>
-      <c r="N30" t="str">
-        <f t="shared" si="2"/>
-        <v>[(0.91555 * imageHeight) + 32.24903, (0.13603* imageWidth) + 31.0086826923077]</v>
-      </c>
-      <c r="O30" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.91555 * imageHeight, 0.13603* imageWidth], [(0.91555 * imageHeight) + 32.24903, (0.13603* imageWidth) + 31.0086826923077]]</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.91555 * imageHeight) +  (0.0254951* imageHeight), (0.13603* imageWidth) + (0.0163430166666667* imageWidth)]</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.91555 * imageHeight, 0.13603* imageWidth], [(0.91555 * imageHeight) +  (0.0254951* imageHeight), (0.13603* imageWidth) + (0.0163430166666667* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>162</v>
       </c>
@@ -11695,19 +11937,19 @@
         <v>46</v>
       </c>
       <c r="E31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.82608695652173914</v>
       </c>
       <c r="F31">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G31">
-        <f>ROUND(SQRT(F31/E31), 5)</f>
-        <v>24.6021</v>
+        <f t="shared" si="1"/>
+        <v>13.47512</v>
       </c>
       <c r="H31">
-        <f>G31*E31</f>
-        <v>20.323473913043479</v>
+        <f t="shared" si="3"/>
+        <v>11.13162</v>
       </c>
       <c r="I31">
         <v>325.21962210886898</v>
@@ -11716,27 +11958,35 @@
         <v>103.11805534362701</v>
       </c>
       <c r="K31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.40651999999999999</v>
       </c>
       <c r="L31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.5930000000000006E-2</v>
       </c>
-      <c r="M31" t="str">
-        <f t="shared" si="1"/>
+      <c r="M31">
+        <f t="shared" si="6"/>
+        <v>1.6843900000000002E-2</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="7"/>
+        <v>9.2763499999999992E-3</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="2"/>
         <v>[0.40652 * imageHeight, 0.08593* imageWidth]</v>
       </c>
-      <c r="N31" t="str">
-        <f t="shared" si="2"/>
-        <v>[(0.40652 * imageHeight) + 24.6021, (0.08593* imageWidth) + 20.3234739130435]</v>
-      </c>
-      <c r="O31" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.40652 * imageHeight, 0.08593* imageWidth], [(0.40652 * imageHeight) + 24.6021, (0.08593* imageWidth) + 20.3234739130435]]</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P31" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.40652 * imageHeight) +  (0.0168439* imageHeight), (0.08593* imageWidth) + (0.00927635* imageWidth)]</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.40652 * imageHeight, 0.08593* imageWidth], [(0.40652 * imageHeight) +  (0.0168439* imageHeight), (0.08593* imageWidth) + (0.00927635* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>163</v>
       </c>
@@ -11750,19 +12000,19 @@
         <v>31</v>
       </c>
       <c r="E32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.6774193548387097</v>
       </c>
       <c r="F32">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G32">
-        <f>ROUND(SQRT(F32/E32), 5)</f>
-        <v>17.264900000000001</v>
+        <f t="shared" si="1"/>
+        <v>13.373340000000001</v>
       </c>
       <c r="H32">
-        <f>G32*E32</f>
-        <v>28.960477419354842</v>
+        <f t="shared" si="3"/>
+        <v>22.432700000000001</v>
       </c>
       <c r="I32">
         <v>348.594620325498</v>
@@ -11771,27 +12021,35 @@
         <v>129.99305534362699</v>
       </c>
       <c r="K32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.43574000000000002</v>
       </c>
       <c r="L32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10833</v>
       </c>
-      <c r="M32" t="str">
-        <f t="shared" si="1"/>
+      <c r="M32">
+        <f t="shared" si="6"/>
+        <v>1.6716675E-2</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="7"/>
+        <v>1.8693916666666668E-2</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="2"/>
         <v>[0.43574 * imageHeight, 0.10833* imageWidth]</v>
       </c>
-      <c r="N32" t="str">
-        <f t="shared" si="2"/>
-        <v>[(0.43574 * imageHeight) + 17.2649, (0.10833* imageWidth) + 28.9604774193548]</v>
-      </c>
-      <c r="O32" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.43574 * imageHeight, 0.10833* imageWidth], [(0.43574 * imageHeight) + 17.2649, (0.10833* imageWidth) + 28.9604774193548]]</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.43574 * imageHeight) +  (0.016716675* imageHeight), (0.10833* imageWidth) + (0.0186939166666667* imageWidth)]</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.43574 * imageHeight, 0.10833* imageWidth], [(0.43574 * imageHeight) +  (0.016716675* imageHeight), (0.10833* imageWidth) + (0.0186939166666667* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>164</v>
       </c>
@@ -11805,19 +12063,19 @@
         <v>59</v>
       </c>
       <c r="E33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.2372881355932204</v>
       </c>
       <c r="F33">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G33">
-        <f>ROUND(SQRT(F33/E33), 5)</f>
-        <v>28.429200000000002</v>
+        <f t="shared" si="1"/>
+        <v>17.9802</v>
       </c>
       <c r="H33">
-        <f>G33*E33</f>
-        <v>35.17511186440678</v>
+        <f t="shared" si="3"/>
+        <v>22.246690000000001</v>
       </c>
       <c r="I33">
         <v>423.87847496959802</v>
@@ -11826,27 +12084,35 @@
         <v>210.47222137451101</v>
       </c>
       <c r="K33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.52985000000000004</v>
       </c>
       <c r="L33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17538999999999999</v>
       </c>
-      <c r="M33" t="str">
-        <f t="shared" si="1"/>
+      <c r="M33">
+        <f t="shared" si="6"/>
+        <v>2.2475249999999999E-2</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="7"/>
+        <v>1.8538908333333333E-2</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="2"/>
         <v>[0.52985 * imageHeight, 0.17539* imageWidth]</v>
       </c>
-      <c r="N33" t="str">
-        <f t="shared" si="2"/>
-        <v>[(0.52985 * imageHeight) + 28.4292, (0.17539* imageWidth) + 35.1751118644068]</v>
-      </c>
-      <c r="O33" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.52985 * imageHeight, 0.17539* imageWidth], [(0.52985 * imageHeight) + 28.4292, (0.17539* imageWidth) + 35.1751118644068]]</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P33" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.52985 * imageHeight) +  (0.02247525* imageHeight), (0.17539* imageWidth) + (0.0185389083333333* imageWidth)]</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.52985 * imageHeight, 0.17539* imageWidth], [(0.52985 * imageHeight) +  (0.02247525* imageHeight), (0.17539* imageWidth) + (0.0185389083333333* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>169</v>
       </c>
@@ -11860,19 +12126,19 @@
         <v>48</v>
       </c>
       <c r="E34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F34">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G34">
-        <f>ROUND(SQRT(F34/E34), 5)</f>
-        <v>22.360679999999999</v>
+        <f t="shared" ref="G34:G65" si="11">ROUND(SQRT(F34/E34), 5)</f>
+        <v>15.811389999999999</v>
       </c>
       <c r="H34">
-        <f>G34*E34</f>
-        <v>22.360679999999999</v>
+        <f t="shared" si="3"/>
+        <v>15.811389999999999</v>
       </c>
       <c r="I34">
         <v>658.41580271409498</v>
@@ -11881,27 +12147,35 @@
         <v>341.99652481079102</v>
       </c>
       <c r="K34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.82301999999999997</v>
       </c>
       <c r="L34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.28499999999999998</v>
       </c>
-      <c r="M34" t="str">
-        <f t="shared" ref="M34:M59" si="7">_xlfn.CONCAT("[", K34, " * imageHeight", ", ", L34, "* imageWidth", "]")</f>
+      <c r="M34">
+        <f t="shared" si="6"/>
+        <v>1.97642375E-2</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="7"/>
+        <v>1.3176158333333333E-2</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" ref="O34:O59" si="12">_xlfn.CONCAT("[", K34, " * imageHeight", ", ", L34, "* imageWidth", "]")</f>
         <v>[0.82302 * imageHeight, 0.285* imageWidth]</v>
       </c>
-      <c r="N34" t="str">
-        <f t="shared" ref="N34:N59" si="8">_xlfn.CONCAT("[(", K34, " * imageHeight)", " + ",  G34, ", (", L34, "* imageWidth)", " + ", H34, "]" )</f>
-        <v>[(0.82302 * imageHeight) + 22.36068, (0.285* imageWidth) + 22.36068]</v>
-      </c>
-      <c r="O34" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.82302 * imageHeight, 0.285* imageWidth], [(0.82302 * imageHeight) + 22.36068, (0.285* imageWidth) + 22.36068]]</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P34" t="str">
+        <f t="shared" si="8"/>
+        <v>[(0.82302 * imageHeight) +  (0.0197642375* imageHeight), (0.285* imageWidth) + (0.0131761583333333* imageWidth)]</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.82302 * imageHeight, 0.285* imageWidth], [(0.82302 * imageHeight) +  (0.0197642375* imageHeight), (0.285* imageWidth) + (0.0131761583333333* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>171</v>
       </c>
@@ -11915,19 +12189,19 @@
         <v>38</v>
       </c>
       <c r="E35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.4210526315789473</v>
       </c>
       <c r="F35">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G35">
-        <f>ROUND(SQRT(F35/E35), 5)</f>
-        <v>18.757709999999999</v>
+        <f t="shared" si="11"/>
+        <v>11.86342</v>
       </c>
       <c r="H35">
-        <f>G35*E35</f>
-        <v>26.655693157894735</v>
+        <f t="shared" si="3"/>
+        <v>16.858540000000001</v>
       </c>
       <c r="I35">
         <v>547.41580601380804</v>
@@ -11936,27 +12210,35 @@
         <v>352.49652481079102</v>
       </c>
       <c r="K35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.68427000000000004</v>
       </c>
       <c r="L35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.29375000000000001</v>
       </c>
-      <c r="M35" t="str">
+      <c r="M35">
+        <f t="shared" si="6"/>
+        <v>1.4829274999999999E-2</v>
+      </c>
+      <c r="N35">
         <f t="shared" si="7"/>
+        <v>1.4048783333333335E-2</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="12"/>
         <v>[0.68427 * imageHeight, 0.29375* imageWidth]</v>
       </c>
-      <c r="N35" t="str">
+      <c r="P35" t="str">
         <f t="shared" si="8"/>
-        <v>[(0.68427 * imageHeight) + 18.75771, (0.29375* imageWidth) + 26.6556931578947]</v>
-      </c>
-      <c r="O35" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.68427 * imageHeight, 0.29375* imageWidth], [(0.68427 * imageHeight) + 18.75771, (0.29375* imageWidth) + 26.6556931578947]]</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+        <v>[(0.68427 * imageHeight) +  (0.014829275* imageHeight), (0.29375* imageWidth) + (0.0140487833333333* imageWidth)]</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.68427 * imageHeight, 0.29375* imageWidth], [(0.68427 * imageHeight) +  (0.014829275* imageHeight), (0.29375* imageWidth) + (0.0140487833333333* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>173</v>
       </c>
@@ -11970,19 +12252,19 @@
         <v>55</v>
       </c>
       <c r="E36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.1636363636363636</v>
       </c>
       <c r="F36">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G36">
-        <f>ROUND(SQRT(F36/E36), 5)</f>
-        <v>20.728899999999999</v>
+        <f t="shared" si="11"/>
+        <v>13.110110000000001</v>
       </c>
       <c r="H36">
-        <f>G36*E36</f>
-        <v>24.120901818181817</v>
+        <f t="shared" si="3"/>
+        <v>15.2554</v>
       </c>
       <c r="I36">
         <v>507</v>
@@ -11991,27 +12273,35 @@
         <v>279.046875</v>
       </c>
       <c r="K36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.63375000000000004</v>
       </c>
       <c r="L36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.23254</v>
       </c>
-      <c r="M36" t="str">
+      <c r="M36">
+        <f t="shared" si="6"/>
+        <v>1.63876375E-2</v>
+      </c>
+      <c r="N36">
         <f t="shared" si="7"/>
+        <v>1.2712833333333333E-2</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="12"/>
         <v>[0.63375 * imageHeight, 0.23254* imageWidth]</v>
       </c>
-      <c r="N36" t="str">
+      <c r="P36" t="str">
         <f t="shared" si="8"/>
-        <v>[(0.63375 * imageHeight) + 20.7289, (0.23254* imageWidth) + 24.1209018181818]</v>
-      </c>
-      <c r="O36" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.63375 * imageHeight, 0.23254* imageWidth], [(0.63375 * imageHeight) + 20.7289, (0.23254* imageWidth) + 24.1209018181818]]</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+        <v>[(0.63375 * imageHeight) +  (0.0163876375* imageHeight), (0.23254* imageWidth) + (0.0127128333333333* imageWidth)]</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.63375 * imageHeight, 0.23254* imageWidth], [(0.63375 * imageHeight) +  (0.0163876375* imageHeight), (0.23254* imageWidth) + (0.0127128333333333* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>174</v>
       </c>
@@ -12025,19 +12315,19 @@
         <v>52</v>
       </c>
       <c r="E37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.0384615384615385</v>
       </c>
       <c r="F37">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G37">
-        <f>ROUND(SQRT(F37/E37), 5)</f>
-        <v>21.942689999999999</v>
+        <f t="shared" si="11"/>
+        <v>13.87777</v>
       </c>
       <c r="H37">
-        <f>G37*E37</f>
-        <v>22.786639615384615</v>
+        <f t="shared" si="3"/>
+        <v>14.411530000000001</v>
       </c>
       <c r="I37">
         <v>477.5</v>
@@ -12046,27 +12336,35 @@
         <v>312.546875</v>
       </c>
       <c r="K37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.59687999999999997</v>
       </c>
       <c r="L37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.26046000000000002</v>
       </c>
-      <c r="M37" t="str">
+      <c r="M37">
+        <f t="shared" si="6"/>
+        <v>1.73472125E-2</v>
+      </c>
+      <c r="N37">
         <f t="shared" si="7"/>
+        <v>1.2009608333333335E-2</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="12"/>
         <v>[0.59688 * imageHeight, 0.26046* imageWidth]</v>
       </c>
-      <c r="N37" t="str">
+      <c r="P37" t="str">
         <f t="shared" si="8"/>
-        <v>[(0.59688 * imageHeight) + 21.94269, (0.26046* imageWidth) + 22.7866396153846]</v>
-      </c>
-      <c r="O37" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.59688 * imageHeight, 0.26046* imageWidth], [(0.59688 * imageHeight) + 21.94269, (0.26046* imageWidth) + 22.7866396153846]]</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+        <v>[(0.59688 * imageHeight) +  (0.0173472125* imageHeight), (0.26046* imageWidth) + (0.0120096083333333* imageWidth)]</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.59688 * imageHeight, 0.26046* imageWidth], [(0.59688 * imageHeight) +  (0.0173472125* imageHeight), (0.26046* imageWidth) + (0.0120096083333333* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>176</v>
       </c>
@@ -12080,19 +12378,19 @@
         <v>45</v>
       </c>
       <c r="E38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.3555555555555556</v>
       </c>
       <c r="F38">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G38">
-        <f>ROUND(SQRT(F38/E38), 5)</f>
-        <v>19.20553</v>
+        <f t="shared" si="11"/>
+        <v>13.580360000000001</v>
       </c>
       <c r="H38">
-        <f>G38*E38</f>
-        <v>26.03416288888889</v>
+        <f t="shared" si="3"/>
+        <v>18.408930000000002</v>
       </c>
       <c r="I38">
         <v>564.75</v>
@@ -12101,27 +12399,35 @@
         <v>406.796875</v>
       </c>
       <c r="K38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.70594000000000001</v>
       </c>
       <c r="L38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.33900000000000002</v>
       </c>
-      <c r="M38" t="str">
+      <c r="M38">
+        <f t="shared" si="6"/>
+        <v>1.697545E-2</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="7"/>
+        <v>1.5340775000000001E-2</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="12"/>
         <v>[0.70594 * imageHeight, 0.339* imageWidth]</v>
       </c>
-      <c r="N38" t="str">
+      <c r="P38" t="str">
         <f t="shared" si="8"/>
-        <v>[(0.70594 * imageHeight) + 19.20553, (0.339* imageWidth) + 26.0341628888889]</v>
-      </c>
-      <c r="O38" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.70594 * imageHeight, 0.339* imageWidth], [(0.70594 * imageHeight) + 19.20553, (0.339* imageWidth) + 26.0341628888889]]</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+        <v>[(0.70594 * imageHeight) +  (0.01697545* imageHeight), (0.339* imageWidth) + (0.015340775* imageWidth)]</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.70594 * imageHeight, 0.339* imageWidth], [(0.70594 * imageHeight) +  (0.01697545* imageHeight), (0.339* imageWidth) + (0.015340775* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>177</v>
       </c>
@@ -12135,19 +12441,19 @@
         <v>52</v>
       </c>
       <c r="E39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.73076923076923073</v>
       </c>
       <c r="F39">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G39">
-        <f>ROUND(SQRT(F39/E39), 5)</f>
-        <v>26.157419999999998</v>
+        <f t="shared" si="11"/>
+        <v>16.543399999999998</v>
       </c>
       <c r="H39">
-        <f>G39*E39</f>
-        <v>19.115037692307691</v>
+        <f t="shared" si="3"/>
+        <v>12.089410000000001</v>
       </c>
       <c r="I39">
         <v>618.625</v>
@@ -12156,27 +12462,35 @@
         <v>494.6484375</v>
       </c>
       <c r="K39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.77327999999999997</v>
       </c>
       <c r="L39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.41221000000000002</v>
       </c>
-      <c r="M39" t="str">
+      <c r="M39">
+        <f t="shared" si="6"/>
+        <v>2.0679249999999996E-2</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="7"/>
+        <v>1.0074508333333334E-2</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="12"/>
         <v>[0.77328 * imageHeight, 0.41221* imageWidth]</v>
       </c>
-      <c r="N39" t="str">
+      <c r="P39" t="str">
         <f t="shared" si="8"/>
-        <v>[(0.77328 * imageHeight) + 26.15742, (0.41221* imageWidth) + 19.1150376923077]</v>
-      </c>
-      <c r="O39" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.77328 * imageHeight, 0.41221* imageWidth], [(0.77328 * imageHeight) + 26.15742, (0.41221* imageWidth) + 19.1150376923077]]</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+        <v>[(0.77328 * imageHeight) +  (0.02067925* imageHeight), (0.41221* imageWidth) + (0.0100745083333333* imageWidth)]</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.77328 * imageHeight, 0.41221* imageWidth], [(0.77328 * imageHeight) +  (0.02067925* imageHeight), (0.41221* imageWidth) + (0.0100745083333333* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>178</v>
       </c>
@@ -12190,19 +12504,19 @@
         <v>55</v>
       </c>
       <c r="E40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.1818181818181819</v>
       </c>
       <c r="F40">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G40">
-        <f>ROUND(SQRT(F40/E40), 5)</f>
-        <v>29.088719999999999</v>
+        <f t="shared" si="11"/>
+        <v>18.397320000000001</v>
       </c>
       <c r="H40">
-        <f>G40*E40</f>
-        <v>34.37757818181818</v>
+        <f t="shared" si="3"/>
+        <v>21.742290000000001</v>
       </c>
       <c r="I40">
         <v>563</v>
@@ -12211,27 +12525,35 @@
         <v>446.546875</v>
       </c>
       <c r="K40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.70374999999999999</v>
       </c>
       <c r="L40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.37212000000000001</v>
       </c>
-      <c r="M40" t="str">
+      <c r="M40">
+        <f t="shared" si="6"/>
+        <v>2.299665E-2</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="7"/>
+        <v>1.8118575000000001E-2</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="12"/>
         <v>[0.70375 * imageHeight, 0.37212* imageWidth]</v>
       </c>
-      <c r="N40" t="str">
+      <c r="P40" t="str">
         <f t="shared" si="8"/>
-        <v>[(0.70375 * imageHeight) + 29.08872, (0.37212* imageWidth) + 34.3775781818182]</v>
-      </c>
-      <c r="O40" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.70375 * imageHeight, 0.37212* imageWidth], [(0.70375 * imageHeight) + 29.08872, (0.37212* imageWidth) + 34.3775781818182]]</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+        <v>[(0.70375 * imageHeight) +  (0.02299665* imageHeight), (0.37212* imageWidth) + (0.018118575* imageWidth)]</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.70375 * imageHeight, 0.37212* imageWidth], [(0.70375 * imageHeight) +  (0.02299665* imageHeight), (0.37212* imageWidth) + (0.018118575* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>179</v>
       </c>
@@ -12245,19 +12567,19 @@
         <v>36</v>
       </c>
       <c r="E41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.3888888888888888</v>
       </c>
       <c r="F41">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G41">
-        <f>ROUND(SQRT(F41/E41), 5)</f>
-        <v>18.973669999999998</v>
+        <f t="shared" si="11"/>
+        <v>13.416410000000001</v>
       </c>
       <c r="H41">
-        <f>G41*E41</f>
-        <v>26.35231944444444</v>
+        <f t="shared" si="3"/>
+        <v>18.633900000000001</v>
       </c>
       <c r="I41">
         <v>465</v>
@@ -12266,27 +12588,35 @@
         <v>511.046875</v>
       </c>
       <c r="K41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.58125000000000004</v>
       </c>
       <c r="L41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.42587000000000003</v>
       </c>
-      <c r="M41" t="str">
+      <c r="M41">
+        <f t="shared" si="6"/>
+        <v>1.6770512500000001E-2</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="7"/>
+        <v>1.552825E-2</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="12"/>
         <v>[0.58125 * imageHeight, 0.42587* imageWidth]</v>
       </c>
-      <c r="N41" t="str">
+      <c r="P41" t="str">
         <f t="shared" si="8"/>
-        <v>[(0.58125 * imageHeight) + 18.97367, (0.42587* imageWidth) + 26.3523194444444]</v>
-      </c>
-      <c r="O41" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.58125 * imageHeight, 0.42587* imageWidth], [(0.58125 * imageHeight) + 18.97367, (0.42587* imageWidth) + 26.3523194444444]]</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+        <v>[(0.58125 * imageHeight) +  (0.0167705125* imageHeight), (0.42587* imageWidth) + (0.01552825* imageWidth)]</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.58125 * imageHeight, 0.42587* imageWidth], [(0.58125 * imageHeight) +  (0.0167705125* imageHeight), (0.42587* imageWidth) + (0.01552825* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>180</v>
       </c>
@@ -12300,19 +12630,19 @@
         <v>36</v>
       </c>
       <c r="E42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.2222222222222223</v>
       </c>
       <c r="F42">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G42">
-        <f>ROUND(SQRT(F42/E42), 5)</f>
-        <v>20.225999999999999</v>
+        <f t="shared" si="11"/>
+        <v>12.79204</v>
       </c>
       <c r="H42">
-        <f>G42*E42</f>
-        <v>24.720666666666666</v>
+        <f t="shared" si="3"/>
+        <v>15.63472</v>
       </c>
       <c r="I42">
         <v>478.5</v>
@@ -12321,27 +12651,35 @@
         <v>132.09375</v>
       </c>
       <c r="K42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.59813000000000005</v>
       </c>
       <c r="L42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.11008</v>
       </c>
-      <c r="M42" t="str">
+      <c r="M42">
+        <f t="shared" si="6"/>
+        <v>1.5990049999999999E-2</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="7"/>
+        <v>1.3028933333333333E-2</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="12"/>
         <v>[0.59813 * imageHeight, 0.11008* imageWidth]</v>
       </c>
-      <c r="N42" t="str">
+      <c r="P42" t="str">
         <f t="shared" si="8"/>
-        <v>[(0.59813 * imageHeight) + 20.226, (0.11008* imageWidth) + 24.7206666666667]</v>
-      </c>
-      <c r="O42" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.59813 * imageHeight, 0.11008* imageWidth], [(0.59813 * imageHeight) + 20.226, (0.11008* imageWidth) + 24.7206666666667]]</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+        <v>[(0.59813 * imageHeight) +  (0.01599005* imageHeight), (0.11008* imageWidth) + (0.0130289333333333* imageWidth)]</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.59813 * imageHeight, 0.11008* imageWidth], [(0.59813 * imageHeight) +  (0.01599005* imageHeight), (0.11008* imageWidth) + (0.0130289333333333* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>182</v>
       </c>
@@ -12355,19 +12693,19 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.58974358974358976</v>
       </c>
       <c r="F43">
-        <v>500</v>
+        <v>175</v>
       </c>
       <c r="G43">
-        <f>ROUND(SQRT(F43/E43), 5)</f>
-        <v>29.117450000000002</v>
+        <f t="shared" si="11"/>
+        <v>17.226120000000002</v>
       </c>
       <c r="H43">
-        <f>G43*E43</f>
-        <v>17.17182948717949</v>
+        <f t="shared" si="3"/>
+        <v>10.158989999999999</v>
       </c>
       <c r="I43">
         <v>306.25</v>
@@ -12376,27 +12714,35 @@
         <v>170.546875</v>
       </c>
       <c r="K43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.38280999999999998</v>
       </c>
       <c r="L43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.14212</v>
       </c>
-      <c r="M43" t="str">
+      <c r="M43">
+        <f t="shared" si="6"/>
+        <v>2.153265E-2</v>
+      </c>
+      <c r="N43">
         <f t="shared" si="7"/>
+        <v>8.4658249999999997E-3</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="12"/>
         <v>[0.38281 * imageHeight, 0.14212* imageWidth]</v>
       </c>
-      <c r="N43" t="str">
+      <c r="P43" t="str">
         <f t="shared" si="8"/>
-        <v>[(0.38281 * imageHeight) + 29.11745, (0.14212* imageWidth) + 17.1718294871795]</v>
-      </c>
-      <c r="O43" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.38281 * imageHeight, 0.14212* imageWidth], [(0.38281 * imageHeight) + 29.11745, (0.14212* imageWidth) + 17.1718294871795]]</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+        <v>[(0.38281 * imageHeight) +  (0.02153265* imageHeight), (0.14212* imageWidth) + (0.008465825* imageWidth)]</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.38281 * imageHeight, 0.14212* imageWidth], [(0.38281 * imageHeight) +  (0.02153265* imageHeight), (0.14212* imageWidth) + (0.008465825* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>184</v>
       </c>
@@ -12410,19 +12756,19 @@
         <v>38</v>
       </c>
       <c r="E44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.92105263157894735</v>
       </c>
       <c r="F44">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G44">
-        <f>ROUND(SQRT(F44/E44), 5)</f>
-        <v>23.299289999999999</v>
+        <f t="shared" si="11"/>
+        <v>14.73577</v>
       </c>
       <c r="H44">
-        <f>G44*E44</f>
-        <v>21.459872368421053</v>
+        <f t="shared" si="3"/>
+        <v>13.572419999999999</v>
       </c>
       <c r="I44">
         <v>310</v>
@@ -12431,27 +12777,35 @@
         <v>198.546875</v>
       </c>
       <c r="K44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.38750000000000001</v>
       </c>
       <c r="L44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16546</v>
       </c>
-      <c r="M44" t="str">
+      <c r="M44">
+        <f t="shared" si="6"/>
+        <v>1.8419712500000001E-2</v>
+      </c>
+      <c r="N44">
         <f t="shared" si="7"/>
+        <v>1.1310349999999999E-2</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="12"/>
         <v>[0.3875 * imageHeight, 0.16546* imageWidth]</v>
       </c>
-      <c r="N44" t="str">
+      <c r="P44" t="str">
         <f t="shared" si="8"/>
-        <v>[(0.3875 * imageHeight) + 23.29929, (0.16546* imageWidth) + 21.4598723684211]</v>
-      </c>
-      <c r="O44" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.3875 * imageHeight, 0.16546* imageWidth], [(0.3875 * imageHeight) + 23.29929, (0.16546* imageWidth) + 21.4598723684211]]</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+        <v>[(0.3875 * imageHeight) +  (0.0184197125* imageHeight), (0.16546* imageWidth) + (0.01131035* imageWidth)]</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.3875 * imageHeight, 0.16546* imageWidth], [(0.3875 * imageHeight) +  (0.0184197125* imageHeight), (0.16546* imageWidth) + (0.01131035* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>185</v>
       </c>
@@ -12465,19 +12819,19 @@
         <v>42</v>
       </c>
       <c r="E45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.3809523809523809</v>
       </c>
       <c r="F45">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G45">
-        <f>ROUND(SQRT(F45/E45), 5)</f>
-        <v>19.028110000000002</v>
+        <f t="shared" si="11"/>
+        <v>12.03443</v>
       </c>
       <c r="H45">
-        <f>G45*E45</f>
-        <v>26.276913809523812</v>
+        <f t="shared" si="3"/>
+        <v>16.618970000000001</v>
       </c>
       <c r="I45">
         <v>359.75</v>
@@ -12486,27 +12840,35 @@
         <v>221.796875</v>
       </c>
       <c r="K45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.44968999999999998</v>
       </c>
       <c r="L45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.18482999999999999</v>
       </c>
-      <c r="M45" t="str">
+      <c r="M45">
+        <f t="shared" si="6"/>
+        <v>1.50430375E-2</v>
+      </c>
+      <c r="N45">
         <f t="shared" si="7"/>
+        <v>1.3849141666666667E-2</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="12"/>
         <v>[0.44969 * imageHeight, 0.18483* imageWidth]</v>
       </c>
-      <c r="N45" t="str">
+      <c r="P45" t="str">
         <f t="shared" si="8"/>
-        <v>[(0.44969 * imageHeight) + 19.02811, (0.18483* imageWidth) + 26.2769138095238]</v>
-      </c>
-      <c r="O45" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.44969 * imageHeight, 0.18483* imageWidth], [(0.44969 * imageHeight) + 19.02811, (0.18483* imageWidth) + 26.2769138095238]]</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+        <v>[(0.44969 * imageHeight) +  (0.0150430375* imageHeight), (0.18483* imageWidth) + (0.0138491416666667* imageWidth)]</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.44969 * imageHeight, 0.18483* imageWidth], [(0.44969 * imageHeight) +  (0.0150430375* imageHeight), (0.18483* imageWidth) + (0.0138491416666667* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>186</v>
       </c>
@@ -12520,19 +12882,19 @@
         <v>44</v>
       </c>
       <c r="E46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.1818181818181819</v>
       </c>
       <c r="F46">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G46">
-        <f>ROUND(SQRT(F46/E46), 5)</f>
-        <v>20.568829999999998</v>
+        <f t="shared" si="11"/>
+        <v>13.00887</v>
       </c>
       <c r="H46">
-        <f>G46*E46</f>
-        <v>24.308617272727272</v>
+        <f t="shared" si="3"/>
+        <v>15.37412</v>
       </c>
       <c r="I46">
         <v>345.75</v>
@@ -12541,27 +12903,35 @@
         <v>246.796875</v>
       </c>
       <c r="K46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.43219000000000002</v>
       </c>
       <c r="L46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20566000000000001</v>
       </c>
-      <c r="M46" t="str">
+      <c r="M46">
+        <f t="shared" si="6"/>
+        <v>1.62610875E-2</v>
+      </c>
+      <c r="N46">
         <f t="shared" si="7"/>
+        <v>1.2811766666666667E-2</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="12"/>
         <v>[0.43219 * imageHeight, 0.20566* imageWidth]</v>
       </c>
-      <c r="N46" t="str">
+      <c r="P46" t="str">
         <f t="shared" si="8"/>
-        <v>[(0.43219 * imageHeight) + 20.56883, (0.20566* imageWidth) + 24.3086172727273]</v>
-      </c>
-      <c r="O46" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.43219 * imageHeight, 0.20566* imageWidth], [(0.43219 * imageHeight) + 20.56883, (0.20566* imageWidth) + 24.3086172727273]]</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+        <v>[(0.43219 * imageHeight) +  (0.0162610875* imageHeight), (0.20566* imageWidth) + (0.0128117666666667* imageWidth)]</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.43219 * imageHeight, 0.20566* imageWidth], [(0.43219 * imageHeight) +  (0.0162610875* imageHeight), (0.20566* imageWidth) + (0.0128117666666667* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>211</v>
       </c>
@@ -12575,19 +12945,19 @@
         <v>79</v>
       </c>
       <c r="E47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.1139240506329113</v>
       </c>
       <c r="F47">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="G47">
-        <f>ROUND(SQRT(F47/E47), 5)</f>
-        <v>36.695920000000001</v>
+        <f t="shared" si="11"/>
+        <v>26.798909999999999</v>
       </c>
       <c r="H47">
-        <f>G47*E47</f>
-        <v>40.876467848101264</v>
+        <f t="shared" si="3"/>
+        <v>29.851949999999999</v>
       </c>
       <c r="I47">
         <v>90</v>
@@ -12596,27 +12966,35 @@
         <v>101.046875</v>
       </c>
       <c r="K47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1125</v>
       </c>
       <c r="L47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.4209999999999993E-2</v>
       </c>
-      <c r="M47" t="str">
+      <c r="M47">
+        <f t="shared" si="6"/>
+        <v>3.3498637499999998E-2</v>
+      </c>
+      <c r="N47">
         <f t="shared" si="7"/>
+        <v>2.4876624999999999E-2</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="12"/>
         <v>[0.1125 * imageHeight, 0.08421* imageWidth]</v>
       </c>
-      <c r="N47" t="str">
+      <c r="P47" t="str">
         <f t="shared" si="8"/>
-        <v>[(0.1125 * imageHeight) + 36.69592, (0.08421* imageWidth) + 40.8764678481013]</v>
-      </c>
-      <c r="O47" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.1125 * imageHeight, 0.08421* imageWidth], [(0.1125 * imageHeight) + 36.69592, (0.08421* imageWidth) + 40.8764678481013]]</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+        <v>[(0.1125 * imageHeight) +  (0.0334986375* imageHeight), (0.08421* imageWidth) + (0.024876625* imageWidth)]</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.1125 * imageHeight, 0.08421* imageWidth], [(0.1125 * imageHeight) +  (0.0334986375* imageHeight), (0.08421* imageWidth) + (0.024876625* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>187</v>
       </c>
@@ -12630,19 +13008,19 @@
         <v>46</v>
       </c>
       <c r="E48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.91304347826086951</v>
       </c>
       <c r="F48">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G48">
-        <f>ROUND(SQRT(F48/E48), 5)</f>
-        <v>33.094380000000001</v>
+        <f t="shared" si="11"/>
+        <v>20.930720000000001</v>
       </c>
       <c r="H48">
-        <f>G48*E48</f>
-        <v>30.216607826086957</v>
+        <f t="shared" si="3"/>
+        <v>19.110659999999999</v>
       </c>
       <c r="I48">
         <v>53</v>
@@ -12651,27 +13029,35 @@
         <v>71.09375</v>
       </c>
       <c r="K48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.6250000000000003E-2</v>
       </c>
       <c r="L48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.9240000000000001E-2</v>
       </c>
-      <c r="M48" t="str">
+      <c r="M48">
+        <f t="shared" si="6"/>
+        <v>2.61634E-2</v>
+      </c>
+      <c r="N48">
         <f t="shared" si="7"/>
+        <v>1.592555E-2</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="12"/>
         <v>[0.06625 * imageHeight, 0.05924* imageWidth]</v>
       </c>
-      <c r="N48" t="str">
+      <c r="P48" t="str">
         <f t="shared" si="8"/>
-        <v>[(0.06625 * imageHeight) + 33.09438, (0.05924* imageWidth) + 30.216607826087]</v>
-      </c>
-      <c r="O48" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.06625 * imageHeight, 0.05924* imageWidth], [(0.06625 * imageHeight) + 33.09438, (0.05924* imageWidth) + 30.216607826087]]</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+        <v>[(0.06625 * imageHeight) +  (0.0261634* imageHeight), (0.05924* imageWidth) + (0.01592555* imageWidth)]</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.06625 * imageHeight, 0.05924* imageWidth], [(0.06625 * imageHeight) +  (0.0261634* imageHeight), (0.05924* imageWidth) + (0.01592555* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>189</v>
       </c>
@@ -12685,19 +13071,19 @@
         <v>44</v>
       </c>
       <c r="E49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.1818181818181819</v>
       </c>
       <c r="F49">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G49">
-        <f>ROUND(SQRT(F49/E49), 5)</f>
-        <v>20.568829999999998</v>
+        <f t="shared" si="11"/>
+        <v>14.544359999999999</v>
       </c>
       <c r="H49">
-        <f>G49*E49</f>
-        <v>24.308617272727272</v>
+        <f t="shared" si="3"/>
+        <v>17.188790000000001</v>
       </c>
       <c r="I49">
         <v>334.25</v>
@@ -12706,27 +13092,35 @@
         <v>1094.046875</v>
       </c>
       <c r="K49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.41781000000000001</v>
       </c>
       <c r="L49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.91171000000000002</v>
       </c>
-      <c r="M49" t="str">
+      <c r="M49">
+        <f t="shared" si="6"/>
+        <v>1.8180450000000001E-2</v>
+      </c>
+      <c r="N49">
         <f t="shared" si="7"/>
+        <v>1.4323991666666668E-2</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="12"/>
         <v>[0.41781 * imageHeight, 0.91171* imageWidth]</v>
       </c>
-      <c r="N49" t="str">
+      <c r="P49" t="str">
         <f t="shared" si="8"/>
-        <v>[(0.41781 * imageHeight) + 20.56883, (0.91171* imageWidth) + 24.3086172727273]</v>
-      </c>
-      <c r="O49" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.41781 * imageHeight, 0.91171* imageWidth], [(0.41781 * imageHeight) + 20.56883, (0.91171* imageWidth) + 24.3086172727273]]</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+        <v>[(0.41781 * imageHeight) +  (0.01818045* imageHeight), (0.91171* imageWidth) + (0.0143239916666667* imageWidth)]</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.41781 * imageHeight, 0.91171* imageWidth], [(0.41781 * imageHeight) +  (0.01818045* imageHeight), (0.91171* imageWidth) + (0.0143239916666667* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>191</v>
       </c>
@@ -12740,19 +13134,19 @@
         <v>49</v>
       </c>
       <c r="E50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.3673469387755102</v>
       </c>
       <c r="F50">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="G50">
-        <f>ROUND(SQRT(F50/E50), 5)</f>
-        <v>27.04336</v>
+        <f t="shared" si="11"/>
+        <v>20.947700000000001</v>
       </c>
       <c r="H50">
-        <f>G50*E50</f>
-        <v>36.97765551020408</v>
+        <f t="shared" si="3"/>
+        <v>28.642769999999999</v>
       </c>
       <c r="I50">
         <v>635</v>
@@ -12761,27 +13155,35 @@
         <v>952.796875</v>
       </c>
       <c r="K50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.79374999999999996</v>
       </c>
       <c r="L50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.79400000000000004</v>
       </c>
-      <c r="M50" t="str">
+      <c r="M50">
+        <f t="shared" si="6"/>
+        <v>2.6184625000000003E-2</v>
+      </c>
+      <c r="N50">
         <f t="shared" si="7"/>
+        <v>2.3868975000000001E-2</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="12"/>
         <v>[0.79375 * imageHeight, 0.794* imageWidth]</v>
       </c>
-      <c r="N50" t="str">
+      <c r="P50" t="str">
         <f t="shared" si="8"/>
-        <v>[(0.79375 * imageHeight) + 27.04336, (0.794* imageWidth) + 36.9776555102041]</v>
-      </c>
-      <c r="O50" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.79375 * imageHeight, 0.794* imageWidth], [(0.79375 * imageHeight) + 27.04336, (0.794* imageWidth) + 36.9776555102041]]</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+        <v>[(0.79375 * imageHeight) +  (0.026184625* imageHeight), (0.794* imageWidth) + (0.023868975* imageWidth)]</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.79375 * imageHeight, 0.794* imageWidth], [(0.79375 * imageHeight) +  (0.026184625* imageHeight), (0.794* imageWidth) + (0.023868975* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>193</v>
       </c>
@@ -12795,19 +13197,19 @@
         <v>46</v>
       </c>
       <c r="E51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.0434782608695652</v>
       </c>
       <c r="F51">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G51">
-        <f>ROUND(SQRT(F51/E51), 5)</f>
-        <v>21.889880000000002</v>
+        <f t="shared" si="11"/>
+        <v>16.955819999999999</v>
       </c>
       <c r="H51">
-        <f>G51*E51</f>
-        <v>22.841613913043478</v>
+        <f t="shared" si="3"/>
+        <v>17.69303</v>
       </c>
       <c r="I51">
         <v>580</v>
@@ -12816,27 +13218,35 @@
         <v>1075.296875</v>
       </c>
       <c r="K51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.72499999999999998</v>
       </c>
       <c r="L51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.89607999999999999</v>
       </c>
-      <c r="M51" t="str">
+      <c r="M51">
+        <f t="shared" si="6"/>
+        <v>2.1194774999999999E-2</v>
+      </c>
+      <c r="N51">
         <f t="shared" si="7"/>
+        <v>1.4744191666666667E-2</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="12"/>
         <v>[0.725 * imageHeight, 0.89608* imageWidth]</v>
       </c>
-      <c r="N51" t="str">
+      <c r="P51" t="str">
         <f t="shared" si="8"/>
-        <v>[(0.725 * imageHeight) + 21.88988, (0.89608* imageWidth) + 22.8416139130435]</v>
-      </c>
-      <c r="O51" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.725 * imageHeight, 0.89608* imageWidth], [(0.725 * imageHeight) + 21.88988, (0.89608* imageWidth) + 22.8416139130435]]</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+        <v>[(0.725 * imageHeight) +  (0.021194775* imageHeight), (0.89608* imageWidth) + (0.0147441916666667* imageWidth)]</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.725 * imageHeight, 0.89608* imageWidth], [(0.725 * imageHeight) +  (0.021194775* imageHeight), (0.89608* imageWidth) + (0.0147441916666667* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>195</v>
       </c>
@@ -12850,19 +13260,19 @@
         <v>42</v>
       </c>
       <c r="E52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.0714285714285714</v>
       </c>
       <c r="F52">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G52">
-        <f>ROUND(SQRT(F52/E52), 5)</f>
-        <v>21.60247</v>
+        <f t="shared" si="11"/>
+        <v>16.7332</v>
       </c>
       <c r="H52">
-        <f>G52*E52</f>
-        <v>23.14550357142857</v>
+        <f t="shared" si="3"/>
+        <v>17.928429999999999</v>
       </c>
       <c r="I52">
         <v>473</v>
@@ -12871,27 +13281,35 @@
         <v>940.09375</v>
       </c>
       <c r="K52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.59125000000000005</v>
       </c>
       <c r="L52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.78341000000000005</v>
       </c>
-      <c r="M52" t="str">
+      <c r="M52">
+        <f t="shared" si="6"/>
+        <v>2.0916500000000001E-2</v>
+      </c>
+      <c r="N52">
         <f t="shared" si="7"/>
+        <v>1.4940358333333332E-2</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="12"/>
         <v>[0.59125 * imageHeight, 0.78341* imageWidth]</v>
       </c>
-      <c r="N52" t="str">
+      <c r="P52" t="str">
         <f t="shared" si="8"/>
-        <v>[(0.59125 * imageHeight) + 21.60247, (0.78341* imageWidth) + 23.1455035714286]</v>
-      </c>
-      <c r="O52" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.59125 * imageHeight, 0.78341* imageWidth], [(0.59125 * imageHeight) + 21.60247, (0.78341* imageWidth) + 23.1455035714286]]</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+        <v>[(0.59125 * imageHeight) +  (0.0209165* imageHeight), (0.78341* imageWidth) + (0.0149403583333333* imageWidth)]</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.59125 * imageHeight, 0.78341* imageWidth], [(0.59125 * imageHeight) +  (0.0209165* imageHeight), (0.78341* imageWidth) + (0.0149403583333333* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>197</v>
       </c>
@@ -12905,19 +13323,19 @@
         <v>51</v>
       </c>
       <c r="E53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.1568627450980393</v>
       </c>
       <c r="F53">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="G53">
-        <f>ROUND(SQRT(F53/E53), 5)</f>
-        <v>29.4008</v>
+        <f t="shared" si="11"/>
+        <v>22.773759999999999</v>
       </c>
       <c r="H53">
-        <f>G53*E53</f>
-        <v>34.012690196078438</v>
+        <f t="shared" si="3"/>
+        <v>26.346109999999999</v>
       </c>
       <c r="I53">
         <v>399</v>
@@ -12926,27 +13344,35 @@
         <v>903.59375</v>
       </c>
       <c r="K53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.49875000000000003</v>
       </c>
       <c r="L53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.75299000000000005</v>
       </c>
-      <c r="M53" t="str">
+      <c r="M53">
+        <f t="shared" si="6"/>
+        <v>2.8467199999999998E-2</v>
+      </c>
+      <c r="N53">
         <f t="shared" si="7"/>
+        <v>2.1955091666666666E-2</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="12"/>
         <v>[0.49875 * imageHeight, 0.75299* imageWidth]</v>
       </c>
-      <c r="N53" t="str">
+      <c r="P53" t="str">
         <f t="shared" si="8"/>
-        <v>[(0.49875 * imageHeight) + 29.4008, (0.75299* imageWidth) + 34.0126901960784]</v>
-      </c>
-      <c r="O53" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.49875 * imageHeight, 0.75299* imageWidth], [(0.49875 * imageHeight) + 29.4008, (0.75299* imageWidth) + 34.0126901960784]]</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+        <v>[(0.49875 * imageHeight) +  (0.0284672* imageHeight), (0.75299* imageWidth) + (0.0219550916666667* imageWidth)]</v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.49875 * imageHeight, 0.75299* imageWidth], [(0.49875 * imageHeight) +  (0.0284672* imageHeight), (0.75299* imageWidth) + (0.0219550916666667* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>199</v>
       </c>
@@ -12960,19 +13386,19 @@
         <v>53</v>
       </c>
       <c r="E54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.2452830188679245</v>
       </c>
       <c r="F54">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G54">
-        <f>ROUND(SQRT(F54/E54), 5)</f>
-        <v>20.037839999999999</v>
+        <f t="shared" si="11"/>
+        <v>15.52125</v>
       </c>
       <c r="H54">
-        <f>G54*E54</f>
-        <v>24.952781886792451</v>
+        <f t="shared" si="3"/>
+        <v>19.32835</v>
       </c>
       <c r="I54">
         <v>459.5</v>
@@ -12981,27 +13407,35 @@
         <v>863.09375</v>
       </c>
       <c r="K54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.57438</v>
       </c>
       <c r="L54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.71923999999999999</v>
       </c>
-      <c r="M54" t="str">
+      <c r="M54">
+        <f t="shared" si="6"/>
+        <v>1.94015625E-2</v>
+      </c>
+      <c r="N54">
         <f t="shared" si="7"/>
+        <v>1.6106958333333334E-2</v>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" si="12"/>
         <v>[0.57438 * imageHeight, 0.71924* imageWidth]</v>
       </c>
-      <c r="N54" t="str">
+      <c r="P54" t="str">
         <f t="shared" si="8"/>
-        <v>[(0.57438 * imageHeight) + 20.03784, (0.71924* imageWidth) + 24.9527818867925]</v>
-      </c>
-      <c r="O54" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.57438 * imageHeight, 0.71924* imageWidth], [(0.57438 * imageHeight) + 20.03784, (0.71924* imageWidth) + 24.9527818867925]]</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+        <v>[(0.57438 * imageHeight) +  (0.0194015625* imageHeight), (0.71924* imageWidth) + (0.0161069583333333* imageWidth)]</v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.57438 * imageHeight, 0.71924* imageWidth], [(0.57438 * imageHeight) +  (0.0194015625* imageHeight), (0.71924* imageWidth) + (0.0161069583333333* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>201</v>
       </c>
@@ -13015,19 +13449,19 @@
         <v>37</v>
       </c>
       <c r="E55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.81081081081081086</v>
       </c>
       <c r="F55">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G55">
-        <f>ROUND(SQRT(F55/E55), 5)</f>
-        <v>24.83277</v>
+        <f t="shared" si="11"/>
+        <v>19.235379999999999</v>
       </c>
       <c r="H55">
-        <f>G55*E55</f>
-        <v>20.134678378378378</v>
+        <f t="shared" si="3"/>
+        <v>15.59625</v>
       </c>
       <c r="I55">
         <v>431.5</v>
@@ -13036,27 +13470,35 @@
         <v>1000.59375</v>
       </c>
       <c r="K55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.53937999999999997</v>
       </c>
       <c r="L55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.83382999999999996</v>
       </c>
-      <c r="M55" t="str">
+      <c r="M55">
+        <f t="shared" si="6"/>
+        <v>2.4044224999999999E-2</v>
+      </c>
+      <c r="N55">
         <f t="shared" si="7"/>
+        <v>1.2996875E-2</v>
+      </c>
+      <c r="O55" t="str">
+        <f t="shared" si="12"/>
         <v>[0.53938 * imageHeight, 0.83383* imageWidth]</v>
       </c>
-      <c r="N55" t="str">
+      <c r="P55" t="str">
         <f t="shared" si="8"/>
-        <v>[(0.53938 * imageHeight) + 24.83277, (0.83383* imageWidth) + 20.1346783783784]</v>
-      </c>
-      <c r="O55" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.53938 * imageHeight, 0.83383* imageWidth], [(0.53938 * imageHeight) + 24.83277, (0.83383* imageWidth) + 20.1346783783784]]</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+        <v>[(0.53938 * imageHeight) +  (0.024044225* imageHeight), (0.83383* imageWidth) + (0.012996875* imageWidth)]</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.53938 * imageHeight, 0.83383* imageWidth], [(0.53938 * imageHeight) +  (0.024044225* imageHeight), (0.83383* imageWidth) + (0.012996875* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>203</v>
       </c>
@@ -13070,19 +13512,19 @@
         <v>76</v>
       </c>
       <c r="E56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.263157894736842</v>
       </c>
       <c r="F56">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="G56">
-        <f>ROUND(SQRT(F56/E56), 5)</f>
-        <v>28.136569999999999</v>
+        <f t="shared" si="11"/>
+        <v>21.79449</v>
       </c>
       <c r="H56">
-        <f>G56*E56</f>
-        <v>35.540930526315783</v>
+        <f t="shared" si="3"/>
+        <v>27.529879999999999</v>
       </c>
       <c r="I56">
         <v>273</v>
@@ -13091,27 +13533,35 @@
         <v>578.09375</v>
       </c>
       <c r="K56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.34125</v>
       </c>
       <c r="L56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.48174</v>
       </c>
-      <c r="M56" t="str">
+      <c r="M56">
+        <f t="shared" si="6"/>
+        <v>2.72431125E-2</v>
+      </c>
+      <c r="N56">
         <f t="shared" si="7"/>
+        <v>2.2941566666666666E-2</v>
+      </c>
+      <c r="O56" t="str">
+        <f t="shared" si="12"/>
         <v>[0.34125 * imageHeight, 0.48174* imageWidth]</v>
       </c>
-      <c r="N56" t="str">
+      <c r="P56" t="str">
         <f t="shared" si="8"/>
-        <v>[(0.34125 * imageHeight) + 28.13657, (0.48174* imageWidth) + 35.5409305263158]</v>
-      </c>
-      <c r="O56" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.34125 * imageHeight, 0.48174* imageWidth], [(0.34125 * imageHeight) + 28.13657, (0.48174* imageWidth) + 35.5409305263158]]</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+        <v>[(0.34125 * imageHeight) +  (0.0272431125* imageHeight), (0.48174* imageWidth) + (0.0229415666666667* imageWidth)]</v>
+      </c>
+      <c r="Q56" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.34125 * imageHeight, 0.48174* imageWidth], [(0.34125 * imageHeight) +  (0.0272431125* imageHeight), (0.48174* imageWidth) + (0.0229415666666667* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>205</v>
       </c>
@@ -13125,19 +13575,19 @@
         <v>71</v>
       </c>
       <c r="E57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.84507042253521125</v>
       </c>
       <c r="F57">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="G57">
-        <f>ROUND(SQRT(F57/E57), 5)</f>
-        <v>24.324200000000001</v>
+        <f t="shared" si="11"/>
+        <v>20.351089999999999</v>
       </c>
       <c r="H57">
-        <f>G57*E57</f>
-        <v>20.555661971830986</v>
+        <f t="shared" si="3"/>
+        <v>17.1981</v>
       </c>
       <c r="I57">
         <v>232</v>
@@ -13146,27 +13596,35 @@
         <v>615.1875</v>
       </c>
       <c r="K57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="L57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.51266</v>
       </c>
-      <c r="M57" t="str">
+      <c r="M57">
+        <f t="shared" si="6"/>
+        <v>2.5438862499999999E-2</v>
+      </c>
+      <c r="N57">
         <f t="shared" si="7"/>
+        <v>1.4331750000000001E-2</v>
+      </c>
+      <c r="O57" t="str">
+        <f t="shared" si="12"/>
         <v>[0.29 * imageHeight, 0.51266* imageWidth]</v>
       </c>
-      <c r="N57" t="str">
+      <c r="P57" t="str">
         <f t="shared" si="8"/>
-        <v>[(0.29 * imageHeight) + 24.3242, (0.51266* imageWidth) + 20.555661971831]</v>
-      </c>
-      <c r="O57" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.29 * imageHeight, 0.51266* imageWidth], [(0.29 * imageHeight) + 24.3242, (0.51266* imageWidth) + 20.555661971831]]</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+        <v>[(0.29 * imageHeight) +  (0.0254388625* imageHeight), (0.51266* imageWidth) + (0.01433175* imageWidth)]</v>
+      </c>
+      <c r="Q57" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.29 * imageHeight, 0.51266* imageWidth], [(0.29 * imageHeight) +  (0.0254388625* imageHeight), (0.51266* imageWidth) + (0.01433175* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>206</v>
       </c>
@@ -13180,19 +13638,19 @@
         <v>71</v>
       </c>
       <c r="E58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.84507042253521125</v>
       </c>
       <c r="F58">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="G58">
-        <f>ROUND(SQRT(F58/E58), 5)</f>
-        <v>24.324200000000001</v>
+        <f t="shared" si="11"/>
+        <v>20.351089999999999</v>
       </c>
       <c r="H58">
-        <f>G58*E58</f>
-        <v>20.555661971830986</v>
+        <f t="shared" si="3"/>
+        <v>17.1981</v>
       </c>
       <c r="I58">
         <v>394</v>
@@ -13201,27 +13659,35 @@
         <v>766.1875</v>
       </c>
       <c r="K58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.49249999999999999</v>
       </c>
       <c r="L58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.63849</v>
       </c>
-      <c r="M58" t="str">
+      <c r="M58">
+        <f t="shared" si="6"/>
+        <v>2.5438862499999999E-2</v>
+      </c>
+      <c r="N58">
         <f t="shared" si="7"/>
+        <v>1.4331750000000001E-2</v>
+      </c>
+      <c r="O58" t="str">
+        <f t="shared" si="12"/>
         <v>[0.4925 * imageHeight, 0.63849* imageWidth]</v>
       </c>
-      <c r="N58" t="str">
+      <c r="P58" t="str">
         <f t="shared" si="8"/>
-        <v>[(0.4925 * imageHeight) + 24.3242, (0.63849* imageWidth) + 20.555661971831]</v>
-      </c>
-      <c r="O58" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.4925 * imageHeight, 0.63849* imageWidth], [(0.4925 * imageHeight) + 24.3242, (0.63849* imageWidth) + 20.555661971831]]</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+        <v>[(0.4925 * imageHeight) +  (0.0254388625* imageHeight), (0.63849* imageWidth) + (0.01433175* imageWidth)]</v>
+      </c>
+      <c r="Q58" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.4925 * imageHeight, 0.63849* imageWidth], [(0.4925 * imageHeight) +  (0.0254388625* imageHeight), (0.63849* imageWidth) + (0.01433175* imageWidth)]]</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>209</v>
       </c>
@@ -13235,19 +13701,19 @@
         <v>84</v>
       </c>
       <c r="E59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F59">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="G59">
-        <f>ROUND(SQRT(F59/E59), 5)</f>
-        <v>38.72983</v>
+        <f t="shared" si="11"/>
+        <v>28.284269999999999</v>
       </c>
       <c r="H59">
-        <f>G59*E59</f>
-        <v>38.72983</v>
+        <f t="shared" si="3"/>
+        <v>28.284269999999999</v>
       </c>
       <c r="I59">
         <v>171</v>
@@ -13256,24 +13722,32 @@
         <v>913.1875</v>
       </c>
       <c r="K59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.21375</v>
       </c>
       <c r="L59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.76099000000000006</v>
       </c>
-      <c r="M59" t="str">
+      <c r="M59">
+        <f t="shared" si="6"/>
+        <v>3.53553375E-2</v>
+      </c>
+      <c r="N59">
         <f t="shared" si="7"/>
+        <v>2.3570225E-2</v>
+      </c>
+      <c r="O59" t="str">
+        <f t="shared" si="12"/>
         <v>[0.21375 * imageHeight, 0.76099* imageWidth]</v>
       </c>
-      <c r="N59" t="str">
+      <c r="P59" t="str">
         <f t="shared" si="8"/>
-        <v>[(0.21375 * imageHeight) + 38.72983, (0.76099* imageWidth) + 38.72983]</v>
-      </c>
-      <c r="O59" t="str">
-        <f t="shared" si="5"/>
-        <v>[[0.21375 * imageHeight, 0.76099* imageWidth], [(0.21375 * imageHeight) + 38.72983, (0.76099* imageWidth) + 38.72983]]</v>
+        <v>[(0.21375 * imageHeight) +  (0.0353553375* imageHeight), (0.76099* imageWidth) + (0.023570225* imageWidth)]</v>
+      </c>
+      <c r="Q59" t="str">
+        <f t="shared" si="9"/>
+        <v>[[0.21375 * imageHeight, 0.76099* imageWidth], [(0.21375 * imageHeight) +  (0.0353553375* imageHeight), (0.76099* imageWidth) + (0.023570225* imageWidth)]]</v>
       </c>
     </row>
   </sheetData>
